--- a/Frequenzen.xlsx
+++ b/Frequenzen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Frequenz in Hz</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Gewünschte Hetrzzahl:</t>
+  </si>
+  <si>
+    <t>Abstand</t>
+  </si>
+  <si>
+    <t>Gewünschte Frequenz Hz:</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,7 +249,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -547,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M230" sqref="M31:M230"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:P230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +563,7 @@
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
@@ -1354,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>8</v>
@@ -1368,7 +1375,9 @@
       <c r="O30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P30" s="25"/>
+      <c r="P30" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="S30">
         <v>1</v>
       </c>
@@ -1407,7 +1416,7 @@
       <c r="J31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="29">
         <v>1000</v>
       </c>
       <c r="L31" s="7">
@@ -1425,7 +1434,7 @@
         <f t="shared" ref="O31:O80" si="24">N31/1000</f>
         <v>1E-3</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P31" s="30">
         <f t="shared" ref="P31:P80" si="25">K32-K31</f>
         <v>1000</v>
       </c>
@@ -1475,7 +1484,7 @@
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="29">
         <v>2000</v>
       </c>
       <c r="L32" s="7">
@@ -1493,7 +1502,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="30">
         <f t="shared" si="25"/>
         <v>1000</v>
       </c>
@@ -1545,7 +1554,7 @@
       <c r="J33" s="6">
         <v>3</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="29">
         <v>3000</v>
       </c>
       <c r="L33" s="7">
@@ -1563,7 +1572,7 @@
         <f t="shared" si="24"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="30">
         <f t="shared" si="25"/>
         <v>1000</v>
       </c>
@@ -1631,7 +1640,7 @@
       <c r="J34" s="6">
         <v>4</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="29">
         <v>4000</v>
       </c>
       <c r="L34" s="7">
@@ -1649,7 +1658,7 @@
         <f t="shared" si="24"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="30">
         <f t="shared" si="25"/>
         <v>1000</v>
       </c>
@@ -1723,7 +1732,7 @@
       <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="29">
         <v>5000</v>
       </c>
       <c r="L35" s="7">
@@ -1741,7 +1750,7 @@
         <f t="shared" si="24"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="30">
         <f t="shared" si="25"/>
         <v>1000</v>
       </c>
@@ -1816,7 +1825,7 @@
       <c r="J36" s="6">
         <v>6</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="29">
         <v>6000</v>
       </c>
       <c r="L36" s="7">
@@ -1834,7 +1843,7 @@
         <f t="shared" si="24"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="30">
         <f t="shared" si="25"/>
         <v>1000</v>
       </c>
@@ -1909,7 +1918,7 @@
       <c r="J37" s="6">
         <v>7</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="29">
         <v>7000</v>
       </c>
       <c r="L37" s="7">
@@ -1927,7 +1936,7 @@
         <f t="shared" si="24"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="30">
         <f t="shared" si="25"/>
         <v>1000</v>
       </c>
@@ -2002,7 +2011,7 @@
       <c r="J38" s="6">
         <v>8</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="29">
         <v>8000</v>
       </c>
       <c r="L38" s="7">
@@ -2020,7 +2029,7 @@
         <f t="shared" si="24"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="P38" s="26">
+      <c r="P38" s="30">
         <f t="shared" si="25"/>
         <v>1000</v>
       </c>
@@ -2095,7 +2104,7 @@
       <c r="J39" s="6">
         <v>9</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="29">
         <v>9000</v>
       </c>
       <c r="L39" s="7">
@@ -2113,7 +2122,7 @@
         <f t="shared" si="24"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P39" s="26">
+      <c r="P39" s="30">
         <f t="shared" si="25"/>
         <v>1000</v>
       </c>
@@ -2188,7 +2197,7 @@
       <c r="J40" s="6">
         <v>10</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="29">
         <v>10000</v>
       </c>
       <c r="L40" s="7">
@@ -2206,7 +2215,7 @@
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="30">
         <f t="shared" si="25"/>
         <v>2000</v>
       </c>
@@ -2281,7 +2290,7 @@
       <c r="J41" s="6">
         <v>11</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="29">
         <v>12000</v>
       </c>
       <c r="L41" s="7">
@@ -2299,7 +2308,7 @@
         <f t="shared" si="24"/>
         <v>1.2E-2</v>
       </c>
-      <c r="P41" s="26">
+      <c r="P41" s="30">
         <f t="shared" si="25"/>
         <v>2000</v>
       </c>
@@ -2374,7 +2383,7 @@
       <c r="J42" s="6">
         <v>12</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="29">
         <f>K41+2000</f>
         <v>14000</v>
       </c>
@@ -2393,7 +2402,7 @@
         <f t="shared" si="24"/>
         <v>1.4E-2</v>
       </c>
-      <c r="P42" s="26">
+      <c r="P42" s="30">
         <f t="shared" si="25"/>
         <v>2000</v>
       </c>
@@ -2468,8 +2477,8 @@
       <c r="J43" s="6">
         <v>13</v>
       </c>
-      <c r="K43" s="7">
-        <f t="shared" ref="K43:K57" si="39">K42+2000</f>
+      <c r="K43" s="29">
+        <f t="shared" ref="K43:K45" si="39">K42+2000</f>
         <v>16000</v>
       </c>
       <c r="L43" s="7">
@@ -2487,7 +2496,7 @@
         <f t="shared" si="24"/>
         <v>1.6E-2</v>
       </c>
-      <c r="P43" s="26">
+      <c r="P43" s="30">
         <f t="shared" si="25"/>
         <v>2000</v>
       </c>
@@ -2562,7 +2571,7 @@
       <c r="J44" s="6">
         <v>14</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="29">
         <f t="shared" si="39"/>
         <v>18000</v>
       </c>
@@ -2581,7 +2590,7 @@
         <f t="shared" si="24"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="P44" s="26">
+      <c r="P44" s="30">
         <f t="shared" si="25"/>
         <v>2000</v>
       </c>
@@ -2656,7 +2665,7 @@
       <c r="J45" s="6">
         <v>15</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="29">
         <f t="shared" si="39"/>
         <v>20000</v>
       </c>
@@ -2675,7 +2684,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="P45" s="26">
+      <c r="P45" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -2750,7 +2759,7 @@
       <c r="J46" s="6">
         <v>16</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="29">
         <f>K45+2500</f>
         <v>22500</v>
       </c>
@@ -2769,7 +2778,7 @@
         <f t="shared" si="24"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="P46" s="26">
+      <c r="P46" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -2844,7 +2853,7 @@
       <c r="J47" s="6">
         <v>17</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="29">
         <f t="shared" ref="K47:K96" si="42">K46+2500</f>
         <v>25000</v>
       </c>
@@ -2863,7 +2872,7 @@
         <f t="shared" si="24"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P47" s="26">
+      <c r="P47" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -2938,7 +2947,7 @@
       <c r="J48" s="6">
         <v>18</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="29">
         <f t="shared" si="42"/>
         <v>27500</v>
       </c>
@@ -2957,7 +2966,7 @@
         <f t="shared" si="24"/>
         <v>2.75E-2</v>
       </c>
-      <c r="P48" s="26">
+      <c r="P48" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3032,7 +3041,7 @@
       <c r="J49" s="6">
         <v>19</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="29">
         <f t="shared" si="42"/>
         <v>30000</v>
       </c>
@@ -3051,7 +3060,7 @@
         <f t="shared" si="24"/>
         <v>0.03</v>
       </c>
-      <c r="P49" s="26">
+      <c r="P49" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3126,7 +3135,7 @@
       <c r="J50" s="6">
         <v>20</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="29">
         <f t="shared" si="42"/>
         <v>32500</v>
       </c>
@@ -3145,7 +3154,7 @@
         <f t="shared" si="24"/>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="P50" s="26">
+      <c r="P50" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3220,7 +3229,7 @@
       <c r="J51" s="6">
         <v>21</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="29">
         <f t="shared" si="42"/>
         <v>35000</v>
       </c>
@@ -3239,7 +3248,7 @@
         <f t="shared" si="24"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P51" s="26">
+      <c r="P51" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3314,7 +3323,7 @@
       <c r="J52" s="6">
         <v>22</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="29">
         <f t="shared" si="42"/>
         <v>37500</v>
       </c>
@@ -3333,7 +3342,7 @@
         <f t="shared" si="24"/>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="P52" s="26">
+      <c r="P52" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3408,7 +3417,7 @@
       <c r="J53" s="6">
         <v>23</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="29">
         <f t="shared" si="42"/>
         <v>40000</v>
       </c>
@@ -3427,7 +3436,7 @@
         <f t="shared" si="24"/>
         <v>0.04</v>
       </c>
-      <c r="P53" s="26">
+      <c r="P53" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3502,7 +3511,7 @@
       <c r="J54" s="6">
         <v>24</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="29">
         <f t="shared" si="42"/>
         <v>42500</v>
       </c>
@@ -3521,7 +3530,7 @@
         <f t="shared" si="24"/>
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="P54" s="26">
+      <c r="P54" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3596,7 +3605,7 @@
       <c r="J55" s="6">
         <v>25</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="29">
         <f t="shared" si="42"/>
         <v>45000</v>
       </c>
@@ -3615,7 +3624,7 @@
         <f t="shared" si="24"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P55" s="26">
+      <c r="P55" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3690,7 +3699,7 @@
       <c r="J56" s="6">
         <v>26</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="29">
         <f t="shared" si="42"/>
         <v>47500</v>
       </c>
@@ -3709,7 +3718,7 @@
         <f t="shared" si="24"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="P56" s="26">
+      <c r="P56" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3784,7 +3793,7 @@
       <c r="J57" s="6">
         <v>27</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="29">
         <f t="shared" si="42"/>
         <v>50000</v>
       </c>
@@ -3803,7 +3812,7 @@
         <f t="shared" si="24"/>
         <v>0.05</v>
       </c>
-      <c r="P57" s="26">
+      <c r="P57" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3878,7 +3887,7 @@
       <c r="J58" s="6">
         <v>28</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="29">
         <f t="shared" si="42"/>
         <v>52500</v>
       </c>
@@ -3897,7 +3906,7 @@
         <f t="shared" si="24"/>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="P58" s="26">
+      <c r="P58" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -3972,7 +3981,7 @@
       <c r="J59" s="6">
         <v>29</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="29">
         <f t="shared" si="42"/>
         <v>55000</v>
       </c>
@@ -3991,7 +4000,7 @@
         <f t="shared" si="24"/>
         <v>5.5E-2</v>
       </c>
-      <c r="P59" s="26">
+      <c r="P59" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4066,7 +4075,7 @@
       <c r="J60" s="6">
         <v>30</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="29">
         <f t="shared" si="42"/>
         <v>57500</v>
       </c>
@@ -4085,7 +4094,7 @@
         <f t="shared" si="24"/>
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="P60" s="26">
+      <c r="P60" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4157,7 +4166,7 @@
       <c r="J61" s="6">
         <v>31</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="29">
         <f t="shared" si="42"/>
         <v>60000</v>
       </c>
@@ -4176,7 +4185,7 @@
         <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
-      <c r="P61" s="26">
+      <c r="P61" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4248,7 +4257,7 @@
       <c r="J62" s="6">
         <v>32</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="29">
         <f t="shared" si="42"/>
         <v>62500</v>
       </c>
@@ -4267,7 +4276,7 @@
         <f t="shared" si="24"/>
         <v>6.25E-2</v>
       </c>
-      <c r="P62" s="26">
+      <c r="P62" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4339,7 +4348,7 @@
       <c r="J63" s="6">
         <v>33</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="29">
         <f t="shared" si="42"/>
         <v>65000</v>
       </c>
@@ -4358,7 +4367,7 @@
         <f t="shared" si="24"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="P63" s="26">
+      <c r="P63" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4427,7 +4436,7 @@
       <c r="J64" s="6">
         <v>34</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="29">
         <f t="shared" si="42"/>
         <v>67500</v>
       </c>
@@ -4446,7 +4455,7 @@
         <f t="shared" si="24"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P64" s="26">
+      <c r="P64" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4512,7 +4521,7 @@
       <c r="J65" s="6">
         <v>35</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="29">
         <f t="shared" si="42"/>
         <v>70000</v>
       </c>
@@ -4531,7 +4540,7 @@
         <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P65" s="26">
+      <c r="P65" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4597,7 +4606,7 @@
       <c r="J66" s="6">
         <v>36</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="29">
         <f t="shared" si="42"/>
         <v>72500</v>
       </c>
@@ -4616,7 +4625,7 @@
         <f t="shared" si="24"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="P66" s="26">
+      <c r="P66" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4682,7 +4691,7 @@
       <c r="J67" s="6">
         <v>37</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="29">
         <f t="shared" si="42"/>
         <v>75000</v>
       </c>
@@ -4701,7 +4710,7 @@
         <f t="shared" si="24"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="P67" s="26">
+      <c r="P67" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4767,7 +4776,7 @@
       <c r="J68" s="6">
         <v>38</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="29">
         <f t="shared" si="42"/>
         <v>77500</v>
       </c>
@@ -4786,7 +4795,7 @@
         <f t="shared" si="24"/>
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="P68" s="26">
+      <c r="P68" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4852,7 +4861,7 @@
       <c r="J69" s="6">
         <v>39</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="29">
         <f t="shared" si="42"/>
         <v>80000</v>
       </c>
@@ -4871,7 +4880,7 @@
         <f t="shared" si="24"/>
         <v>0.08</v>
       </c>
-      <c r="P69" s="26">
+      <c r="P69" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -4937,7 +4946,7 @@
       <c r="J70" s="6">
         <v>40</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="29">
         <f t="shared" si="42"/>
         <v>82500</v>
       </c>
@@ -4956,7 +4965,7 @@
         <f t="shared" si="24"/>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="P70" s="26">
+      <c r="P70" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5022,7 +5031,7 @@
       <c r="J71" s="6">
         <v>41</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="29">
         <f t="shared" si="42"/>
         <v>85000</v>
       </c>
@@ -5041,7 +5050,7 @@
         <f t="shared" si="24"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="P71" s="26">
+      <c r="P71" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5107,7 +5116,7 @@
       <c r="J72" s="6">
         <v>42</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="29">
         <f t="shared" si="42"/>
         <v>87500</v>
       </c>
@@ -5126,7 +5135,7 @@
         <f t="shared" si="24"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="P72" s="26">
+      <c r="P72" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5192,7 +5201,7 @@
       <c r="J73" s="6">
         <v>43</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73" s="29">
         <f t="shared" si="42"/>
         <v>90000</v>
       </c>
@@ -5211,7 +5220,7 @@
         <f t="shared" si="24"/>
         <v>0.09</v>
       </c>
-      <c r="P73" s="26">
+      <c r="P73" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5277,7 +5286,7 @@
       <c r="J74" s="6">
         <v>44</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="29">
         <f t="shared" si="42"/>
         <v>92500</v>
       </c>
@@ -5296,7 +5305,7 @@
         <f t="shared" si="24"/>
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="P74" s="26">
+      <c r="P74" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5362,7 +5371,7 @@
       <c r="J75" s="6">
         <v>45</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75" s="29">
         <f t="shared" si="42"/>
         <v>95000</v>
       </c>
@@ -5381,7 +5390,7 @@
         <f t="shared" si="24"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="P75" s="26">
+      <c r="P75" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5447,7 +5456,7 @@
       <c r="J76" s="6">
         <v>46</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K76" s="29">
         <f t="shared" si="42"/>
         <v>97500</v>
       </c>
@@ -5466,7 +5475,7 @@
         <f t="shared" si="24"/>
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="P76" s="26">
+      <c r="P76" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5532,7 +5541,7 @@
       <c r="J77" s="6">
         <v>47</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K77" s="29">
         <f t="shared" si="42"/>
         <v>100000</v>
       </c>
@@ -5551,7 +5560,7 @@
         <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
-      <c r="P77" s="26">
+      <c r="P77" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5617,7 +5626,7 @@
       <c r="J78" s="6">
         <v>48</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K78" s="29">
         <f t="shared" si="42"/>
         <v>102500</v>
       </c>
@@ -5636,7 +5645,7 @@
         <f t="shared" si="24"/>
         <v>0.10249999999999999</v>
       </c>
-      <c r="P78" s="26">
+      <c r="P78" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5702,7 +5711,7 @@
       <c r="J79" s="6">
         <v>49</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K79" s="29">
         <f t="shared" si="42"/>
         <v>105000</v>
       </c>
@@ -5721,7 +5730,7 @@
         <f t="shared" si="24"/>
         <v>0.105</v>
       </c>
-      <c r="P79" s="26">
+      <c r="P79" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5787,7 +5796,7 @@
       <c r="J80" s="6">
         <v>50</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K80" s="29">
         <f t="shared" si="42"/>
         <v>107500</v>
       </c>
@@ -5806,7 +5815,7 @@
         <f t="shared" si="24"/>
         <v>0.1075</v>
       </c>
-      <c r="P80" s="26">
+      <c r="P80" s="30">
         <f t="shared" si="25"/>
         <v>2500</v>
       </c>
@@ -5872,7 +5881,7 @@
       <c r="J81" s="6">
         <v>51</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K81" s="29">
         <f t="shared" si="42"/>
         <v>110000</v>
       </c>
@@ -5891,7 +5900,7 @@
         <f t="shared" ref="O81:O95" si="52">N81/1000</f>
         <v>0.11</v>
       </c>
-      <c r="P81" s="26">
+      <c r="P81" s="30">
         <f t="shared" ref="P81:P95" si="53">K82-K81</f>
         <v>2500</v>
       </c>
@@ -5957,7 +5966,7 @@
       <c r="J82" s="6">
         <v>52</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K82" s="29">
         <f t="shared" si="42"/>
         <v>112500</v>
       </c>
@@ -5976,7 +5985,7 @@
         <f t="shared" si="52"/>
         <v>0.1125</v>
       </c>
-      <c r="P82" s="26">
+      <c r="P82" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6042,7 +6051,7 @@
       <c r="J83" s="6">
         <v>53</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K83" s="29">
         <f t="shared" si="42"/>
         <v>115000</v>
       </c>
@@ -6061,7 +6070,7 @@
         <f t="shared" si="52"/>
         <v>0.115</v>
       </c>
-      <c r="P83" s="26">
+      <c r="P83" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6127,7 +6136,7 @@
       <c r="J84" s="6">
         <v>54</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K84" s="29">
         <f t="shared" si="42"/>
         <v>117500</v>
       </c>
@@ -6146,7 +6155,7 @@
         <f t="shared" si="52"/>
         <v>0.11749999999999999</v>
       </c>
-      <c r="P84" s="26">
+      <c r="P84" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6212,7 +6221,7 @@
       <c r="J85" s="6">
         <v>55</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K85" s="29">
         <f t="shared" si="42"/>
         <v>120000</v>
       </c>
@@ -6231,7 +6240,7 @@
         <f t="shared" si="52"/>
         <v>0.12</v>
       </c>
-      <c r="P85" s="26">
+      <c r="P85" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6297,7 +6306,7 @@
       <c r="J86" s="6">
         <v>56</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K86" s="29">
         <f>K85+2500</f>
         <v>122500</v>
       </c>
@@ -6316,7 +6325,7 @@
         <f t="shared" si="52"/>
         <v>0.1225</v>
       </c>
-      <c r="P86" s="26">
+      <c r="P86" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6382,7 +6391,7 @@
       <c r="J87" s="6">
         <v>57</v>
       </c>
-      <c r="K87" s="7">
+      <c r="K87" s="29">
         <f t="shared" si="42"/>
         <v>125000</v>
       </c>
@@ -6401,7 +6410,7 @@
         <f t="shared" si="52"/>
         <v>0.125</v>
       </c>
-      <c r="P87" s="26">
+      <c r="P87" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6467,7 +6476,7 @@
       <c r="J88" s="6">
         <v>58</v>
       </c>
-      <c r="K88" s="7">
+      <c r="K88" s="29">
         <f t="shared" si="42"/>
         <v>127500</v>
       </c>
@@ -6486,7 +6495,7 @@
         <f t="shared" si="52"/>
         <v>0.1275</v>
       </c>
-      <c r="P88" s="26">
+      <c r="P88" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6552,7 +6561,7 @@
       <c r="J89" s="6">
         <v>59</v>
       </c>
-      <c r="K89" s="7">
+      <c r="K89" s="29">
         <f t="shared" si="42"/>
         <v>130000</v>
       </c>
@@ -6571,7 +6580,7 @@
         <f t="shared" si="52"/>
         <v>0.13</v>
       </c>
-      <c r="P89" s="26">
+      <c r="P89" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6637,7 +6646,7 @@
       <c r="J90" s="6">
         <v>60</v>
       </c>
-      <c r="K90" s="7">
+      <c r="K90" s="29">
         <f t="shared" si="42"/>
         <v>132500</v>
       </c>
@@ -6656,7 +6665,7 @@
         <f t="shared" si="52"/>
         <v>0.13250000000000001</v>
       </c>
-      <c r="P90" s="26">
+      <c r="P90" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6722,7 +6731,7 @@
       <c r="J91" s="6">
         <v>61</v>
       </c>
-      <c r="K91" s="7">
+      <c r="K91" s="29">
         <f t="shared" si="42"/>
         <v>135000</v>
       </c>
@@ -6741,7 +6750,7 @@
         <f t="shared" si="52"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="P91" s="26">
+      <c r="P91" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6807,7 +6816,7 @@
       <c r="J92" s="6">
         <v>62</v>
       </c>
-      <c r="K92" s="7">
+      <c r="K92" s="29">
         <f t="shared" si="42"/>
         <v>137500</v>
       </c>
@@ -6826,7 +6835,7 @@
         <f t="shared" si="52"/>
         <v>0.13750000000000001</v>
       </c>
-      <c r="P92" s="26">
+      <c r="P92" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6892,7 +6901,7 @@
       <c r="J93" s="6">
         <v>63</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K93" s="29">
         <f t="shared" si="42"/>
         <v>140000</v>
       </c>
@@ -6911,7 +6920,7 @@
         <f t="shared" si="52"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="P93" s="26">
+      <c r="P93" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -6977,7 +6986,7 @@
       <c r="J94" s="6">
         <v>64</v>
       </c>
-      <c r="K94" s="7">
+      <c r="K94" s="29">
         <f t="shared" si="42"/>
         <v>142500</v>
       </c>
@@ -6996,7 +7005,7 @@
         <f t="shared" si="52"/>
         <v>0.14249999999999999</v>
       </c>
-      <c r="P94" s="26">
+      <c r="P94" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -7062,7 +7071,7 @@
       <c r="J95" s="6">
         <v>65</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K95" s="29">
         <f t="shared" si="42"/>
         <v>145000</v>
       </c>
@@ -7081,7 +7090,7 @@
         <f t="shared" si="52"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="P95" s="26">
+      <c r="P95" s="30">
         <f t="shared" si="53"/>
         <v>2500</v>
       </c>
@@ -7147,7 +7156,7 @@
       <c r="J96" s="6">
         <v>66</v>
       </c>
-      <c r="K96" s="7">
+      <c r="K96" s="29">
         <f t="shared" si="42"/>
         <v>147500</v>
       </c>
@@ -7166,7 +7175,7 @@
         <f t="shared" ref="O96:O159" si="55">N96/1000</f>
         <v>0.14749999999999999</v>
       </c>
-      <c r="P96" s="26">
+      <c r="P96" s="30">
         <f t="shared" ref="P96:P159" si="56">K97-K96</f>
         <v>2500</v>
       </c>
@@ -7232,7 +7241,7 @@
       <c r="J97" s="6">
         <v>67</v>
       </c>
-      <c r="K97" s="7">
+      <c r="K97" s="29">
         <f>K96+2500</f>
         <v>150000</v>
       </c>
@@ -7251,7 +7260,7 @@
         <f t="shared" si="55"/>
         <v>0.15</v>
       </c>
-      <c r="P97" s="26">
+      <c r="P97" s="30">
         <f t="shared" si="56"/>
         <v>2173.913043478271</v>
       </c>
@@ -7317,8 +7326,8 @@
       <c r="J98" s="6">
         <v>68</v>
       </c>
-      <c r="K98" s="7">
-        <f t="shared" ref="K81:K132" si="60">21000000 /L98/M98</f>
+      <c r="K98" s="29">
+        <f t="shared" ref="K98:K132" si="60">21000000 /L98/M98</f>
         <v>152173.91304347827</v>
       </c>
       <c r="L98" s="7">
@@ -7335,7 +7344,7 @@
         <f t="shared" si="55"/>
         <v>0.15217391304347827</v>
       </c>
-      <c r="P98" s="26">
+      <c r="P98" s="30">
         <f t="shared" si="56"/>
         <v>1110.7584893684543</v>
       </c>
@@ -7401,7 +7410,7 @@
       <c r="J99" s="6">
         <v>69</v>
       </c>
-      <c r="K99" s="7">
+      <c r="K99" s="29">
         <f t="shared" si="60"/>
         <v>153284.67153284673</v>
       </c>
@@ -7419,7 +7428,7 @@
         <f t="shared" si="55"/>
         <v>0.15328467153284672</v>
       </c>
-      <c r="P99" s="26">
+      <c r="P99" s="30">
         <f t="shared" si="56"/>
         <v>1127.0931730356242</v>
       </c>
@@ -7485,7 +7494,7 @@
       <c r="J100" s="6">
         <v>70</v>
       </c>
-      <c r="K100" s="7">
+      <c r="K100" s="29">
         <f t="shared" si="60"/>
         <v>154411.76470588235</v>
       </c>
@@ -7503,7 +7512,7 @@
         <f t="shared" si="55"/>
         <v>0.15441176470588236</v>
       </c>
-      <c r="P100" s="26">
+      <c r="P100" s="30">
         <f t="shared" si="56"/>
         <v>1143.7908496732125</v>
       </c>
@@ -7565,7 +7574,7 @@
       <c r="J101" s="6">
         <v>71</v>
       </c>
-      <c r="K101" s="7">
+      <c r="K101" s="29">
         <f t="shared" si="60"/>
         <v>155555.55555555556</v>
       </c>
@@ -7583,7 +7592,7 @@
         <f t="shared" si="55"/>
         <v>0.15555555555555556</v>
       </c>
-      <c r="P101" s="26">
+      <c r="P101" s="30">
         <f t="shared" si="56"/>
         <v>1160.8623548921896</v>
       </c>
@@ -7645,7 +7654,7 @@
       <c r="J102" s="6">
         <v>72</v>
       </c>
-      <c r="K102" s="7">
+      <c r="K102" s="29">
         <f t="shared" si="60"/>
         <v>156716.41791044775</v>
       </c>
@@ -7663,7 +7672,7 @@
         <f t="shared" si="55"/>
         <v>0.15671641791044774</v>
       </c>
-      <c r="P102" s="26">
+      <c r="P102" s="30">
         <f t="shared" si="56"/>
         <v>1178.3189316575008</v>
       </c>
@@ -7725,7 +7734,7 @@
       <c r="J103" s="6">
         <v>73</v>
       </c>
-      <c r="K103" s="7">
+      <c r="K103" s="29">
         <f t="shared" si="60"/>
         <v>157894.73684210525</v>
       </c>
@@ -7743,7 +7752,7 @@
         <f t="shared" si="55"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="P103" s="26">
+      <c r="P103" s="30">
         <f t="shared" si="56"/>
         <v>1196.1722488038358</v>
       </c>
@@ -7805,7 +7814,7 @@
       <c r="J104" s="6">
         <v>74</v>
       </c>
-      <c r="K104" s="7">
+      <c r="K104" s="29">
         <f t="shared" si="60"/>
         <v>159090.90909090909</v>
       </c>
@@ -7823,7 +7832,7 @@
         <f t="shared" si="55"/>
         <v>0.15909090909090909</v>
       </c>
-      <c r="P104" s="26">
+      <c r="P104" s="30">
         <f t="shared" si="56"/>
         <v>1214.4344205413072</v>
       </c>
@@ -7885,7 +7894,7 @@
       <c r="J105" s="6">
         <v>75</v>
       </c>
-      <c r="K105" s="7">
+      <c r="K105" s="29">
         <f t="shared" si="60"/>
         <v>160305.3435114504</v>
       </c>
@@ -7903,7 +7912,7 @@
         <f t="shared" si="55"/>
         <v>0.1603053435114504</v>
       </c>
-      <c r="P105" s="26">
+      <c r="P105" s="30">
         <f t="shared" si="56"/>
         <v>1233.1180270111363</v>
       </c>
@@ -7965,7 +7974,7 @@
       <c r="J106" s="6">
         <v>76</v>
       </c>
-      <c r="K106" s="7">
+      <c r="K106" s="29">
         <f t="shared" si="60"/>
         <v>161538.46153846153</v>
       </c>
@@ -7983,7 +7992,7 @@
         <f t="shared" si="55"/>
         <v>0.16153846153846152</v>
       </c>
-      <c r="P106" s="26">
+      <c r="P106" s="30">
         <f t="shared" si="56"/>
         <v>1252.2361359570641</v>
       </c>
@@ -8045,7 +8054,7 @@
       <c r="J107" s="6">
         <v>77</v>
       </c>
-      <c r="K107" s="7">
+      <c r="K107" s="29">
         <f t="shared" si="60"/>
         <v>162790.6976744186</v>
       </c>
@@ -8063,7 +8072,7 @@
         <f t="shared" si="55"/>
         <v>0.16279069767441859</v>
       </c>
-      <c r="P107" s="26">
+      <c r="P107" s="30">
         <f t="shared" si="56"/>
         <v>1271.8023255814041</v>
       </c>
@@ -8125,7 +8134,7 @@
       <c r="J108" s="6">
         <v>78</v>
       </c>
-      <c r="K108" s="7">
+      <c r="K108" s="29">
         <f t="shared" si="60"/>
         <v>164062.5</v>
       </c>
@@ -8143,7 +8152,7 @@
         <f t="shared" si="55"/>
         <v>0.1640625</v>
       </c>
-      <c r="P108" s="26">
+      <c r="P108" s="30">
         <f t="shared" si="56"/>
         <v>1291.8307086614077</v>
       </c>
@@ -8205,7 +8214,7 @@
       <c r="J109" s="6">
         <v>79</v>
       </c>
-      <c r="K109" s="7">
+      <c r="K109" s="29">
         <f t="shared" si="60"/>
         <v>165354.33070866141</v>
       </c>
@@ -8223,7 +8232,7 @@
         <f t="shared" si="55"/>
         <v>0.1653543307086614</v>
       </c>
-      <c r="P109" s="26">
+      <c r="P109" s="30">
         <f t="shared" si="56"/>
         <v>1312.3359580052493</v>
       </c>
@@ -8285,7 +8294,7 @@
       <c r="J110" s="6">
         <v>80</v>
       </c>
-      <c r="K110" s="7">
+      <c r="K110" s="29">
         <f t="shared" si="60"/>
         <v>166666.66666666666</v>
       </c>
@@ -8303,7 +8312,7 @@
         <f t="shared" si="55"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P110" s="26">
+      <c r="P110" s="30">
         <f t="shared" si="56"/>
         <v>1333.333333333343</v>
       </c>
@@ -8365,7 +8374,7 @@
       <c r="J111" s="6">
         <v>81</v>
       </c>
-      <c r="K111" s="7">
+      <c r="K111" s="29">
         <f t="shared" si="60"/>
         <v>168000</v>
       </c>
@@ -8383,7 +8392,7 @@
         <f t="shared" si="55"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="P111" s="26">
+      <c r="P111" s="30">
         <f t="shared" si="56"/>
         <v>1354.838709677424</v>
       </c>
@@ -8445,7 +8454,7 @@
       <c r="J112" s="6">
         <v>82</v>
       </c>
-      <c r="K112" s="7">
+      <c r="K112" s="29">
         <f t="shared" si="60"/>
         <v>169354.83870967742</v>
       </c>
@@ -8463,7 +8472,7 @@
         <f t="shared" si="55"/>
         <v>0.16935483870967744</v>
       </c>
-      <c r="P112" s="26">
+      <c r="P112" s="30">
         <f t="shared" si="56"/>
         <v>1376.868607395736</v>
       </c>
@@ -8525,7 +8534,7 @@
       <c r="J113" s="6">
         <v>83</v>
       </c>
-      <c r="K113" s="7">
+      <c r="K113" s="29">
         <f t="shared" si="60"/>
         <v>170731.70731707316</v>
       </c>
@@ -8543,7 +8552,7 @@
         <f t="shared" si="55"/>
         <v>0.17073170731707316</v>
       </c>
-      <c r="P113" s="26">
+      <c r="P113" s="30">
         <f t="shared" si="56"/>
         <v>1399.4402239104384</v>
       </c>
@@ -8605,7 +8614,7 @@
       <c r="J114" s="6">
         <v>84</v>
       </c>
-      <c r="K114" s="7">
+      <c r="K114" s="29">
         <f t="shared" si="60"/>
         <v>172131.1475409836</v>
       </c>
@@ -8623,7 +8632,7 @@
         <f t="shared" si="55"/>
         <v>0.1721311475409836</v>
       </c>
-      <c r="P114" s="26">
+      <c r="P114" s="30">
         <f t="shared" si="56"/>
         <v>1422.5714672808535</v>
       </c>
@@ -8685,7 +8694,7 @@
       <c r="J115" s="6">
         <v>85</v>
       </c>
-      <c r="K115" s="7">
+      <c r="K115" s="29">
         <f t="shared" si="60"/>
         <v>173553.71900826445</v>
       </c>
@@ -8703,7 +8712,7 @@
         <f t="shared" si="55"/>
         <v>0.17355371900826447</v>
       </c>
-      <c r="P115" s="26">
+      <c r="P115" s="30">
         <f t="shared" si="56"/>
         <v>1446.280991735548</v>
       </c>
@@ -8765,7 +8774,7 @@
       <c r="J116" s="6">
         <v>86</v>
       </c>
-      <c r="K116" s="7">
+      <c r="K116" s="29">
         <f t="shared" si="60"/>
         <v>175000</v>
       </c>
@@ -8783,7 +8792,7 @@
         <f t="shared" si="55"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="P116" s="26">
+      <c r="P116" s="30">
         <f t="shared" si="56"/>
         <v>1470.5882352941262</v>
       </c>
@@ -8845,7 +8854,7 @@
       <c r="J117" s="6">
         <v>87</v>
       </c>
-      <c r="K117" s="7">
+      <c r="K117" s="29">
         <f t="shared" si="60"/>
         <v>176470.58823529413</v>
       </c>
@@ -8863,7 +8872,7 @@
         <f t="shared" si="55"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="P117" s="26">
+      <c r="P117" s="30">
         <f t="shared" si="56"/>
         <v>1495.5134596211137</v>
       </c>
@@ -8925,7 +8934,7 @@
       <c r="J118" s="6">
         <v>88</v>
       </c>
-      <c r="K118" s="7">
+      <c r="K118" s="29">
         <f t="shared" si="60"/>
         <v>177966.10169491524</v>
       </c>
@@ -8943,7 +8952,7 @@
         <f t="shared" si="55"/>
         <v>0.17796610169491525</v>
       </c>
-      <c r="P118" s="26">
+      <c r="P118" s="30">
         <f t="shared" si="56"/>
         <v>1521.0777922642592</v>
       </c>
@@ -9005,7 +9014,7 @@
       <c r="J119" s="6">
         <v>89</v>
       </c>
-      <c r="K119" s="7">
+      <c r="K119" s="29">
         <f t="shared" si="60"/>
         <v>179487.1794871795</v>
       </c>
@@ -9023,7 +9032,7 @@
         <f t="shared" si="55"/>
         <v>0.17948717948717952</v>
       </c>
-      <c r="P119" s="26">
+      <c r="P119" s="30">
         <f t="shared" si="56"/>
         <v>1547.3032714411966</v>
       </c>
@@ -9085,7 +9094,7 @@
       <c r="J120" s="6">
         <v>90</v>
       </c>
-      <c r="K120" s="7">
+      <c r="K120" s="29">
         <f t="shared" si="60"/>
         <v>181034.4827586207</v>
       </c>
@@ -9103,7 +9112,7 @@
         <f t="shared" si="55"/>
         <v>0.18103448275862069</v>
       </c>
-      <c r="P120" s="26">
+      <c r="P120" s="30">
         <f t="shared" si="56"/>
         <v>1574.2128935532237</v>
       </c>
@@ -9165,7 +9174,7 @@
       <c r="J121" s="6">
         <v>91</v>
       </c>
-      <c r="K121" s="7">
+      <c r="K121" s="29">
         <f t="shared" si="60"/>
         <v>182608.69565217392</v>
       </c>
@@ -9183,7 +9192,7 @@
         <f t="shared" si="55"/>
         <v>0.18260869565217391</v>
       </c>
-      <c r="P121" s="26">
+      <c r="P121" s="30">
         <f t="shared" si="56"/>
         <v>1601.8306636155467</v>
       </c>
@@ -9245,7 +9254,7 @@
       <c r="J122" s="6">
         <v>92</v>
       </c>
-      <c r="K122" s="7">
+      <c r="K122" s="29">
         <f t="shared" si="60"/>
         <v>184210.52631578947</v>
       </c>
@@ -9263,7 +9272,7 @@
         <f t="shared" si="55"/>
         <v>0.18421052631578949</v>
       </c>
-      <c r="P122" s="26">
+      <c r="P122" s="30">
         <f t="shared" si="56"/>
         <v>1630.181648812315</v>
       </c>
@@ -9325,7 +9334,7 @@
       <c r="J123" s="6">
         <v>93</v>
       </c>
-      <c r="K123" s="7">
+      <c r="K123" s="29">
         <f t="shared" si="60"/>
         <v>185840.70796460178</v>
       </c>
@@ -9343,7 +9352,7 @@
         <f t="shared" si="55"/>
         <v>0.18584070796460178</v>
       </c>
-      <c r="P123" s="26">
+      <c r="P123" s="30">
         <f t="shared" si="56"/>
         <v>1659.292035398219</v>
       </c>
@@ -9405,7 +9414,7 @@
       <c r="J124" s="6">
         <v>94</v>
       </c>
-      <c r="K124" s="7">
+      <c r="K124" s="29">
         <f t="shared" si="60"/>
         <v>187500</v>
       </c>
@@ -9423,7 +9432,7 @@
         <f t="shared" si="55"/>
         <v>0.1875</v>
       </c>
-      <c r="P124" s="26">
+      <c r="P124" s="30">
         <f t="shared" si="56"/>
         <v>1689.189189189201</v>
       </c>
@@ -9485,7 +9494,7 @@
       <c r="J125" s="6">
         <v>95</v>
       </c>
-      <c r="K125" s="7">
+      <c r="K125" s="29">
         <f t="shared" si="60"/>
         <v>189189.1891891892</v>
       </c>
@@ -9503,7 +9512,7 @@
         <f t="shared" si="55"/>
         <v>0.1891891891891892</v>
       </c>
-      <c r="P125" s="26">
+      <c r="P125" s="30">
         <f t="shared" si="56"/>
         <v>1719.9017199017107</v>
       </c>
@@ -9565,7 +9574,7 @@
       <c r="J126" s="6">
         <v>96</v>
       </c>
-      <c r="K126" s="7">
+      <c r="K126" s="29">
         <f t="shared" si="60"/>
         <v>190909.09090909091</v>
       </c>
@@ -9583,7 +9592,7 @@
         <f t="shared" si="55"/>
         <v>0.19090909090909092</v>
       </c>
-      <c r="P126" s="26">
+      <c r="P126" s="30">
         <f t="shared" si="56"/>
         <v>1751.4595496246766</v>
       </c>
@@ -9645,7 +9654,7 @@
       <c r="J127" s="6">
         <v>97</v>
       </c>
-      <c r="K127" s="7">
+      <c r="K127" s="29">
         <f t="shared" si="60"/>
         <v>192660.55045871559</v>
       </c>
@@ -9663,7 +9672,7 @@
         <f t="shared" si="55"/>
         <v>0.19266055045871558</v>
       </c>
-      <c r="P127" s="26">
+      <c r="P127" s="30">
         <f t="shared" si="56"/>
         <v>1783.8939857288497</v>
       </c>
@@ -9725,7 +9734,7 @@
       <c r="J128" s="6">
         <v>98</v>
       </c>
-      <c r="K128" s="7">
+      <c r="K128" s="29">
         <f t="shared" si="60"/>
         <v>194444.44444444444</v>
       </c>
@@ -9743,7 +9752,7 @@
         <f t="shared" si="55"/>
         <v>0.19444444444444442</v>
       </c>
-      <c r="P128" s="26">
+      <c r="P128" s="30">
         <f t="shared" si="56"/>
         <v>1817.2377985462081</v>
       </c>
@@ -9805,7 +9814,7 @@
       <c r="J129" s="6">
         <v>99</v>
       </c>
-      <c r="K129" s="7">
+      <c r="K129" s="29">
         <f t="shared" si="60"/>
         <v>196261.68224299065</v>
       </c>
@@ -9823,7 +9832,7 @@
         <f t="shared" si="55"/>
         <v>0.19626168224299065</v>
       </c>
-      <c r="P129" s="26">
+      <c r="P129" s="30">
         <f t="shared" si="56"/>
         <v>1851.525304179173</v>
       </c>
@@ -9885,7 +9894,7 @@
       <c r="J130" s="6">
         <v>100</v>
       </c>
-      <c r="K130" s="7">
+      <c r="K130" s="29">
         <f t="shared" si="60"/>
         <v>198113.20754716982</v>
       </c>
@@ -9903,7 +9912,7 @@
         <f t="shared" si="55"/>
         <v>0.19811320754716982</v>
       </c>
-      <c r="P130" s="26">
+      <c r="P130" s="30">
         <f t="shared" si="56"/>
         <v>1886.792452830181</v>
       </c>
@@ -9965,7 +9974,7 @@
       <c r="J131" s="6">
         <v>101</v>
       </c>
-      <c r="K131" s="7">
+      <c r="K131" s="29">
         <f t="shared" si="60"/>
         <v>200000</v>
       </c>
@@ -9983,7 +9992,7 @@
         <f t="shared" si="55"/>
         <v>0.2</v>
       </c>
-      <c r="P131" s="26">
+      <c r="P131" s="30">
         <f t="shared" si="56"/>
         <v>1923.0769230769365</v>
       </c>
@@ -10045,7 +10054,7 @@
       <c r="J132" s="6">
         <v>102</v>
       </c>
-      <c r="K132" s="7">
+      <c r="K132" s="29">
         <f t="shared" si="60"/>
         <v>201923.07692307694</v>
       </c>
@@ -10063,7 +10072,7 @@
         <f t="shared" si="55"/>
         <v>0.20192307692307693</v>
       </c>
-      <c r="P132" s="26">
+      <c r="P132" s="30">
         <f t="shared" si="56"/>
         <v>1960.4182225541444</v>
       </c>
@@ -10125,7 +10134,7 @@
       <c r="J133" s="6">
         <v>103</v>
       </c>
-      <c r="K133" s="7">
+      <c r="K133" s="29">
         <f t="shared" ref="K133:K184" si="72">21000000 /L133/M133</f>
         <v>203883.49514563108</v>
       </c>
@@ -10143,7 +10152,7 @@
         <f t="shared" si="55"/>
         <v>0.20388349514563109</v>
       </c>
-      <c r="P133" s="26">
+      <c r="P133" s="30">
         <f t="shared" si="56"/>
         <v>1998.8577955453948</v>
       </c>
@@ -10205,7 +10214,7 @@
       <c r="J134" s="6">
         <v>104</v>
       </c>
-      <c r="K134" s="7">
+      <c r="K134" s="29">
         <f t="shared" si="72"/>
         <v>205882.35294117648</v>
       </c>
@@ -10223,7 +10232,7 @@
         <f t="shared" si="55"/>
         <v>0.20588235294117646</v>
       </c>
-      <c r="P134" s="26">
+      <c r="P134" s="30">
         <f t="shared" si="56"/>
         <v>2038.4391380314482</v>
       </c>
@@ -10285,7 +10294,7 @@
       <c r="J135" s="6">
         <v>105</v>
       </c>
-      <c r="K135" s="7">
+      <c r="K135" s="29">
         <f t="shared" si="72"/>
         <v>207920.79207920792</v>
       </c>
@@ -10303,7 +10312,7 @@
         <f t="shared" si="55"/>
         <v>0.20792079207920794</v>
       </c>
-      <c r="P135" s="26">
+      <c r="P135" s="30">
         <f t="shared" si="56"/>
         <v>2079.207920792076</v>
       </c>
@@ -10365,7 +10374,7 @@
       <c r="J136" s="6">
         <v>106</v>
       </c>
-      <c r="K136" s="7">
+      <c r="K136" s="29">
         <f t="shared" si="72"/>
         <v>210000</v>
       </c>
@@ -10383,7 +10392,7 @@
         <f t="shared" si="55"/>
         <v>0.21</v>
       </c>
-      <c r="P136" s="26">
+      <c r="P136" s="30">
         <f t="shared" si="56"/>
         <v>2121.2121212121274</v>
       </c>
@@ -10445,7 +10454,7 @@
       <c r="J137" s="6">
         <v>107</v>
       </c>
-      <c r="K137" s="7">
+      <c r="K137" s="29">
         <f t="shared" si="72"/>
         <v>212121.21212121213</v>
       </c>
@@ -10463,7 +10472,7 @@
         <f t="shared" si="55"/>
         <v>0.21212121212121213</v>
       </c>
-      <c r="P137" s="26">
+      <c r="P137" s="30">
         <f t="shared" si="56"/>
         <v>2164.5021645021625</v>
       </c>
@@ -10525,7 +10534,7 @@
       <c r="J138" s="6">
         <v>108</v>
       </c>
-      <c r="K138" s="7">
+      <c r="K138" s="29">
         <f t="shared" si="72"/>
         <v>214285.71428571429</v>
       </c>
@@ -10543,7 +10552,7 @@
         <f t="shared" si="55"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="P138" s="26">
+      <c r="P138" s="30">
         <f t="shared" si="56"/>
         <v>2209.1310751104611</v>
       </c>
@@ -10605,7 +10614,7 @@
       <c r="J139" s="6">
         <v>109</v>
       </c>
-      <c r="K139" s="7">
+      <c r="K139" s="29">
         <f t="shared" si="72"/>
         <v>216494.84536082475</v>
       </c>
@@ -10623,7 +10632,7 @@
         <f t="shared" si="55"/>
         <v>0.21649484536082475</v>
       </c>
-      <c r="P139" s="26">
+      <c r="P139" s="30">
         <f t="shared" si="56"/>
         <v>2255.154639175249</v>
       </c>
@@ -10685,7 +10694,7 @@
       <c r="J140" s="6">
         <v>110</v>
       </c>
-      <c r="K140" s="7">
+      <c r="K140" s="29">
         <f t="shared" si="72"/>
         <v>218750</v>
       </c>
@@ -10703,7 +10712,7 @@
         <f t="shared" si="55"/>
         <v>0.21875</v>
       </c>
-      <c r="P140" s="26">
+      <c r="P140" s="30">
         <f t="shared" si="56"/>
         <v>2302.6315789473592</v>
       </c>
@@ -10765,7 +10774,7 @@
       <c r="J141" s="6">
         <v>111</v>
       </c>
-      <c r="K141" s="7">
+      <c r="K141" s="29">
         <f t="shared" si="72"/>
         <v>221052.63157894736</v>
       </c>
@@ -10783,7 +10792,7 @@
         <f t="shared" si="55"/>
         <v>0.22105263157894736</v>
       </c>
-      <c r="P141" s="26">
+      <c r="P141" s="30">
         <f t="shared" si="56"/>
         <v>2351.6237402015831</v>
       </c>
@@ -10845,7 +10854,7 @@
       <c r="J142" s="6">
         <v>112</v>
       </c>
-      <c r="K142" s="7">
+      <c r="K142" s="29">
         <f t="shared" si="72"/>
         <v>223404.25531914894</v>
       </c>
@@ -10863,7 +10872,7 @@
         <f t="shared" si="55"/>
         <v>0.22340425531914895</v>
       </c>
-      <c r="P142" s="26">
+      <c r="P142" s="30">
         <f t="shared" si="56"/>
         <v>2402.1962937542703</v>
       </c>
@@ -10925,7 +10934,7 @@
       <c r="J143" s="6">
         <v>113</v>
       </c>
-      <c r="K143" s="7">
+      <c r="K143" s="29">
         <f t="shared" si="72"/>
         <v>225806.45161290321</v>
       </c>
@@ -10943,7 +10952,7 @@
         <f t="shared" si="55"/>
         <v>0.22580645161290319</v>
       </c>
-      <c r="P143" s="26">
+      <c r="P143" s="30">
         <f t="shared" si="56"/>
         <v>2454.4179523141647</v>
       </c>
@@ -11005,7 +11014,7 @@
       <c r="J144" s="6">
         <v>114</v>
       </c>
-      <c r="K144" s="7">
+      <c r="K144" s="29">
         <f t="shared" si="72"/>
         <v>228260.86956521738</v>
       </c>
@@ -11023,7 +11032,7 @@
         <f t="shared" si="55"/>
         <v>0.22826086956521738</v>
       </c>
-      <c r="P144" s="26">
+      <c r="P144" s="30">
         <f t="shared" si="56"/>
         <v>2508.361204013403</v>
       </c>
@@ -11085,7 +11094,7 @@
       <c r="J145" s="6">
         <v>115</v>
       </c>
-      <c r="K145" s="7">
+      <c r="K145" s="29">
         <f t="shared" si="72"/>
         <v>230769.23076923078</v>
       </c>
@@ -11103,7 +11112,7 @@
         <f t="shared" si="55"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="P145" s="26">
+      <c r="P145" s="30">
         <f t="shared" si="56"/>
         <v>2564.1025641025626</v>
       </c>
@@ -11165,7 +11174,7 @@
       <c r="J146" s="6">
         <v>116</v>
       </c>
-      <c r="K146" s="7">
+      <c r="K146" s="29">
         <f t="shared" si="72"/>
         <v>233333.33333333334</v>
       </c>
@@ -11183,7 +11192,7 @@
         <f t="shared" si="55"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="P146" s="26">
+      <c r="P146" s="30">
         <f t="shared" si="56"/>
         <v>2621.7228464419313</v>
       </c>
@@ -11245,7 +11254,7 @@
       <c r="J147" s="6">
         <v>117</v>
       </c>
-      <c r="K147" s="7">
+      <c r="K147" s="29">
         <f t="shared" si="72"/>
         <v>235955.05617977527</v>
       </c>
@@ -11263,7 +11272,7 @@
         <f t="shared" si="55"/>
         <v>0.23595505617977527</v>
       </c>
-      <c r="P147" s="26">
+      <c r="P147" s="30">
         <f t="shared" si="56"/>
         <v>2681.3074565883726</v>
       </c>
@@ -11325,7 +11334,7 @@
       <c r="J148" s="6">
         <v>118</v>
       </c>
-      <c r="K148" s="7">
+      <c r="K148" s="29">
         <f t="shared" si="72"/>
         <v>238636.36363636365</v>
       </c>
@@ -11343,7 +11352,7 @@
         <f t="shared" si="55"/>
         <v>0.23863636363636365</v>
       </c>
-      <c r="P148" s="26">
+      <c r="P148" s="30">
         <f t="shared" si="56"/>
         <v>2742.9467084639473</v>
       </c>
@@ -11405,7 +11414,7 @@
       <c r="J149" s="6">
         <v>119</v>
       </c>
-      <c r="K149" s="7">
+      <c r="K149" s="29">
         <f t="shared" si="72"/>
         <v>241379.31034482759</v>
       </c>
@@ -11423,7 +11432,7 @@
         <f t="shared" si="55"/>
         <v>0.2413793103448276</v>
       </c>
-      <c r="P149" s="26">
+      <c r="P149" s="30">
         <f t="shared" si="56"/>
         <v>2806.7361668003141</v>
       </c>
@@ -11485,7 +11494,7 @@
       <c r="J150" s="6">
         <v>120</v>
       </c>
-      <c r="K150" s="7">
+      <c r="K150" s="29">
         <f t="shared" si="72"/>
         <v>244186.04651162791</v>
       </c>
@@ -11503,7 +11512,7 @@
         <f t="shared" si="55"/>
         <v>0.24418604651162792</v>
       </c>
-      <c r="P150" s="26">
+      <c r="P150" s="30">
         <f t="shared" si="56"/>
         <v>2872.7770177838684</v>
       </c>
@@ -11565,7 +11574,7 @@
       <c r="J151" s="6">
         <v>121</v>
       </c>
-      <c r="K151" s="7">
+      <c r="K151" s="29">
         <f t="shared" si="72"/>
         <v>247058.82352941178</v>
       </c>
@@ -11583,7 +11592,7 @@
         <f t="shared" si="55"/>
         <v>0.24705882352941178</v>
       </c>
-      <c r="P151" s="26">
+      <c r="P151" s="30">
         <f t="shared" si="56"/>
         <v>2941.1764705882233</v>
       </c>
@@ -11645,7 +11654,7 @@
       <c r="J152" s="6">
         <v>122</v>
       </c>
-      <c r="K152" s="7">
+      <c r="K152" s="29">
         <f t="shared" si="72"/>
         <v>250000</v>
       </c>
@@ -11663,7 +11672,7 @@
         <f t="shared" si="55"/>
         <v>0.25</v>
       </c>
-      <c r="P152" s="26">
+      <c r="P152" s="30">
         <f t="shared" si="56"/>
         <v>3012.0481927710935</v>
       </c>
@@ -11725,7 +11734,7 @@
       <c r="J153" s="6">
         <v>123</v>
       </c>
-      <c r="K153" s="7">
+      <c r="K153" s="29">
         <f t="shared" si="72"/>
         <v>253012.04819277109</v>
       </c>
@@ -11743,7 +11752,7 @@
         <f t="shared" si="55"/>
         <v>0.25301204819277107</v>
       </c>
-      <c r="P153" s="26">
+      <c r="P153" s="30">
         <f t="shared" si="56"/>
         <v>3085.5127828386612</v>
       </c>
@@ -11802,7 +11811,7 @@
       <c r="J154" s="6">
         <v>124</v>
       </c>
-      <c r="K154" s="7">
+      <c r="K154" s="29">
         <f t="shared" si="72"/>
         <v>256097.56097560975</v>
       </c>
@@ -11820,7 +11829,7 @@
         <f t="shared" si="55"/>
         <v>0.25609756097560976</v>
       </c>
-      <c r="P154" s="26">
+      <c r="P154" s="30">
         <f t="shared" si="56"/>
         <v>3161.6982836495154</v>
       </c>
@@ -11879,7 +11888,7 @@
       <c r="J155" s="6">
         <v>125</v>
       </c>
-      <c r="K155" s="7">
+      <c r="K155" s="29">
         <f t="shared" si="72"/>
         <v>259259.25925925927</v>
       </c>
@@ -11897,7 +11906,7 @@
         <f t="shared" si="55"/>
         <v>0.2592592592592593</v>
       </c>
-      <c r="P155" s="26">
+      <c r="P155" s="30">
         <f t="shared" si="56"/>
         <v>3240.74074074073</v>
       </c>
@@ -11956,7 +11965,7 @@
       <c r="J156" s="6">
         <v>126</v>
       </c>
-      <c r="K156" s="7">
+      <c r="K156" s="29">
         <f t="shared" si="72"/>
         <v>262500</v>
       </c>
@@ -11974,7 +11983,7 @@
         <f t="shared" si="55"/>
         <v>0.26250000000000001</v>
       </c>
-      <c r="P156" s="26">
+      <c r="P156" s="30">
         <f t="shared" si="56"/>
         <v>3322.7848101265845</v>
       </c>
@@ -12033,7 +12042,7 @@
       <c r="J157" s="6">
         <v>127</v>
       </c>
-      <c r="K157" s="7">
+      <c r="K157" s="29">
         <f t="shared" si="72"/>
         <v>265822.78481012658</v>
       </c>
@@ -12051,7 +12060,7 @@
         <f t="shared" si="55"/>
         <v>0.26582278481012656</v>
       </c>
-      <c r="P157" s="26">
+      <c r="P157" s="30">
         <f t="shared" si="56"/>
         <v>3407.9844206426642</v>
       </c>
@@ -12110,7 +12119,7 @@
       <c r="J158" s="6">
         <v>128</v>
       </c>
-      <c r="K158" s="7">
+      <c r="K158" s="29">
         <f t="shared" si="72"/>
         <v>269230.76923076925</v>
       </c>
@@ -12128,7 +12137,7 @@
         <f t="shared" si="55"/>
         <v>0.26923076923076922</v>
       </c>
-      <c r="P158" s="26">
+      <c r="P158" s="30">
         <f t="shared" si="56"/>
         <v>3496.5034965034574</v>
       </c>
@@ -12187,7 +12196,7 @@
       <c r="J159" s="6">
         <v>129</v>
       </c>
-      <c r="K159" s="7">
+      <c r="K159" s="29">
         <f t="shared" si="72"/>
         <v>272727.27272727271</v>
       </c>
@@ -12205,7 +12214,7 @@
         <f t="shared" si="55"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="P159" s="26">
+      <c r="P159" s="30">
         <f t="shared" si="56"/>
         <v>3588.5167464115075</v>
       </c>
@@ -12264,7 +12273,7 @@
       <c r="J160" s="6">
         <v>130</v>
       </c>
-      <c r="K160" s="7">
+      <c r="K160" s="29">
         <f t="shared" si="72"/>
         <v>276315.78947368421</v>
       </c>
@@ -12282,7 +12291,7 @@
         <f t="shared" ref="O160:O184" si="73">N160/1000</f>
         <v>0.27631578947368424</v>
       </c>
-      <c r="P160" s="26">
+      <c r="P160" s="30">
         <f t="shared" ref="P160:P184" si="74">K161-K160</f>
         <v>3684.2105263157864</v>
       </c>
@@ -12341,7 +12350,7 @@
       <c r="J161" s="6">
         <v>131</v>
       </c>
-      <c r="K161" s="7">
+      <c r="K161" s="29">
         <f t="shared" si="72"/>
         <v>280000</v>
       </c>
@@ -12359,7 +12368,7 @@
         <f t="shared" si="73"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="P161" s="26">
+      <c r="P161" s="30">
         <f t="shared" si="74"/>
         <v>3783.7837837837869</v>
       </c>
@@ -12418,7 +12427,7 @@
       <c r="J162" s="6">
         <v>132</v>
       </c>
-      <c r="K162" s="7">
+      <c r="K162" s="29">
         <f t="shared" si="72"/>
         <v>283783.78378378379</v>
       </c>
@@ -12436,7 +12445,7 @@
         <f t="shared" si="73"/>
         <v>0.28378378378378383</v>
       </c>
-      <c r="P162" s="26">
+      <c r="P162" s="30">
         <f t="shared" si="74"/>
         <v>3887.449092928553</v>
       </c>
@@ -12495,7 +12504,7 @@
       <c r="J163" s="6">
         <v>133</v>
       </c>
-      <c r="K163" s="7">
+      <c r="K163" s="29">
         <f t="shared" si="72"/>
         <v>287671.23287671234</v>
       </c>
@@ -12513,7 +12522,7 @@
         <f t="shared" si="73"/>
         <v>0.28767123287671231</v>
       </c>
-      <c r="P163" s="26">
+      <c r="P163" s="30">
         <f t="shared" si="74"/>
         <v>3995.4337899543461</v>
       </c>
@@ -12572,7 +12581,7 @@
       <c r="J164" s="6">
         <v>134</v>
       </c>
-      <c r="K164" s="7">
+      <c r="K164" s="29">
         <f t="shared" si="72"/>
         <v>291666.66666666669</v>
       </c>
@@ -12590,7 +12599,7 @@
         <f t="shared" si="73"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P164" s="26">
+      <c r="P164" s="30">
         <f t="shared" si="74"/>
         <v>4107.9812206572387</v>
       </c>
@@ -12649,7 +12658,7 @@
       <c r="J165" s="6">
         <v>135</v>
       </c>
-      <c r="K165" s="7">
+      <c r="K165" s="29">
         <f t="shared" si="72"/>
         <v>295774.64788732392</v>
       </c>
@@ -12667,7 +12676,7 @@
         <f t="shared" si="73"/>
         <v>0.29577464788732388</v>
       </c>
-      <c r="P165" s="26">
+      <c r="P165" s="30">
         <f t="shared" si="74"/>
         <v>4225.3521126760752</v>
       </c>
@@ -12726,7 +12735,7 @@
       <c r="J166" s="6">
         <v>136</v>
       </c>
-      <c r="K166" s="7">
+      <c r="K166" s="29">
         <f t="shared" si="72"/>
         <v>300000</v>
       </c>
@@ -12744,7 +12753,7 @@
         <f t="shared" si="73"/>
         <v>0.3</v>
       </c>
-      <c r="P166" s="26">
+      <c r="P166" s="30">
         <f t="shared" si="74"/>
         <v>4347.826086956542</v>
       </c>
@@ -12803,7 +12812,7 @@
       <c r="J167" s="6">
         <v>137</v>
       </c>
-      <c r="K167" s="7">
+      <c r="K167" s="29">
         <f t="shared" si="72"/>
         <v>304347.82608695654</v>
       </c>
@@ -12821,7 +12830,7 @@
         <f t="shared" si="73"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="P167" s="26">
+      <c r="P167" s="30">
         <f t="shared" si="74"/>
         <v>4475.703324808157</v>
       </c>
@@ -12880,7 +12889,7 @@
       <c r="J168" s="6">
         <v>138</v>
       </c>
-      <c r="K168" s="7">
+      <c r="K168" s="29">
         <f t="shared" si="72"/>
         <v>308823.5294117647</v>
       </c>
@@ -12898,7 +12907,7 @@
         <f t="shared" si="73"/>
         <v>0.30882352941176472</v>
       </c>
-      <c r="P168" s="26">
+      <c r="P168" s="30">
         <f t="shared" si="74"/>
         <v>4609.3064091308042</v>
       </c>
@@ -12957,7 +12966,7 @@
       <c r="J169" s="6">
         <v>139</v>
       </c>
-      <c r="K169" s="7">
+      <c r="K169" s="29">
         <f t="shared" si="72"/>
         <v>313432.8358208955</v>
       </c>
@@ -12975,7 +12984,7 @@
         <f t="shared" si="73"/>
         <v>0.31343283582089548</v>
       </c>
-      <c r="P169" s="26">
+      <c r="P169" s="30">
         <f t="shared" si="74"/>
         <v>4748.9823609226733</v>
       </c>
@@ -13034,7 +13043,7 @@
       <c r="J170" s="6">
         <v>140</v>
       </c>
-      <c r="K170" s="7">
+      <c r="K170" s="29">
         <f t="shared" si="72"/>
         <v>318181.81818181818</v>
       </c>
@@ -13052,7 +13061,7 @@
         <f t="shared" si="73"/>
         <v>0.31818181818181818</v>
       </c>
-      <c r="P170" s="26">
+      <c r="P170" s="30">
         <f t="shared" si="74"/>
         <v>4895.104895104887</v>
       </c>
@@ -13111,7 +13120,7 @@
       <c r="J171" s="6">
         <v>141</v>
       </c>
-      <c r="K171" s="7">
+      <c r="K171" s="29">
         <f t="shared" si="72"/>
         <v>323076.92307692306</v>
       </c>
@@ -13129,7 +13138,7 @@
         <f t="shared" si="73"/>
         <v>0.32307692307692304</v>
       </c>
-      <c r="P171" s="26">
+      <c r="P171" s="30">
         <f t="shared" si="74"/>
         <v>5048.0769230769365</v>
       </c>
@@ -13188,7 +13197,7 @@
       <c r="J172" s="6">
         <v>142</v>
       </c>
-      <c r="K172" s="7">
+      <c r="K172" s="29">
         <f t="shared" si="72"/>
         <v>328125</v>
       </c>
@@ -13206,7 +13215,7 @@
         <f t="shared" si="73"/>
         <v>0.328125</v>
       </c>
-      <c r="P172" s="26">
+      <c r="P172" s="30">
         <f t="shared" si="74"/>
         <v>5208.3333333333139</v>
       </c>
@@ -13265,7 +13274,7 @@
       <c r="J173" s="6">
         <v>143</v>
       </c>
-      <c r="K173" s="7">
+      <c r="K173" s="29">
         <f t="shared" si="72"/>
         <v>333333.33333333331</v>
       </c>
@@ -13283,7 +13292,7 @@
         <f t="shared" si="73"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P173" s="26">
+      <c r="P173" s="30">
         <f t="shared" si="74"/>
         <v>5376.3440860215342</v>
       </c>
@@ -13342,7 +13351,7 @@
       <c r="J174" s="6">
         <v>144</v>
       </c>
-      <c r="K174" s="7">
+      <c r="K174" s="29">
         <f t="shared" si="72"/>
         <v>338709.67741935485</v>
       </c>
@@ -13360,7 +13369,7 @@
         <f t="shared" si="73"/>
         <v>0.33870967741935487</v>
       </c>
-      <c r="P174" s="26">
+      <c r="P174" s="30">
         <f t="shared" si="74"/>
         <v>5552.6176626123488</v>
       </c>
@@ -13419,7 +13428,7 @@
       <c r="J175" s="6">
         <v>145</v>
       </c>
-      <c r="K175" s="7">
+      <c r="K175" s="29">
         <f t="shared" si="72"/>
         <v>344262.2950819672</v>
       </c>
@@ -13437,7 +13446,7 @@
         <f t="shared" si="73"/>
         <v>0.34426229508196721</v>
       </c>
-      <c r="P175" s="26">
+      <c r="P175" s="30">
         <f t="shared" si="74"/>
         <v>5737.7049180328031</v>
       </c>
@@ -13496,7 +13505,7 @@
       <c r="J176" s="6">
         <v>146</v>
       </c>
-      <c r="K176" s="7">
+      <c r="K176" s="29">
         <f t="shared" si="72"/>
         <v>350000</v>
       </c>
@@ -13514,7 +13523,7 @@
         <f t="shared" si="73"/>
         <v>0.35</v>
       </c>
-      <c r="P176" s="26">
+      <c r="P176" s="30">
         <f t="shared" si="74"/>
         <v>5932.2033898304799</v>
       </c>
@@ -13573,7 +13582,7 @@
       <c r="J177" s="6">
         <v>147</v>
       </c>
-      <c r="K177" s="7">
+      <c r="K177" s="29">
         <f t="shared" si="72"/>
         <v>355932.20338983048</v>
       </c>
@@ -13591,7 +13600,7 @@
         <f t="shared" si="73"/>
         <v>0.3559322033898305</v>
       </c>
-      <c r="P177" s="26">
+      <c r="P177" s="30">
         <f t="shared" si="74"/>
         <v>6136.7621274109115</v>
       </c>
@@ -13650,7 +13659,7 @@
       <c r="J178" s="6">
         <v>148</v>
       </c>
-      <c r="K178" s="7">
+      <c r="K178" s="29">
         <f t="shared" si="72"/>
         <v>362068.96551724139</v>
       </c>
@@ -13668,7 +13677,7 @@
         <f t="shared" si="73"/>
         <v>0.36206896551724138</v>
       </c>
-      <c r="P178" s="26">
+      <c r="P178" s="30">
         <f t="shared" si="74"/>
         <v>6352.0871143375407</v>
       </c>
@@ -13727,7 +13736,7 @@
       <c r="J179" s="6">
         <v>149</v>
       </c>
-      <c r="K179" s="7">
+      <c r="K179" s="29">
         <f t="shared" si="72"/>
         <v>368421.05263157893</v>
       </c>
@@ -13745,7 +13754,7 @@
         <f t="shared" si="73"/>
         <v>0.36842105263157898</v>
       </c>
-      <c r="P179" s="26">
+      <c r="P179" s="30">
         <f t="shared" si="74"/>
         <v>6578.9473684210679</v>
       </c>
@@ -13804,7 +13813,7 @@
       <c r="J180" s="6">
         <v>150</v>
       </c>
-      <c r="K180" s="7">
+      <c r="K180" s="29">
         <f t="shared" si="72"/>
         <v>375000</v>
       </c>
@@ -13822,7 +13831,7 @@
         <f t="shared" si="73"/>
         <v>0.375</v>
       </c>
-      <c r="P180" s="26">
+      <c r="P180" s="30">
         <f t="shared" si="74"/>
         <v>6818.1818181818235</v>
       </c>
@@ -13881,7 +13890,7 @@
       <c r="J181" s="6">
         <v>151</v>
       </c>
-      <c r="K181" s="7">
+      <c r="K181" s="29">
         <f t="shared" si="72"/>
         <v>381818.18181818182</v>
       </c>
@@ -13899,7 +13908,7 @@
         <f t="shared" si="73"/>
         <v>0.38181818181818183</v>
       </c>
-      <c r="P181" s="26">
+      <c r="P181" s="30">
         <f t="shared" si="74"/>
         <v>7070.7070707070525</v>
       </c>
@@ -13958,7 +13967,7 @@
       <c r="J182" s="6">
         <v>152</v>
       </c>
-      <c r="K182" s="7">
+      <c r="K182" s="29">
         <f t="shared" si="72"/>
         <v>388888.88888888888</v>
       </c>
@@ -13976,7 +13985,7 @@
         <f t="shared" si="73"/>
         <v>0.38888888888888884</v>
       </c>
-      <c r="P182" s="26">
+      <c r="P182" s="30">
         <f t="shared" si="74"/>
         <v>7337.5262054507621</v>
       </c>
@@ -14035,7 +14044,7 @@
       <c r="J183" s="6">
         <v>153</v>
       </c>
-      <c r="K183" s="7">
+      <c r="K183" s="29">
         <f t="shared" si="72"/>
         <v>396226.41509433964</v>
       </c>
@@ -14053,7 +14062,7 @@
         <f t="shared" si="73"/>
         <v>0.39622641509433965</v>
       </c>
-      <c r="P183" s="26">
+      <c r="P183" s="30">
         <f t="shared" si="74"/>
         <v>7619.738751814235</v>
       </c>
@@ -14112,7 +14121,7 @@
       <c r="J184" s="6">
         <v>154</v>
       </c>
-      <c r="K184" s="7">
+      <c r="K184" s="29">
         <f t="shared" si="72"/>
         <v>403846.15384615387</v>
       </c>
@@ -14130,7 +14139,7 @@
         <f t="shared" si="73"/>
         <v>0.40384615384615385</v>
       </c>
-      <c r="P184" s="26">
+      <c r="P184" s="30">
         <f t="shared" si="74"/>
         <v>7918.5520361990784</v>
       </c>
@@ -14189,7 +14198,7 @@
       <c r="J185" s="6">
         <v>155</v>
       </c>
-      <c r="K185" s="7">
+      <c r="K185" s="29">
         <f t="shared" ref="K185:K193" si="81">21000000 /L185/M185</f>
         <v>411764.70588235295</v>
       </c>
@@ -14207,7 +14216,7 @@
         <f t="shared" ref="O185:O210" si="83">N185/1000</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="P185" s="26">
+      <c r="P185" s="30">
         <f t="shared" ref="P185:P210" si="84">K186-K185</f>
         <v>8235.2941176470486</v>
       </c>
@@ -14266,7 +14275,7 @@
       <c r="J186" s="6">
         <v>156</v>
       </c>
-      <c r="K186" s="7">
+      <c r="K186" s="29">
         <f t="shared" si="81"/>
         <v>420000</v>
       </c>
@@ -14284,7 +14293,7 @@
         <f t="shared" si="83"/>
         <v>0.42</v>
       </c>
-      <c r="P186" s="26">
+      <c r="P186" s="30">
         <f t="shared" si="84"/>
         <v>8571.4285714285797</v>
       </c>
@@ -14343,7 +14352,7 @@
       <c r="J187" s="6">
         <v>157</v>
       </c>
-      <c r="K187" s="7">
+      <c r="K187" s="29">
         <f t="shared" si="81"/>
         <v>428571.42857142858</v>
       </c>
@@ -14361,7 +14370,7 @@
         <f t="shared" si="83"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="P187" s="26">
+      <c r="P187" s="30">
         <f t="shared" si="84"/>
         <v>8928.5714285714203</v>
       </c>
@@ -14420,7 +14429,7 @@
       <c r="J188" s="6">
         <v>158</v>
       </c>
-      <c r="K188" s="7">
+      <c r="K188" s="29">
         <f t="shared" si="81"/>
         <v>437500</v>
       </c>
@@ -14438,7 +14447,7 @@
         <f t="shared" si="83"/>
         <v>0.4375</v>
       </c>
-      <c r="P188" s="26">
+      <c r="P188" s="30">
         <f t="shared" si="84"/>
         <v>9308.5106382978847</v>
       </c>
@@ -14497,7 +14506,7 @@
       <c r="J189" s="6">
         <v>159</v>
       </c>
-      <c r="K189" s="7">
+      <c r="K189" s="29">
         <f t="shared" si="81"/>
         <v>446808.51063829788</v>
       </c>
@@ -14515,7 +14524,7 @@
         <f t="shared" si="83"/>
         <v>0.44680851063829791</v>
       </c>
-      <c r="P189" s="26">
+      <c r="P189" s="30">
         <f t="shared" si="84"/>
         <v>9713.22849213687</v>
       </c>
@@ -14574,7 +14583,7 @@
       <c r="J190" s="6">
         <v>160</v>
       </c>
-      <c r="K190" s="7">
+      <c r="K190" s="29">
         <f t="shared" si="81"/>
         <v>456521.73913043475</v>
       </c>
@@ -14592,7 +14601,7 @@
         <f t="shared" si="83"/>
         <v>0.45652173913043476</v>
       </c>
-      <c r="P190" s="26">
+      <c r="P190" s="30">
         <f t="shared" si="84"/>
         <v>10144.927536231931</v>
       </c>
@@ -14651,7 +14660,7 @@
       <c r="J191" s="6">
         <v>161</v>
       </c>
-      <c r="K191" s="7">
+      <c r="K191" s="29">
         <f t="shared" si="81"/>
         <v>466666.66666666669</v>
       </c>
@@ -14669,7 +14678,7 @@
         <f t="shared" si="83"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="P191" s="26">
+      <c r="P191" s="30">
         <f t="shared" si="84"/>
         <v>10606.060606060608</v>
       </c>
@@ -14728,7 +14737,7 @@
       <c r="J192" s="6">
         <v>162</v>
       </c>
-      <c r="K192" s="7">
+      <c r="K192" s="29">
         <f t="shared" si="81"/>
         <v>477272.72727272729</v>
       </c>
@@ -14746,7 +14755,7 @@
         <f t="shared" si="83"/>
         <v>0.47727272727272729</v>
       </c>
-      <c r="P192" s="26">
+      <c r="P192" s="30">
         <f t="shared" si="84"/>
         <v>11099.365750528523</v>
       </c>
@@ -14805,7 +14814,7 @@
       <c r="J193" s="6">
         <v>163</v>
       </c>
-      <c r="K193" s="7">
+      <c r="K193" s="29">
         <f t="shared" si="81"/>
         <v>488372.09302325582</v>
       </c>
@@ -14823,7 +14832,7 @@
         <f t="shared" si="83"/>
         <v>0.48837209302325585</v>
       </c>
-      <c r="P193" s="26">
+      <c r="P193" s="30">
         <f t="shared" si="84"/>
         <v>11627.906976744183</v>
       </c>
@@ -14882,7 +14891,7 @@
       <c r="J194" s="6">
         <v>164</v>
       </c>
-      <c r="K194" s="7">
+      <c r="K194" s="29">
         <f t="shared" ref="K194:K210" si="89">21000000 /L194/M194</f>
         <v>500000</v>
       </c>
@@ -14900,7 +14909,7 @@
         <f t="shared" si="83"/>
         <v>0.5</v>
       </c>
-      <c r="P194" s="26">
+      <c r="P194" s="30">
         <f t="shared" si="84"/>
         <v>12195.121951219509</v>
       </c>
@@ -14959,7 +14968,7 @@
       <c r="J195" s="6">
         <v>165</v>
       </c>
-      <c r="K195" s="7">
+      <c r="K195" s="29">
         <f t="shared" si="89"/>
         <v>512195.12195121951</v>
       </c>
@@ -14977,7 +14986,7 @@
         <f t="shared" si="83"/>
         <v>0.51219512195121952</v>
       </c>
-      <c r="P195" s="26">
+      <c r="P195" s="30">
         <f t="shared" si="84"/>
         <v>12804.878048780491</v>
       </c>
@@ -15036,7 +15045,7 @@
       <c r="J196" s="21">
         <v>166</v>
       </c>
-      <c r="K196" s="22">
+      <c r="K196" s="29">
         <f t="shared" si="89"/>
         <v>525000</v>
       </c>
@@ -15054,7 +15063,7 @@
         <f t="shared" si="83"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="P196" s="29">
+      <c r="P196" s="30">
         <f>K197-K196</f>
         <v>13461.538461538497</v>
       </c>
@@ -15117,7 +15126,7 @@
       <c r="J197" s="6">
         <v>167</v>
       </c>
-      <c r="K197" s="7">
+      <c r="K197" s="29">
         <f t="shared" si="89"/>
         <v>538461.5384615385</v>
       </c>
@@ -15135,7 +15144,7 @@
         <f t="shared" si="83"/>
         <v>0.53846153846153844</v>
       </c>
-      <c r="P197" s="26">
+      <c r="P197" s="30">
         <f t="shared" si="84"/>
         <v>14170.04048582993</v>
       </c>
@@ -15194,7 +15203,7 @@
       <c r="J198" s="6">
         <v>168</v>
       </c>
-      <c r="K198" s="7">
+      <c r="K198" s="29">
         <f t="shared" si="89"/>
         <v>552631.57894736843</v>
       </c>
@@ -15212,7 +15221,7 @@
         <f t="shared" si="83"/>
         <v>0.55263157894736847</v>
       </c>
-      <c r="P198" s="26">
+      <c r="P198" s="30">
         <f t="shared" si="84"/>
         <v>14935.988620199147</v>
       </c>
@@ -15271,7 +15280,7 @@
       <c r="J199" s="6">
         <v>169</v>
       </c>
-      <c r="K199" s="7">
+      <c r="K199" s="29">
         <f t="shared" si="89"/>
         <v>567567.56756756757</v>
       </c>
@@ -15289,7 +15298,7 @@
         <f t="shared" si="83"/>
         <v>0.56756756756756765</v>
       </c>
-      <c r="P199" s="26">
+      <c r="P199" s="30">
         <f t="shared" si="84"/>
         <v>15765.765765765798</v>
       </c>
@@ -15348,7 +15357,7 @@
       <c r="J200" s="6">
         <v>170</v>
       </c>
-      <c r="K200" s="7">
+      <c r="K200" s="29">
         <f t="shared" si="89"/>
         <v>583333.33333333337</v>
       </c>
@@ -15366,7 +15375,7 @@
         <f t="shared" si="83"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="P200" s="26">
+      <c r="P200" s="30">
         <f t="shared" si="84"/>
         <v>16666.666666666628</v>
       </c>
@@ -15425,7 +15434,7 @@
       <c r="J201" s="6">
         <v>171</v>
       </c>
-      <c r="K201" s="7">
+      <c r="K201" s="29">
         <f t="shared" si="89"/>
         <v>600000</v>
       </c>
@@ -15443,7 +15452,7 @@
         <f t="shared" si="83"/>
         <v>0.6</v>
       </c>
-      <c r="P201" s="26">
+      <c r="P201" s="30">
         <f t="shared" si="84"/>
         <v>17647.058823529398</v>
       </c>
@@ -15502,7 +15511,7 @@
       <c r="J202" s="6">
         <v>172</v>
       </c>
-      <c r="K202" s="7">
+      <c r="K202" s="29">
         <f t="shared" si="89"/>
         <v>617647.0588235294</v>
       </c>
@@ -15520,7 +15529,7 @@
         <f t="shared" si="83"/>
         <v>0.61764705882352944</v>
       </c>
-      <c r="P202" s="26">
+      <c r="P202" s="30">
         <f t="shared" si="84"/>
         <v>18716.577540106955</v>
       </c>
@@ -15579,7 +15588,7 @@
       <c r="J203" s="6">
         <v>173</v>
       </c>
-      <c r="K203" s="7">
+      <c r="K203" s="29">
         <f t="shared" si="89"/>
         <v>636363.63636363635</v>
       </c>
@@ -15597,7 +15606,7 @@
         <f t="shared" si="83"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="P203" s="26">
+      <c r="P203" s="30">
         <f t="shared" si="84"/>
         <v>19886.363636363647</v>
       </c>
@@ -15655,7 +15664,7 @@
       <c r="J204" s="6">
         <v>174</v>
       </c>
-      <c r="K204" s="7">
+      <c r="K204" s="29">
         <f t="shared" si="89"/>
         <v>656250</v>
       </c>
@@ -15673,7 +15682,7 @@
         <f t="shared" si="83"/>
         <v>0.65625</v>
       </c>
-      <c r="P204" s="26">
+      <c r="P204" s="30">
         <f t="shared" si="84"/>
         <v>21169.354838709696</v>
       </c>
@@ -15731,7 +15740,7 @@
       <c r="J205" s="6">
         <v>175</v>
       </c>
-      <c r="K205" s="7">
+      <c r="K205" s="29">
         <f t="shared" si="89"/>
         <v>677419.3548387097</v>
       </c>
@@ -15749,7 +15758,7 @@
         <f t="shared" si="83"/>
         <v>0.67741935483870974</v>
       </c>
-      <c r="P205" s="26">
+      <c r="P205" s="30">
         <f t="shared" si="84"/>
         <v>22580.645161290304</v>
       </c>
@@ -15807,7 +15816,7 @@
       <c r="J206" s="6">
         <v>176</v>
       </c>
-      <c r="K206" s="7">
+      <c r="K206" s="29">
         <f t="shared" si="89"/>
         <v>700000</v>
       </c>
@@ -15825,7 +15834,7 @@
         <f t="shared" si="83"/>
         <v>0.7</v>
       </c>
-      <c r="P206" s="26">
+      <c r="P206" s="30">
         <f t="shared" si="84"/>
         <v>24137.931034482783</v>
       </c>
@@ -15883,7 +15892,7 @@
       <c r="J207" s="6">
         <v>177</v>
       </c>
-      <c r="K207" s="7">
+      <c r="K207" s="29">
         <f t="shared" si="89"/>
         <v>724137.93103448278</v>
       </c>
@@ -15901,7 +15910,7 @@
         <f t="shared" si="83"/>
         <v>0.72413793103448276</v>
       </c>
-      <c r="P207" s="26">
+      <c r="P207" s="30">
         <f t="shared" si="84"/>
         <v>25862.068965517217</v>
       </c>
@@ -15959,7 +15968,7 @@
       <c r="J208" s="6">
         <v>178</v>
       </c>
-      <c r="K208" s="7">
+      <c r="K208" s="29">
         <f t="shared" si="89"/>
         <v>750000</v>
       </c>
@@ -15977,7 +15986,7 @@
         <f t="shared" si="83"/>
         <v>0.75</v>
       </c>
-      <c r="P208" s="26">
+      <c r="P208" s="30">
         <f t="shared" si="84"/>
         <v>27777.777777777752</v>
       </c>
@@ -16035,7 +16044,7 @@
       <c r="J209" s="6">
         <v>179</v>
       </c>
-      <c r="K209" s="7">
+      <c r="K209" s="29">
         <f t="shared" si="89"/>
         <v>777777.77777777775</v>
       </c>
@@ -16053,7 +16062,7 @@
         <f t="shared" si="83"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="P209" s="26">
+      <c r="P209" s="30">
         <f t="shared" si="84"/>
         <v>29914.529914529994</v>
       </c>
@@ -16111,7 +16120,7 @@
       <c r="J210" s="6">
         <v>180</v>
       </c>
-      <c r="K210" s="7">
+      <c r="K210" s="29">
         <f t="shared" si="89"/>
         <v>807692.30769230775</v>
       </c>
@@ -16129,7 +16138,7 @@
         <f t="shared" si="83"/>
         <v>0.80769230769230771</v>
       </c>
-      <c r="P210" s="26">
+      <c r="P210" s="30">
         <f t="shared" si="84"/>
         <v>32307.692307692254</v>
       </c>
@@ -16187,7 +16196,7 @@
       <c r="J211" s="6">
         <v>181</v>
       </c>
-      <c r="K211" s="7">
+      <c r="K211" s="29">
         <f t="shared" ref="K211:K221" si="90">21000000 /L211/M211</f>
         <v>840000</v>
       </c>
@@ -16205,7 +16214,7 @@
         <f t="shared" ref="O211:O221" si="92">N211/1000</f>
         <v>0.84</v>
       </c>
-      <c r="P211" s="26">
+      <c r="P211" s="30">
         <f t="shared" ref="P211:P221" si="93">K212-K211</f>
         <v>35000</v>
       </c>
@@ -16263,7 +16272,7 @@
       <c r="J212" s="6">
         <v>182</v>
       </c>
-      <c r="K212" s="7">
+      <c r="K212" s="29">
         <f t="shared" si="90"/>
         <v>875000</v>
       </c>
@@ -16281,7 +16290,7 @@
         <f t="shared" si="92"/>
         <v>0.875</v>
       </c>
-      <c r="P212" s="26">
+      <c r="P212" s="30">
         <f t="shared" si="93"/>
         <v>38043.47826086951</v>
       </c>
@@ -16339,7 +16348,7 @@
       <c r="J213" s="6">
         <v>183</v>
       </c>
-      <c r="K213" s="7">
+      <c r="K213" s="29">
         <f t="shared" si="90"/>
         <v>913043.47826086951</v>
       </c>
@@ -16357,7 +16366,7 @@
         <f t="shared" si="92"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="P213" s="26">
+      <c r="P213" s="30">
         <f t="shared" si="93"/>
         <v>41501.976284585078</v>
       </c>
@@ -16415,7 +16424,7 @@
       <c r="J214" s="6">
         <v>184</v>
       </c>
-      <c r="K214" s="7">
+      <c r="K214" s="29">
         <f t="shared" si="90"/>
         <v>954545.45454545459</v>
       </c>
@@ -16433,7 +16442,7 @@
         <f t="shared" si="92"/>
         <v>0.95454545454545459</v>
       </c>
-      <c r="P214" s="26">
+      <c r="P214" s="30">
         <f t="shared" si="93"/>
         <v>45454.545454545412</v>
       </c>
@@ -16491,7 +16500,7 @@
       <c r="J215" s="6">
         <v>185</v>
       </c>
-      <c r="K215" s="7">
+      <c r="K215" s="29">
         <f t="shared" si="90"/>
         <v>1000000</v>
       </c>
@@ -16509,7 +16518,7 @@
         <f t="shared" si="92"/>
         <v>1</v>
       </c>
-      <c r="P215" s="26">
+      <c r="P215" s="30">
         <f t="shared" si="93"/>
         <v>50000</v>
       </c>
@@ -16567,7 +16576,7 @@
       <c r="J216" s="6">
         <v>186</v>
       </c>
-      <c r="K216" s="7">
+      <c r="K216" s="29">
         <f t="shared" si="90"/>
         <v>1050000</v>
       </c>
@@ -16585,7 +16594,7 @@
         <f t="shared" si="92"/>
         <v>1.05</v>
       </c>
-      <c r="P216" s="26">
+      <c r="P216" s="30">
         <f t="shared" si="93"/>
         <v>55263.157894736854</v>
       </c>
@@ -16643,7 +16652,7 @@
       <c r="J217" s="6">
         <v>187</v>
       </c>
-      <c r="K217" s="7">
+      <c r="K217" s="29">
         <f t="shared" si="90"/>
         <v>1105263.1578947369</v>
       </c>
@@ -16661,7 +16670,7 @@
         <f t="shared" si="92"/>
         <v>1.1052631578947369</v>
       </c>
-      <c r="P217" s="26">
+      <c r="P217" s="30">
         <f t="shared" si="93"/>
         <v>61403.50877192989</v>
       </c>
@@ -16719,7 +16728,7 @@
       <c r="J218" s="6">
         <v>188</v>
       </c>
-      <c r="K218" s="7">
+      <c r="K218" s="29">
         <f t="shared" si="90"/>
         <v>1166666.6666666667</v>
       </c>
@@ -16737,7 +16746,7 @@
         <f t="shared" si="92"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="P218" s="26">
+      <c r="P218" s="30">
         <f t="shared" si="93"/>
         <v>68627.450980392052</v>
       </c>
@@ -16795,7 +16804,7 @@
       <c r="J219" s="6">
         <v>189</v>
       </c>
-      <c r="K219" s="7">
+      <c r="K219" s="29">
         <f t="shared" si="90"/>
         <v>1235294.1176470588</v>
       </c>
@@ -16813,7 +16822,7 @@
         <f t="shared" si="92"/>
         <v>1.2352941176470589</v>
       </c>
-      <c r="P219" s="26">
+      <c r="P219" s="30">
         <f t="shared" si="93"/>
         <v>77205.882352941204</v>
       </c>
@@ -16871,7 +16880,7 @@
       <c r="J220" s="6">
         <v>190</v>
       </c>
-      <c r="K220" s="7">
+      <c r="K220" s="29">
         <f t="shared" si="90"/>
         <v>1312500</v>
       </c>
@@ -16889,7 +16898,7 @@
         <f t="shared" si="92"/>
         <v>1.3125</v>
       </c>
-      <c r="P220" s="26">
+      <c r="P220" s="30">
         <f t="shared" si="93"/>
         <v>87500</v>
       </c>
@@ -16947,7 +16956,7 @@
       <c r="J221" s="6">
         <v>191</v>
       </c>
-      <c r="K221" s="7">
+      <c r="K221" s="29">
         <f t="shared" si="90"/>
         <v>1400000</v>
       </c>
@@ -16965,7 +16974,7 @@
         <f t="shared" si="92"/>
         <v>1.4</v>
       </c>
-      <c r="P221" s="26">
+      <c r="P221" s="30">
         <f t="shared" si="93"/>
         <v>100000</v>
       </c>
@@ -17023,7 +17032,7 @@
       <c r="J222" s="6">
         <v>192</v>
       </c>
-      <c r="K222" s="7">
+      <c r="K222" s="29">
         <f t="shared" ref="K222:K227" si="94">21000000 /L222/M222</f>
         <v>1500000</v>
       </c>
@@ -17041,7 +17050,7 @@
         <f t="shared" ref="O222:O223" si="96">N222/1000</f>
         <v>1.5</v>
       </c>
-      <c r="P222" s="26">
+      <c r="P222" s="30">
         <f t="shared" ref="P222:P229" si="97">K223-K222</f>
         <v>115384.61538461549</v>
       </c>
@@ -17099,7 +17108,7 @@
       <c r="J223" s="6">
         <v>193</v>
       </c>
-      <c r="K223" s="7">
+      <c r="K223" s="29">
         <f t="shared" si="94"/>
         <v>1615384.6153846155</v>
       </c>
@@ -17117,7 +17126,7 @@
         <f t="shared" si="96"/>
         <v>1.6153846153846154</v>
       </c>
-      <c r="P223" s="26">
+      <c r="P223" s="30">
         <f t="shared" si="97"/>
         <v>134615.38461538451</v>
       </c>
@@ -17175,7 +17184,7 @@
       <c r="J224" s="6">
         <v>194</v>
       </c>
-      <c r="K224" s="7">
+      <c r="K224" s="29">
         <f t="shared" si="94"/>
         <v>1750000</v>
       </c>
@@ -17193,7 +17202,7 @@
         <f t="shared" ref="O224:O230" si="98">N224/1000</f>
         <v>1.75</v>
       </c>
-      <c r="P224" s="26">
+      <c r="P224" s="30">
         <f t="shared" si="97"/>
         <v>159090.90909090918</v>
       </c>
@@ -17251,7 +17260,7 @@
       <c r="J225" s="6">
         <v>195</v>
       </c>
-      <c r="K225" s="7">
+      <c r="K225" s="29">
         <f t="shared" si="94"/>
         <v>1909090.9090909092</v>
       </c>
@@ -17269,7 +17278,7 @@
         <f t="shared" si="98"/>
         <v>1.9090909090909092</v>
       </c>
-      <c r="P225" s="26">
+      <c r="P225" s="30">
         <f t="shared" si="97"/>
         <v>190909.09090909082</v>
       </c>
@@ -17327,7 +17336,7 @@
       <c r="J226" s="6">
         <v>196</v>
       </c>
-      <c r="K226" s="7">
+      <c r="K226" s="29">
         <f t="shared" si="94"/>
         <v>2100000</v>
       </c>
@@ -17345,7 +17354,7 @@
         <f t="shared" si="98"/>
         <v>2.1</v>
       </c>
-      <c r="P226" s="26">
+      <c r="P226" s="30">
         <f t="shared" si="97"/>
         <v>233333.33333333349</v>
       </c>
@@ -17403,7 +17412,7 @@
       <c r="J227" s="6">
         <v>197</v>
       </c>
-      <c r="K227" s="7">
+      <c r="K227" s="29">
         <f t="shared" si="94"/>
         <v>2333333.3333333335</v>
       </c>
@@ -17421,7 +17430,7 @@
         <f t="shared" si="98"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="P227" s="26">
+      <c r="P227" s="30">
         <f t="shared" si="97"/>
         <v>291666.66666666651</v>
       </c>
@@ -17479,7 +17488,7 @@
       <c r="J228" s="6">
         <v>198</v>
       </c>
-      <c r="K228" s="7">
+      <c r="K228" s="29">
         <f>21000000 /L228/M228</f>
         <v>2625000</v>
       </c>
@@ -17497,7 +17506,7 @@
         <f t="shared" si="98"/>
         <v>2.625</v>
       </c>
-      <c r="P228" s="26">
+      <c r="P228" s="30">
         <f t="shared" si="97"/>
         <v>375000</v>
       </c>
@@ -17555,7 +17564,7 @@
       <c r="J229" s="6">
         <v>199</v>
       </c>
-      <c r="K229" s="7">
+      <c r="K229" s="29">
         <f>21000000 /L229/M229</f>
         <v>3000000</v>
       </c>
@@ -17573,7 +17582,7 @@
         <f t="shared" si="98"/>
         <v>3</v>
       </c>
-      <c r="P229" s="26">
+      <c r="P229" s="30">
         <f t="shared" si="97"/>
         <v>500000</v>
       </c>
@@ -17631,7 +17640,7 @@
       <c r="J230" s="6">
         <v>200</v>
       </c>
-      <c r="K230" s="7">
+      <c r="K230" s="29">
         <f>21000000 /L230/M230</f>
         <v>3500000</v>
       </c>
@@ -19259,13 +19268,5493 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <f>21000000/B2/C2</f>
+        <v>21000</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E65" si="0">B2/1000</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="19">
+        <f t="shared" ref="F2:F65" si="1">E2/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G2" s="30">
+        <f t="shared" ref="G2:G65" si="2">B3-B2</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D66" si="3">21000000/B3/C3</f>
+        <v>10500</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F3" s="19">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+      <c r="G3" s="30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
+        <v>4000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="3"/>
+        <v>5250</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="3"/>
+        <v>4200</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29">
+        <v>7000</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29">
+        <v>8000</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="3"/>
+        <v>2625</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29">
+        <v>9000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="3"/>
+        <v>2333.3333333333335</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29">
+        <v>12000</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29">
+        <f>B12+2000</f>
+        <v>14000</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29">
+        <f t="shared" ref="B14:B16" si="4">B13+2000</f>
+        <v>16000</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="3"/>
+        <v>1312.5</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="3"/>
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29">
+        <f>B16+2500</f>
+        <v>22500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="3"/>
+        <v>933.33333333333337</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G17" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29">
+        <f t="shared" ref="B18:B67" si="5">B17+2500</f>
+        <v>25000</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G18" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29">
+        <f t="shared" si="5"/>
+        <v>27500</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="3"/>
+        <v>763.63636363636363</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>2.75E-2</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29">
+        <f t="shared" si="5"/>
+        <v>30000</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="G20" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29">
+        <f t="shared" si="5"/>
+        <v>32500</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="3"/>
+        <v>646.15384615384619</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="G21" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29">
+        <f t="shared" si="5"/>
+        <v>35000</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G22" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29">
+        <f t="shared" si="5"/>
+        <v>37500</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="1"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G23" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29">
+        <f t="shared" si="5"/>
+        <v>40000</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="G24" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29">
+        <f t="shared" si="5"/>
+        <v>42500</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="3"/>
+        <v>494.11764705882354</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="G25" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29">
+        <f t="shared" si="5"/>
+        <v>45000</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="3"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G26" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29">
+        <f t="shared" si="5"/>
+        <v>47500</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="3"/>
+        <v>442.10526315789474</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="1"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="G27" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29">
+        <f t="shared" si="5"/>
+        <v>50000</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29">
+        <f t="shared" si="5"/>
+        <v>52500</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29">
+        <f t="shared" si="5"/>
+        <v>55000</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="3"/>
+        <v>381.81818181818181</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="1"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="G30" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29">
+        <f t="shared" si="5"/>
+        <v>57500</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="3"/>
+        <v>365.21739130434781</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="1"/>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="G31" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="G32" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29">
+        <f t="shared" si="5"/>
+        <v>62500</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="3"/>
+        <v>336</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G33" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29">
+        <f t="shared" si="5"/>
+        <v>65000</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="3"/>
+        <v>323.07692307692309</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G34" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29">
+        <f t="shared" si="5"/>
+        <v>67500</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="3"/>
+        <v>311.11111111111109</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="1"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="G35" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="29">
+        <f t="shared" si="5"/>
+        <v>70000</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G36" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="29">
+        <f t="shared" si="5"/>
+        <v>72500</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="3"/>
+        <v>289.65517241379308</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="1"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G37" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="29">
+        <f t="shared" si="5"/>
+        <v>75000</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G38" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="29">
+        <f t="shared" si="5"/>
+        <v>77500</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="3"/>
+        <v>270.96774193548384</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="1"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G39" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="29">
+        <f t="shared" si="5"/>
+        <v>80000</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="3"/>
+        <v>262.5</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F40" s="19">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="G40" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="29">
+        <f t="shared" si="5"/>
+        <v>82500</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="3"/>
+        <v>254.54545454545453</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="1"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G41" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="29">
+        <f t="shared" si="5"/>
+        <v>85000</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="3"/>
+        <v>247.05882352941177</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G42" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="29">
+        <f t="shared" si="5"/>
+        <v>87500</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="1"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G43" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="29">
+        <f t="shared" si="5"/>
+        <v>90000</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" si="3"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="G44" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="29">
+        <f t="shared" si="5"/>
+        <v>92500</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="3"/>
+        <v>227.02702702702703</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="1"/>
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G45" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="29">
+        <f t="shared" si="5"/>
+        <v>95000</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" si="3"/>
+        <v>221.05263157894737</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G46" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="29">
+        <f t="shared" si="5"/>
+        <v>97500</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="3"/>
+        <v>215.38461538461539</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" si="1"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G47" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="29">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="29">
+        <f t="shared" si="5"/>
+        <v>102500</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" si="3"/>
+        <v>204.8780487804878</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="0"/>
+        <v>102.5</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" si="1"/>
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="G49" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="29">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="1"/>
+        <v>0.105</v>
+      </c>
+      <c r="G50" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="29">
+        <f t="shared" si="5"/>
+        <v>107500</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="3"/>
+        <v>195.34883720930233</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="0"/>
+        <v>107.5</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1075</v>
+      </c>
+      <c r="G51" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="29">
+        <f t="shared" si="5"/>
+        <v>110000</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8">
+        <f t="shared" si="3"/>
+        <v>190.90909090909091</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="F52" s="19">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="G52" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="29">
+        <f t="shared" si="5"/>
+        <v>112500</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="3"/>
+        <v>186.66666666666666</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1125</v>
+      </c>
+      <c r="G53" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="29">
+        <f t="shared" si="5"/>
+        <v>115000</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <f t="shared" si="3"/>
+        <v>182.60869565217391</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F54" s="19">
+        <f t="shared" si="1"/>
+        <v>0.115</v>
+      </c>
+      <c r="G54" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="29">
+        <f t="shared" si="5"/>
+        <v>117500</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="3"/>
+        <v>178.72340425531914</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="0"/>
+        <v>117.5</v>
+      </c>
+      <c r="F55" s="19">
+        <f t="shared" si="1"/>
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="G55" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="29">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F56" s="19">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="G56" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="29">
+        <f>B56+2500</f>
+        <v>122500</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="3"/>
+        <v>171.42857142857142</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="0"/>
+        <v>122.5</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1225</v>
+      </c>
+      <c r="G57" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="29">
+        <f t="shared" si="5"/>
+        <v>125000</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="F58" s="19">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G58" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="29">
+        <f t="shared" si="5"/>
+        <v>127500</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="3"/>
+        <v>164.70588235294119</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+      <c r="F59" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1275</v>
+      </c>
+      <c r="G59" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="29">
+        <f t="shared" si="5"/>
+        <v>130000</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <f t="shared" si="3"/>
+        <v>161.53846153846155</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="F60" s="19">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="G60" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="29">
+        <f t="shared" si="5"/>
+        <v>132500</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <f t="shared" si="3"/>
+        <v>158.49056603773585</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="0"/>
+        <v>132.5</v>
+      </c>
+      <c r="F61" s="19">
+        <f t="shared" si="1"/>
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G61" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="29">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
+        <f t="shared" si="3"/>
+        <v>155.55555555555554</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="F62" s="19">
+        <f t="shared" si="1"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G62" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="29">
+        <f t="shared" si="5"/>
+        <v>137500</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="3"/>
+        <v>152.72727272727272</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="0"/>
+        <v>137.5</v>
+      </c>
+      <c r="F63" s="19">
+        <f t="shared" si="1"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="G63" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="29">
+        <f t="shared" si="5"/>
+        <v>140000</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F64" s="19">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G64" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="29">
+        <f t="shared" si="5"/>
+        <v>142500</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="3"/>
+        <v>147.36842105263159</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" si="0"/>
+        <v>142.5</v>
+      </c>
+      <c r="F65" s="19">
+        <f t="shared" si="1"/>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="G65" s="30">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="29">
+        <f t="shared" si="5"/>
+        <v>145000</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8">
+        <f t="shared" si="3"/>
+        <v>144.82758620689654</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" ref="E66:E129" si="6">B66/1000</f>
+        <v>145</v>
+      </c>
+      <c r="F66" s="19">
+        <f t="shared" ref="F66:F129" si="7">E66/1000</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G66" s="30">
+        <f t="shared" ref="G66:G129" si="8">B67-B66</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="29">
+        <f t="shared" si="5"/>
+        <v>147500</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" ref="D67:D68" si="9">21000000/B67/C67</f>
+        <v>142.37288135593221</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="6"/>
+        <v>147.5</v>
+      </c>
+      <c r="F67" s="19">
+        <f t="shared" si="7"/>
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="G67" s="30">
+        <f t="shared" si="8"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="29">
+        <f>B67+2500</f>
+        <v>150000</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F68" s="19">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="G68" s="30">
+        <f t="shared" si="8"/>
+        <v>2173.913043478271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="29">
+        <f t="shared" ref="B69:B132" si="10">21000000 /C69/D69</f>
+        <v>152173.91304347827</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8">
+        <v>138</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="6"/>
+        <v>152.17391304347828</v>
+      </c>
+      <c r="F69" s="19">
+        <f t="shared" si="7"/>
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="G69" s="30">
+        <f t="shared" si="8"/>
+        <v>1110.7584893684543</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="29">
+        <f t="shared" si="10"/>
+        <v>153284.67153284673</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8">
+        <v>137</v>
+      </c>
+      <c r="E70" s="7">
+        <f t="shared" si="6"/>
+        <v>153.28467153284672</v>
+      </c>
+      <c r="F70" s="19">
+        <f t="shared" si="7"/>
+        <v>0.15328467153284672</v>
+      </c>
+      <c r="G70" s="30">
+        <f t="shared" si="8"/>
+        <v>1127.0931730356242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="29">
+        <f t="shared" si="10"/>
+        <v>154411.76470588235</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8">
+        <v>136</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" si="6"/>
+        <v>154.41176470588235</v>
+      </c>
+      <c r="F71" s="19">
+        <f t="shared" si="7"/>
+        <v>0.15441176470588236</v>
+      </c>
+      <c r="G71" s="30">
+        <f t="shared" si="8"/>
+        <v>1143.7908496732125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="29">
+        <f t="shared" si="10"/>
+        <v>155555.55555555556</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>135</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" si="6"/>
+        <v>155.55555555555557</v>
+      </c>
+      <c r="F72" s="19">
+        <f t="shared" si="7"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="G72" s="30">
+        <f t="shared" si="8"/>
+        <v>1160.8623548921896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="29">
+        <f t="shared" si="10"/>
+        <v>156716.41791044775</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8">
+        <v>134</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="6"/>
+        <v>156.71641791044775</v>
+      </c>
+      <c r="F73" s="19">
+        <f t="shared" si="7"/>
+        <v>0.15671641791044774</v>
+      </c>
+      <c r="G73" s="30">
+        <f t="shared" si="8"/>
+        <v>1178.3189316575008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="29">
+        <f t="shared" si="10"/>
+        <v>157894.73684210525</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8">
+        <v>133</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" si="6"/>
+        <v>157.89473684210526</v>
+      </c>
+      <c r="F74" s="19">
+        <f t="shared" si="7"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="G74" s="30">
+        <f t="shared" si="8"/>
+        <v>1196.1722488038358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="29">
+        <f t="shared" si="10"/>
+        <v>159090.90909090909</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8">
+        <v>132</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" si="6"/>
+        <v>159.09090909090909</v>
+      </c>
+      <c r="F75" s="19">
+        <f t="shared" si="7"/>
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="G75" s="30">
+        <f t="shared" si="8"/>
+        <v>1214.4344205413072</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="29">
+        <f t="shared" si="10"/>
+        <v>160305.3435114504</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8">
+        <v>131</v>
+      </c>
+      <c r="E76" s="7">
+        <f t="shared" si="6"/>
+        <v>160.30534351145039</v>
+      </c>
+      <c r="F76" s="19">
+        <f t="shared" si="7"/>
+        <v>0.1603053435114504</v>
+      </c>
+      <c r="G76" s="30">
+        <f t="shared" si="8"/>
+        <v>1233.1180270111363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="29">
+        <f t="shared" si="10"/>
+        <v>161538.46153846153</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="8">
+        <v>130</v>
+      </c>
+      <c r="E77" s="7">
+        <f t="shared" si="6"/>
+        <v>161.53846153846152</v>
+      </c>
+      <c r="F77" s="19">
+        <f t="shared" si="7"/>
+        <v>0.16153846153846152</v>
+      </c>
+      <c r="G77" s="30">
+        <f t="shared" si="8"/>
+        <v>1252.2361359570641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="29">
+        <f t="shared" si="10"/>
+        <v>162790.6976744186</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8">
+        <v>129</v>
+      </c>
+      <c r="E78" s="7">
+        <f t="shared" si="6"/>
+        <v>162.7906976744186</v>
+      </c>
+      <c r="F78" s="19">
+        <f t="shared" si="7"/>
+        <v>0.16279069767441859</v>
+      </c>
+      <c r="G78" s="30">
+        <f t="shared" si="8"/>
+        <v>1271.8023255814041</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="29">
+        <f t="shared" si="10"/>
+        <v>164062.5</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="8">
+        <v>128</v>
+      </c>
+      <c r="E79" s="7">
+        <f t="shared" si="6"/>
+        <v>164.0625</v>
+      </c>
+      <c r="F79" s="19">
+        <f t="shared" si="7"/>
+        <v>0.1640625</v>
+      </c>
+      <c r="G79" s="30">
+        <f t="shared" si="8"/>
+        <v>1291.8307086614077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="29">
+        <f t="shared" si="10"/>
+        <v>165354.33070866141</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8">
+        <v>127</v>
+      </c>
+      <c r="E80" s="7">
+        <f t="shared" si="6"/>
+        <v>165.35433070866139</v>
+      </c>
+      <c r="F80" s="19">
+        <f t="shared" si="7"/>
+        <v>0.1653543307086614</v>
+      </c>
+      <c r="G80" s="30">
+        <f t="shared" si="8"/>
+        <v>1312.3359580052493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="29">
+        <f t="shared" si="10"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8">
+        <v>126</v>
+      </c>
+      <c r="E81" s="7">
+        <f t="shared" si="6"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="F81" s="19">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G81" s="30">
+        <f t="shared" si="8"/>
+        <v>1333.333333333343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="29">
+        <f t="shared" si="10"/>
+        <v>168000</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1</v>
+      </c>
+      <c r="D82" s="8">
+        <v>125</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="F82" s="19">
+        <f t="shared" si="7"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G82" s="30">
+        <f t="shared" si="8"/>
+        <v>1354.838709677424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="29">
+        <f t="shared" si="10"/>
+        <v>169354.83870967742</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="8">
+        <v>124</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" si="6"/>
+        <v>169.35483870967744</v>
+      </c>
+      <c r="F83" s="19">
+        <f t="shared" si="7"/>
+        <v>0.16935483870967744</v>
+      </c>
+      <c r="G83" s="30">
+        <f t="shared" si="8"/>
+        <v>1376.868607395736</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="29">
+        <f t="shared" si="10"/>
+        <v>170731.70731707316</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8">
+        <v>123</v>
+      </c>
+      <c r="E84" s="7">
+        <f t="shared" si="6"/>
+        <v>170.73170731707316</v>
+      </c>
+      <c r="F84" s="19">
+        <f t="shared" si="7"/>
+        <v>0.17073170731707316</v>
+      </c>
+      <c r="G84" s="30">
+        <f t="shared" si="8"/>
+        <v>1399.4402239104384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="29">
+        <f t="shared" si="10"/>
+        <v>172131.1475409836</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <v>122</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="6"/>
+        <v>172.13114754098359</v>
+      </c>
+      <c r="F85" s="19">
+        <f t="shared" si="7"/>
+        <v>0.1721311475409836</v>
+      </c>
+      <c r="G85" s="30">
+        <f t="shared" si="8"/>
+        <v>1422.5714672808535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="29">
+        <f t="shared" si="10"/>
+        <v>173553.71900826445</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1</v>
+      </c>
+      <c r="D86" s="8">
+        <v>121</v>
+      </c>
+      <c r="E86" s="7">
+        <f t="shared" si="6"/>
+        <v>173.55371900826447</v>
+      </c>
+      <c r="F86" s="19">
+        <f t="shared" si="7"/>
+        <v>0.17355371900826447</v>
+      </c>
+      <c r="G86" s="30">
+        <f t="shared" si="8"/>
+        <v>1446.280991735548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="29">
+        <f t="shared" si="10"/>
+        <v>175000</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8">
+        <v>120</v>
+      </c>
+      <c r="E87" s="7">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="F87" s="19">
+        <f t="shared" si="7"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G87" s="30">
+        <f t="shared" si="8"/>
+        <v>1470.5882352941262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="29">
+        <f t="shared" si="10"/>
+        <v>176470.58823529413</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1</v>
+      </c>
+      <c r="D88" s="8">
+        <v>119</v>
+      </c>
+      <c r="E88" s="7">
+        <f t="shared" si="6"/>
+        <v>176.47058823529412</v>
+      </c>
+      <c r="F88" s="19">
+        <f t="shared" si="7"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="G88" s="30">
+        <f t="shared" si="8"/>
+        <v>1495.5134596211137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="29">
+        <f t="shared" si="10"/>
+        <v>177966.10169491524</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8">
+        <v>118</v>
+      </c>
+      <c r="E89" s="7">
+        <f t="shared" si="6"/>
+        <v>177.96610169491524</v>
+      </c>
+      <c r="F89" s="19">
+        <f t="shared" si="7"/>
+        <v>0.17796610169491525</v>
+      </c>
+      <c r="G89" s="30">
+        <f t="shared" si="8"/>
+        <v>1521.0777922642592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="29">
+        <f t="shared" si="10"/>
+        <v>179487.1794871795</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1</v>
+      </c>
+      <c r="D90" s="8">
+        <v>117</v>
+      </c>
+      <c r="E90" s="7">
+        <f t="shared" si="6"/>
+        <v>179.4871794871795</v>
+      </c>
+      <c r="F90" s="19">
+        <f t="shared" si="7"/>
+        <v>0.17948717948717952</v>
+      </c>
+      <c r="G90" s="30">
+        <f t="shared" si="8"/>
+        <v>1547.3032714411966</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="29">
+        <f t="shared" si="10"/>
+        <v>181034.4827586207</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
+      <c r="D91" s="8">
+        <v>116</v>
+      </c>
+      <c r="E91" s="7">
+        <f t="shared" si="6"/>
+        <v>181.0344827586207</v>
+      </c>
+      <c r="F91" s="19">
+        <f t="shared" si="7"/>
+        <v>0.18103448275862069</v>
+      </c>
+      <c r="G91" s="30">
+        <f t="shared" si="8"/>
+        <v>1574.2128935532237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="29">
+        <f t="shared" si="10"/>
+        <v>182608.69565217392</v>
+      </c>
+      <c r="C92" s="7">
+        <v>1</v>
+      </c>
+      <c r="D92" s="8">
+        <v>115</v>
+      </c>
+      <c r="E92" s="7">
+        <f t="shared" si="6"/>
+        <v>182.60869565217391</v>
+      </c>
+      <c r="F92" s="19">
+        <f t="shared" si="7"/>
+        <v>0.18260869565217391</v>
+      </c>
+      <c r="G92" s="30">
+        <f t="shared" si="8"/>
+        <v>1601.8306636155467</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="29">
+        <f t="shared" si="10"/>
+        <v>184210.52631578947</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8">
+        <v>114</v>
+      </c>
+      <c r="E93" s="7">
+        <f t="shared" si="6"/>
+        <v>184.21052631578948</v>
+      </c>
+      <c r="F93" s="19">
+        <f t="shared" si="7"/>
+        <v>0.18421052631578949</v>
+      </c>
+      <c r="G93" s="30">
+        <f t="shared" si="8"/>
+        <v>1630.181648812315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="29">
+        <f t="shared" si="10"/>
+        <v>185840.70796460178</v>
+      </c>
+      <c r="C94" s="7">
+        <v>1</v>
+      </c>
+      <c r="D94" s="8">
+        <v>113</v>
+      </c>
+      <c r="E94" s="7">
+        <f t="shared" si="6"/>
+        <v>185.84070796460179</v>
+      </c>
+      <c r="F94" s="19">
+        <f t="shared" si="7"/>
+        <v>0.18584070796460178</v>
+      </c>
+      <c r="G94" s="30">
+        <f t="shared" si="8"/>
+        <v>1659.292035398219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="29">
+        <f t="shared" si="10"/>
+        <v>187500</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8">
+        <v>112</v>
+      </c>
+      <c r="E95" s="7">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="F95" s="19">
+        <f t="shared" si="7"/>
+        <v>0.1875</v>
+      </c>
+      <c r="G95" s="30">
+        <f t="shared" si="8"/>
+        <v>1689.189189189201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="29">
+        <f t="shared" si="10"/>
+        <v>189189.1891891892</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8">
+        <v>111</v>
+      </c>
+      <c r="E96" s="7">
+        <f t="shared" si="6"/>
+        <v>189.18918918918919</v>
+      </c>
+      <c r="F96" s="19">
+        <f t="shared" si="7"/>
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="G96" s="30">
+        <f t="shared" si="8"/>
+        <v>1719.9017199017107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="29">
+        <f t="shared" si="10"/>
+        <v>190909.09090909091</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="8">
+        <v>110</v>
+      </c>
+      <c r="E97" s="7">
+        <f t="shared" si="6"/>
+        <v>190.90909090909091</v>
+      </c>
+      <c r="F97" s="19">
+        <f t="shared" si="7"/>
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="G97" s="30">
+        <f t="shared" si="8"/>
+        <v>1751.4595496246766</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+      <c r="B98" s="29">
+        <f t="shared" si="10"/>
+        <v>192660.55045871559</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1</v>
+      </c>
+      <c r="D98" s="8">
+        <v>109</v>
+      </c>
+      <c r="E98" s="7">
+        <f t="shared" si="6"/>
+        <v>192.66055045871559</v>
+      </c>
+      <c r="F98" s="19">
+        <f t="shared" si="7"/>
+        <v>0.19266055045871558</v>
+      </c>
+      <c r="G98" s="30">
+        <f t="shared" si="8"/>
+        <v>1783.8939857288497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="29">
+        <f t="shared" si="10"/>
+        <v>194444.44444444444</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8">
+        <v>108</v>
+      </c>
+      <c r="E99" s="7">
+        <f t="shared" si="6"/>
+        <v>194.44444444444443</v>
+      </c>
+      <c r="F99" s="19">
+        <f t="shared" si="7"/>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="G99" s="30">
+        <f t="shared" si="8"/>
+        <v>1817.2377985462081</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+      <c r="B100" s="29">
+        <f t="shared" si="10"/>
+        <v>196261.68224299065</v>
+      </c>
+      <c r="C100" s="7">
+        <v>1</v>
+      </c>
+      <c r="D100" s="8">
+        <v>107</v>
+      </c>
+      <c r="E100" s="7">
+        <f t="shared" si="6"/>
+        <v>196.26168224299064</v>
+      </c>
+      <c r="F100" s="19">
+        <f t="shared" si="7"/>
+        <v>0.19626168224299065</v>
+      </c>
+      <c r="G100" s="30">
+        <f t="shared" si="8"/>
+        <v>1851.525304179173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="29">
+        <f t="shared" si="10"/>
+        <v>198113.20754716982</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8">
+        <v>106</v>
+      </c>
+      <c r="E101" s="7">
+        <f t="shared" si="6"/>
+        <v>198.11320754716982</v>
+      </c>
+      <c r="F101" s="19">
+        <f t="shared" si="7"/>
+        <v>0.19811320754716982</v>
+      </c>
+      <c r="G101" s="30">
+        <f t="shared" si="8"/>
+        <v>1886.792452830181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="29">
+        <f t="shared" si="10"/>
+        <v>200000</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1</v>
+      </c>
+      <c r="D102" s="8">
+        <v>105</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F102" s="19">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="G102" s="30">
+        <f t="shared" si="8"/>
+        <v>1923.0769230769365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="29">
+        <f t="shared" si="10"/>
+        <v>201923.07692307694</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" s="8">
+        <v>104</v>
+      </c>
+      <c r="E103" s="7">
+        <f t="shared" si="6"/>
+        <v>201.92307692307693</v>
+      </c>
+      <c r="F103" s="19">
+        <f t="shared" si="7"/>
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="G103" s="30">
+        <f t="shared" si="8"/>
+        <v>1960.4182225541444</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="29">
+        <f t="shared" si="10"/>
+        <v>203883.49514563108</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1</v>
+      </c>
+      <c r="D104" s="8">
+        <v>103</v>
+      </c>
+      <c r="E104" s="7">
+        <f t="shared" si="6"/>
+        <v>203.88349514563109</v>
+      </c>
+      <c r="F104" s="19">
+        <f t="shared" si="7"/>
+        <v>0.20388349514563109</v>
+      </c>
+      <c r="G104" s="30">
+        <f t="shared" si="8"/>
+        <v>1998.8577955453948</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="29">
+        <f t="shared" si="10"/>
+        <v>205882.35294117648</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="8">
+        <v>102</v>
+      </c>
+      <c r="E105" s="7">
+        <f t="shared" si="6"/>
+        <v>205.88235294117646</v>
+      </c>
+      <c r="F105" s="19">
+        <f t="shared" si="7"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="G105" s="30">
+        <f t="shared" si="8"/>
+        <v>2038.4391380314482</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+      <c r="B106" s="29">
+        <f t="shared" si="10"/>
+        <v>207920.79207920792</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1</v>
+      </c>
+      <c r="D106" s="8">
+        <v>101</v>
+      </c>
+      <c r="E106" s="7">
+        <f t="shared" si="6"/>
+        <v>207.92079207920793</v>
+      </c>
+      <c r="F106" s="19">
+        <f t="shared" si="7"/>
+        <v>0.20792079207920794</v>
+      </c>
+      <c r="G106" s="30">
+        <f t="shared" si="8"/>
+        <v>2079.207920792076</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+      <c r="B107" s="29">
+        <f t="shared" si="10"/>
+        <v>210000</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="8">
+        <v>100</v>
+      </c>
+      <c r="E107" s="7">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="F107" s="19">
+        <f t="shared" si="7"/>
+        <v>0.21</v>
+      </c>
+      <c r="G107" s="30">
+        <f t="shared" si="8"/>
+        <v>2121.2121212121274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+      <c r="B108" s="29">
+        <f t="shared" si="10"/>
+        <v>212121.21212121213</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1</v>
+      </c>
+      <c r="D108" s="8">
+        <v>99</v>
+      </c>
+      <c r="E108" s="7">
+        <f t="shared" si="6"/>
+        <v>212.12121212121212</v>
+      </c>
+      <c r="F108" s="19">
+        <f t="shared" si="7"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="G108" s="30">
+        <f t="shared" si="8"/>
+        <v>2164.5021645021625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+      <c r="B109" s="29">
+        <f t="shared" si="10"/>
+        <v>214285.71428571429</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" s="8">
+        <v>98</v>
+      </c>
+      <c r="E109" s="7">
+        <f t="shared" si="6"/>
+        <v>214.28571428571428</v>
+      </c>
+      <c r="F109" s="19">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G109" s="30">
+        <f t="shared" si="8"/>
+        <v>2209.1310751104611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+      <c r="B110" s="29">
+        <f t="shared" si="10"/>
+        <v>216494.84536082475</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1</v>
+      </c>
+      <c r="D110" s="8">
+        <v>97</v>
+      </c>
+      <c r="E110" s="7">
+        <f t="shared" si="6"/>
+        <v>216.49484536082474</v>
+      </c>
+      <c r="F110" s="19">
+        <f t="shared" si="7"/>
+        <v>0.21649484536082475</v>
+      </c>
+      <c r="G110" s="30">
+        <f t="shared" si="8"/>
+        <v>2255.154639175249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+      <c r="B111" s="29">
+        <f t="shared" si="10"/>
+        <v>218750</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
+      <c r="D111" s="8">
+        <v>96</v>
+      </c>
+      <c r="E111" s="7">
+        <f t="shared" si="6"/>
+        <v>218.75</v>
+      </c>
+      <c r="F111" s="19">
+        <f t="shared" si="7"/>
+        <v>0.21875</v>
+      </c>
+      <c r="G111" s="30">
+        <f t="shared" si="8"/>
+        <v>2302.6315789473592</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+      <c r="B112" s="29">
+        <f t="shared" si="10"/>
+        <v>221052.63157894736</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1</v>
+      </c>
+      <c r="D112" s="8">
+        <v>95</v>
+      </c>
+      <c r="E112" s="7">
+        <f t="shared" si="6"/>
+        <v>221.05263157894737</v>
+      </c>
+      <c r="F112" s="19">
+        <f t="shared" si="7"/>
+        <v>0.22105263157894736</v>
+      </c>
+      <c r="G112" s="30">
+        <f t="shared" si="8"/>
+        <v>2351.6237402015831</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+      <c r="B113" s="29">
+        <f t="shared" si="10"/>
+        <v>223404.25531914894</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
+      <c r="D113" s="8">
+        <v>94</v>
+      </c>
+      <c r="E113" s="7">
+        <f t="shared" si="6"/>
+        <v>223.40425531914894</v>
+      </c>
+      <c r="F113" s="19">
+        <f t="shared" si="7"/>
+        <v>0.22340425531914895</v>
+      </c>
+      <c r="G113" s="30">
+        <f t="shared" si="8"/>
+        <v>2402.1962937542703</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+      <c r="B114" s="29">
+        <f t="shared" si="10"/>
+        <v>225806.45161290321</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1</v>
+      </c>
+      <c r="D114" s="8">
+        <v>93</v>
+      </c>
+      <c r="E114" s="7">
+        <f t="shared" si="6"/>
+        <v>225.8064516129032</v>
+      </c>
+      <c r="F114" s="19">
+        <f t="shared" si="7"/>
+        <v>0.22580645161290319</v>
+      </c>
+      <c r="G114" s="30">
+        <f t="shared" si="8"/>
+        <v>2454.4179523141647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+      <c r="B115" s="29">
+        <f t="shared" si="10"/>
+        <v>228260.86956521738</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
+      <c r="D115" s="8">
+        <v>92</v>
+      </c>
+      <c r="E115" s="7">
+        <f t="shared" si="6"/>
+        <v>228.26086956521738</v>
+      </c>
+      <c r="F115" s="19">
+        <f t="shared" si="7"/>
+        <v>0.22826086956521738</v>
+      </c>
+      <c r="G115" s="30">
+        <f t="shared" si="8"/>
+        <v>2508.361204013403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+      <c r="B116" s="29">
+        <f t="shared" si="10"/>
+        <v>230769.23076923078</v>
+      </c>
+      <c r="C116" s="7">
+        <v>1</v>
+      </c>
+      <c r="D116" s="8">
+        <v>91</v>
+      </c>
+      <c r="E116" s="7">
+        <f t="shared" si="6"/>
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F116" s="19">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="G116" s="30">
+        <f t="shared" si="8"/>
+        <v>2564.1025641025626</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+      <c r="B117" s="29">
+        <f t="shared" si="10"/>
+        <v>233333.33333333334</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
+      <c r="D117" s="8">
+        <v>90</v>
+      </c>
+      <c r="E117" s="7">
+        <f t="shared" si="6"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="F117" s="19">
+        <f t="shared" si="7"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="G117" s="30">
+        <f t="shared" si="8"/>
+        <v>2621.7228464419313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+      <c r="B118" s="29">
+        <f t="shared" si="10"/>
+        <v>235955.05617977527</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1</v>
+      </c>
+      <c r="D118" s="8">
+        <v>89</v>
+      </c>
+      <c r="E118" s="7">
+        <f t="shared" si="6"/>
+        <v>235.95505617977528</v>
+      </c>
+      <c r="F118" s="19">
+        <f t="shared" si="7"/>
+        <v>0.23595505617977527</v>
+      </c>
+      <c r="G118" s="30">
+        <f t="shared" si="8"/>
+        <v>2681.3074565883726</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+      <c r="B119" s="29">
+        <f t="shared" si="10"/>
+        <v>238636.36363636365</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="D119" s="8">
+        <v>88</v>
+      </c>
+      <c r="E119" s="7">
+        <f t="shared" si="6"/>
+        <v>238.63636363636365</v>
+      </c>
+      <c r="F119" s="19">
+        <f t="shared" si="7"/>
+        <v>0.23863636363636365</v>
+      </c>
+      <c r="G119" s="30">
+        <f t="shared" si="8"/>
+        <v>2742.9467084639473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+      <c r="B120" s="29">
+        <f t="shared" si="10"/>
+        <v>241379.31034482759</v>
+      </c>
+      <c r="C120" s="7">
+        <v>1</v>
+      </c>
+      <c r="D120" s="8">
+        <v>87</v>
+      </c>
+      <c r="E120" s="7">
+        <f t="shared" si="6"/>
+        <v>241.37931034482759</v>
+      </c>
+      <c r="F120" s="19">
+        <f t="shared" si="7"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="G120" s="30">
+        <f t="shared" si="8"/>
+        <v>2806.7361668003141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+      <c r="B121" s="29">
+        <f t="shared" si="10"/>
+        <v>244186.04651162791</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="D121" s="8">
+        <v>86</v>
+      </c>
+      <c r="E121" s="7">
+        <f t="shared" si="6"/>
+        <v>244.18604651162792</v>
+      </c>
+      <c r="F121" s="19">
+        <f t="shared" si="7"/>
+        <v>0.24418604651162792</v>
+      </c>
+      <c r="G121" s="30">
+        <f t="shared" si="8"/>
+        <v>2872.7770177838684</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+      <c r="B122" s="29">
+        <f t="shared" si="10"/>
+        <v>247058.82352941178</v>
+      </c>
+      <c r="C122" s="7">
+        <v>1</v>
+      </c>
+      <c r="D122" s="8">
+        <v>85</v>
+      </c>
+      <c r="E122" s="7">
+        <f t="shared" si="6"/>
+        <v>247.05882352941177</v>
+      </c>
+      <c r="F122" s="19">
+        <f t="shared" si="7"/>
+        <v>0.24705882352941178</v>
+      </c>
+      <c r="G122" s="30">
+        <f t="shared" si="8"/>
+        <v>2941.1764705882233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+      <c r="B123" s="29">
+        <f t="shared" si="10"/>
+        <v>250000</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
+      <c r="D123" s="8">
+        <v>84</v>
+      </c>
+      <c r="E123" s="7">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="F123" s="19">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="G123" s="30">
+        <f t="shared" si="8"/>
+        <v>3012.0481927710935</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+      <c r="B124" s="29">
+        <f t="shared" si="10"/>
+        <v>253012.04819277109</v>
+      </c>
+      <c r="C124" s="7">
+        <v>1</v>
+      </c>
+      <c r="D124" s="8">
+        <v>83</v>
+      </c>
+      <c r="E124" s="7">
+        <f t="shared" si="6"/>
+        <v>253.01204819277109</v>
+      </c>
+      <c r="F124" s="19">
+        <f t="shared" si="7"/>
+        <v>0.25301204819277107</v>
+      </c>
+      <c r="G124" s="30">
+        <f t="shared" si="8"/>
+        <v>3085.5127828386612</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+      <c r="B125" s="29">
+        <f t="shared" si="10"/>
+        <v>256097.56097560975</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
+      <c r="D125" s="8">
+        <v>82</v>
+      </c>
+      <c r="E125" s="7">
+        <f t="shared" si="6"/>
+        <v>256.09756097560978</v>
+      </c>
+      <c r="F125" s="19">
+        <f t="shared" si="7"/>
+        <v>0.25609756097560976</v>
+      </c>
+      <c r="G125" s="30">
+        <f t="shared" si="8"/>
+        <v>3161.6982836495154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+      <c r="B126" s="29">
+        <f t="shared" si="10"/>
+        <v>259259.25925925927</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1</v>
+      </c>
+      <c r="D126" s="8">
+        <v>81</v>
+      </c>
+      <c r="E126" s="7">
+        <f t="shared" si="6"/>
+        <v>259.2592592592593</v>
+      </c>
+      <c r="F126" s="19">
+        <f t="shared" si="7"/>
+        <v>0.2592592592592593</v>
+      </c>
+      <c r="G126" s="30">
+        <f t="shared" si="8"/>
+        <v>3240.74074074073</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+      <c r="B127" s="29">
+        <f t="shared" si="10"/>
+        <v>262500</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1</v>
+      </c>
+      <c r="D127" s="8">
+        <v>80</v>
+      </c>
+      <c r="E127" s="7">
+        <f t="shared" si="6"/>
+        <v>262.5</v>
+      </c>
+      <c r="F127" s="19">
+        <f t="shared" si="7"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="G127" s="30">
+        <f t="shared" si="8"/>
+        <v>3322.7848101265845</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
+      <c r="B128" s="29">
+        <f t="shared" si="10"/>
+        <v>265822.78481012658</v>
+      </c>
+      <c r="C128" s="7">
+        <v>1</v>
+      </c>
+      <c r="D128" s="8">
+        <v>79</v>
+      </c>
+      <c r="E128" s="7">
+        <f t="shared" si="6"/>
+        <v>265.82278481012656</v>
+      </c>
+      <c r="F128" s="19">
+        <f t="shared" si="7"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="G128" s="30">
+        <f t="shared" si="8"/>
+        <v>3407.9844206426642</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+      <c r="B129" s="29">
+        <f t="shared" si="10"/>
+        <v>269230.76923076925</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1</v>
+      </c>
+      <c r="D129" s="8">
+        <v>78</v>
+      </c>
+      <c r="E129" s="7">
+        <f t="shared" si="6"/>
+        <v>269.23076923076923</v>
+      </c>
+      <c r="F129" s="19">
+        <f t="shared" si="7"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="G129" s="30">
+        <f t="shared" si="8"/>
+        <v>3496.5034965034574</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
+      <c r="B130" s="29">
+        <f t="shared" si="10"/>
+        <v>272727.27272727271</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1</v>
+      </c>
+      <c r="D130" s="8">
+        <v>77</v>
+      </c>
+      <c r="E130" s="7">
+        <f t="shared" ref="E130:E193" si="11">B130/1000</f>
+        <v>272.72727272727269</v>
+      </c>
+      <c r="F130" s="19">
+        <f t="shared" ref="F130:F193" si="12">E130/1000</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G130" s="30">
+        <f t="shared" ref="G130:G193" si="13">B131-B130</f>
+        <v>3588.5167464115075</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+      <c r="B131" s="29">
+        <f t="shared" si="10"/>
+        <v>276315.78947368421</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1</v>
+      </c>
+      <c r="D131" s="8">
+        <v>76</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" si="11"/>
+        <v>276.31578947368422</v>
+      </c>
+      <c r="F131" s="19">
+        <f t="shared" si="12"/>
+        <v>0.27631578947368424</v>
+      </c>
+      <c r="G131" s="30">
+        <f t="shared" si="13"/>
+        <v>3684.2105263157864</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
+      <c r="B132" s="29">
+        <f t="shared" si="10"/>
+        <v>280000</v>
+      </c>
+      <c r="C132" s="7">
+        <v>1</v>
+      </c>
+      <c r="D132" s="8">
+        <v>75</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="F132" s="19">
+        <f t="shared" si="12"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G132" s="30">
+        <f t="shared" si="13"/>
+        <v>3783.7837837837869</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+      <c r="B133" s="29">
+        <f t="shared" ref="B133:B196" si="14">21000000 /C133/D133</f>
+        <v>283783.78378378379</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="D133" s="8">
+        <v>74</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" si="11"/>
+        <v>283.7837837837838</v>
+      </c>
+      <c r="F133" s="19">
+        <f t="shared" si="12"/>
+        <v>0.28378378378378383</v>
+      </c>
+      <c r="G133" s="30">
+        <f t="shared" si="13"/>
+        <v>3887.449092928553</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
+      <c r="B134" s="29">
+        <f t="shared" si="14"/>
+        <v>287671.23287671234</v>
+      </c>
+      <c r="C134" s="7">
+        <v>1</v>
+      </c>
+      <c r="D134" s="8">
+        <v>73</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" si="11"/>
+        <v>287.67123287671234</v>
+      </c>
+      <c r="F134" s="19">
+        <f t="shared" si="12"/>
+        <v>0.28767123287671231</v>
+      </c>
+      <c r="G134" s="30">
+        <f t="shared" si="13"/>
+        <v>3995.4337899543461</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
+      <c r="B135" s="29">
+        <f t="shared" si="14"/>
+        <v>291666.66666666669</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="8">
+        <v>72</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" si="11"/>
+        <v>291.66666666666669</v>
+      </c>
+      <c r="F135" s="19">
+        <f t="shared" si="12"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G135" s="30">
+        <f t="shared" si="13"/>
+        <v>4107.9812206572387</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
+      <c r="B136" s="29">
+        <f t="shared" si="14"/>
+        <v>295774.64788732392</v>
+      </c>
+      <c r="C136" s="7">
+        <v>1</v>
+      </c>
+      <c r="D136" s="8">
+        <v>71</v>
+      </c>
+      <c r="E136" s="7">
+        <f t="shared" si="11"/>
+        <v>295.77464788732391</v>
+      </c>
+      <c r="F136" s="19">
+        <f t="shared" si="12"/>
+        <v>0.29577464788732388</v>
+      </c>
+      <c r="G136" s="30">
+        <f t="shared" si="13"/>
+        <v>4225.3521126760752</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+      <c r="B137" s="29">
+        <f t="shared" si="14"/>
+        <v>300000</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
+      <c r="D137" s="8">
+        <v>70</v>
+      </c>
+      <c r="E137" s="7">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="F137" s="19">
+        <f t="shared" si="12"/>
+        <v>0.3</v>
+      </c>
+      <c r="G137" s="30">
+        <f t="shared" si="13"/>
+        <v>4347.826086956542</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
+      <c r="B138" s="29">
+        <f t="shared" si="14"/>
+        <v>304347.82608695654</v>
+      </c>
+      <c r="C138" s="7">
+        <v>1</v>
+      </c>
+      <c r="D138" s="8">
+        <v>69</v>
+      </c>
+      <c r="E138" s="7">
+        <f t="shared" si="11"/>
+        <v>304.34782608695656</v>
+      </c>
+      <c r="F138" s="19">
+        <f t="shared" si="12"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="G138" s="30">
+        <f t="shared" si="13"/>
+        <v>4475.703324808157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
+      <c r="B139" s="29">
+        <f t="shared" si="14"/>
+        <v>308823.5294117647</v>
+      </c>
+      <c r="C139" s="7">
+        <v>1</v>
+      </c>
+      <c r="D139" s="8">
+        <v>68</v>
+      </c>
+      <c r="E139" s="7">
+        <f t="shared" si="11"/>
+        <v>308.8235294117647</v>
+      </c>
+      <c r="F139" s="19">
+        <f t="shared" si="12"/>
+        <v>0.30882352941176472</v>
+      </c>
+      <c r="G139" s="30">
+        <f t="shared" si="13"/>
+        <v>4609.3064091308042</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
+      <c r="B140" s="29">
+        <f t="shared" si="14"/>
+        <v>313432.8358208955</v>
+      </c>
+      <c r="C140" s="7">
+        <v>1</v>
+      </c>
+      <c r="D140" s="8">
+        <v>67</v>
+      </c>
+      <c r="E140" s="7">
+        <f t="shared" si="11"/>
+        <v>313.43283582089549</v>
+      </c>
+      <c r="F140" s="19">
+        <f t="shared" si="12"/>
+        <v>0.31343283582089548</v>
+      </c>
+      <c r="G140" s="30">
+        <f t="shared" si="13"/>
+        <v>4748.9823609226733</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
+      <c r="B141" s="29">
+        <f t="shared" si="14"/>
+        <v>318181.81818181818</v>
+      </c>
+      <c r="C141" s="7">
+        <v>1</v>
+      </c>
+      <c r="D141" s="8">
+        <v>66</v>
+      </c>
+      <c r="E141" s="7">
+        <f t="shared" si="11"/>
+        <v>318.18181818181819</v>
+      </c>
+      <c r="F141" s="19">
+        <f t="shared" si="12"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="G141" s="30">
+        <f t="shared" si="13"/>
+        <v>4895.104895104887</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
+      <c r="B142" s="29">
+        <f t="shared" si="14"/>
+        <v>323076.92307692306</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1</v>
+      </c>
+      <c r="D142" s="8">
+        <v>65</v>
+      </c>
+      <c r="E142" s="7">
+        <f t="shared" si="11"/>
+        <v>323.07692307692304</v>
+      </c>
+      <c r="F142" s="19">
+        <f t="shared" si="12"/>
+        <v>0.32307692307692304</v>
+      </c>
+      <c r="G142" s="30">
+        <f t="shared" si="13"/>
+        <v>5048.0769230769365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
+      <c r="B143" s="29">
+        <f t="shared" si="14"/>
+        <v>328125</v>
+      </c>
+      <c r="C143" s="7">
+        <v>1</v>
+      </c>
+      <c r="D143" s="8">
+        <v>64</v>
+      </c>
+      <c r="E143" s="7">
+        <f t="shared" si="11"/>
+        <v>328.125</v>
+      </c>
+      <c r="F143" s="19">
+        <f t="shared" si="12"/>
+        <v>0.328125</v>
+      </c>
+      <c r="G143" s="30">
+        <f t="shared" si="13"/>
+        <v>5208.3333333333139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
+      <c r="B144" s="29">
+        <f t="shared" si="14"/>
+        <v>333333.33333333331</v>
+      </c>
+      <c r="C144" s="7">
+        <v>1</v>
+      </c>
+      <c r="D144" s="8">
+        <v>63</v>
+      </c>
+      <c r="E144" s="7">
+        <f t="shared" si="11"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="F144" s="19">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G144" s="30">
+        <f t="shared" si="13"/>
+        <v>5376.3440860215342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
+      <c r="B145" s="29">
+        <f t="shared" si="14"/>
+        <v>338709.67741935485</v>
+      </c>
+      <c r="C145" s="7">
+        <v>1</v>
+      </c>
+      <c r="D145" s="8">
+        <v>62</v>
+      </c>
+      <c r="E145" s="7">
+        <f t="shared" si="11"/>
+        <v>338.70967741935488</v>
+      </c>
+      <c r="F145" s="19">
+        <f t="shared" si="12"/>
+        <v>0.33870967741935487</v>
+      </c>
+      <c r="G145" s="30">
+        <f t="shared" si="13"/>
+        <v>5552.6176626123488</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
+      <c r="B146" s="29">
+        <f t="shared" si="14"/>
+        <v>344262.2950819672</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1</v>
+      </c>
+      <c r="D146" s="8">
+        <v>61</v>
+      </c>
+      <c r="E146" s="7">
+        <f t="shared" si="11"/>
+        <v>344.26229508196718</v>
+      </c>
+      <c r="F146" s="19">
+        <f t="shared" si="12"/>
+        <v>0.34426229508196721</v>
+      </c>
+      <c r="G146" s="30">
+        <f t="shared" si="13"/>
+        <v>5737.7049180328031</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
+      <c r="B147" s="29">
+        <f t="shared" si="14"/>
+        <v>350000</v>
+      </c>
+      <c r="C147" s="7">
+        <v>1</v>
+      </c>
+      <c r="D147" s="8">
+        <v>60</v>
+      </c>
+      <c r="E147" s="7">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="F147" s="19">
+        <f t="shared" si="12"/>
+        <v>0.35</v>
+      </c>
+      <c r="G147" s="30">
+        <f t="shared" si="13"/>
+        <v>5932.2033898304799</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
+      <c r="B148" s="29">
+        <f t="shared" si="14"/>
+        <v>355932.20338983048</v>
+      </c>
+      <c r="C148" s="7">
+        <v>1</v>
+      </c>
+      <c r="D148" s="8">
+        <v>59</v>
+      </c>
+      <c r="E148" s="7">
+        <f t="shared" si="11"/>
+        <v>355.93220338983048</v>
+      </c>
+      <c r="F148" s="19">
+        <f t="shared" si="12"/>
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="G148" s="30">
+        <f t="shared" si="13"/>
+        <v>6136.7621274109115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+      <c r="B149" s="29">
+        <f t="shared" si="14"/>
+        <v>362068.96551724139</v>
+      </c>
+      <c r="C149" s="7">
+        <v>1</v>
+      </c>
+      <c r="D149" s="8">
+        <v>58</v>
+      </c>
+      <c r="E149" s="7">
+        <f t="shared" si="11"/>
+        <v>362.06896551724139</v>
+      </c>
+      <c r="F149" s="19">
+        <f t="shared" si="12"/>
+        <v>0.36206896551724138</v>
+      </c>
+      <c r="G149" s="30">
+        <f t="shared" si="13"/>
+        <v>6352.0871143375407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
+      <c r="B150" s="29">
+        <f t="shared" si="14"/>
+        <v>368421.05263157893</v>
+      </c>
+      <c r="C150" s="7">
+        <v>1</v>
+      </c>
+      <c r="D150" s="8">
+        <v>57</v>
+      </c>
+      <c r="E150" s="7">
+        <f t="shared" si="11"/>
+        <v>368.42105263157896</v>
+      </c>
+      <c r="F150" s="19">
+        <f t="shared" si="12"/>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="G150" s="30">
+        <f t="shared" si="13"/>
+        <v>6578.9473684210679</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
+      <c r="B151" s="29">
+        <f t="shared" si="14"/>
+        <v>375000</v>
+      </c>
+      <c r="C151" s="7">
+        <v>1</v>
+      </c>
+      <c r="D151" s="8">
+        <v>56</v>
+      </c>
+      <c r="E151" s="7">
+        <f t="shared" si="11"/>
+        <v>375</v>
+      </c>
+      <c r="F151" s="19">
+        <f t="shared" si="12"/>
+        <v>0.375</v>
+      </c>
+      <c r="G151" s="30">
+        <f t="shared" si="13"/>
+        <v>6818.1818181818235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
+      <c r="B152" s="29">
+        <f t="shared" si="14"/>
+        <v>381818.18181818182</v>
+      </c>
+      <c r="C152" s="7">
+        <v>1</v>
+      </c>
+      <c r="D152" s="8">
+        <v>55</v>
+      </c>
+      <c r="E152" s="7">
+        <f t="shared" si="11"/>
+        <v>381.81818181818181</v>
+      </c>
+      <c r="F152" s="19">
+        <f t="shared" si="12"/>
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="G152" s="30">
+        <f t="shared" si="13"/>
+        <v>7070.7070707070525</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
+      <c r="B153" s="29">
+        <f t="shared" si="14"/>
+        <v>388888.88888888888</v>
+      </c>
+      <c r="C153" s="7">
+        <v>1</v>
+      </c>
+      <c r="D153" s="8">
+        <v>54</v>
+      </c>
+      <c r="E153" s="7">
+        <f t="shared" si="11"/>
+        <v>388.88888888888886</v>
+      </c>
+      <c r="F153" s="19">
+        <f t="shared" si="12"/>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="G153" s="30">
+        <f t="shared" si="13"/>
+        <v>7337.5262054507621</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
+      <c r="B154" s="29">
+        <f t="shared" si="14"/>
+        <v>396226.41509433964</v>
+      </c>
+      <c r="C154" s="7">
+        <v>1</v>
+      </c>
+      <c r="D154" s="8">
+        <v>53</v>
+      </c>
+      <c r="E154" s="7">
+        <f t="shared" si="11"/>
+        <v>396.22641509433964</v>
+      </c>
+      <c r="F154" s="19">
+        <f t="shared" si="12"/>
+        <v>0.39622641509433965</v>
+      </c>
+      <c r="G154" s="30">
+        <f t="shared" si="13"/>
+        <v>7619.738751814235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
+      <c r="B155" s="29">
+        <f t="shared" si="14"/>
+        <v>403846.15384615387</v>
+      </c>
+      <c r="C155" s="7">
+        <v>1</v>
+      </c>
+      <c r="D155" s="8">
+        <v>52</v>
+      </c>
+      <c r="E155" s="7">
+        <f t="shared" si="11"/>
+        <v>403.84615384615387</v>
+      </c>
+      <c r="F155" s="19">
+        <f t="shared" si="12"/>
+        <v>0.40384615384615385</v>
+      </c>
+      <c r="G155" s="30">
+        <f t="shared" si="13"/>
+        <v>7918.5520361990784</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
+      <c r="B156" s="29">
+        <f t="shared" si="14"/>
+        <v>411764.70588235295</v>
+      </c>
+      <c r="C156" s="7">
+        <v>1</v>
+      </c>
+      <c r="D156" s="8">
+        <v>51</v>
+      </c>
+      <c r="E156" s="7">
+        <f t="shared" si="11"/>
+        <v>411.76470588235293</v>
+      </c>
+      <c r="F156" s="19">
+        <f t="shared" si="12"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="G156" s="30">
+        <f t="shared" si="13"/>
+        <v>8235.2941176470486</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+      <c r="B157" s="29">
+        <f t="shared" si="14"/>
+        <v>420000</v>
+      </c>
+      <c r="C157" s="7">
+        <v>1</v>
+      </c>
+      <c r="D157" s="8">
+        <v>50</v>
+      </c>
+      <c r="E157" s="7">
+        <f t="shared" si="11"/>
+        <v>420</v>
+      </c>
+      <c r="F157" s="19">
+        <f t="shared" si="12"/>
+        <v>0.42</v>
+      </c>
+      <c r="G157" s="30">
+        <f t="shared" si="13"/>
+        <v>8571.4285714285797</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
+      <c r="B158" s="29">
+        <f t="shared" si="14"/>
+        <v>428571.42857142858</v>
+      </c>
+      <c r="C158" s="7">
+        <v>1</v>
+      </c>
+      <c r="D158" s="8">
+        <v>49</v>
+      </c>
+      <c r="E158" s="7">
+        <f t="shared" si="11"/>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="F158" s="19">
+        <f t="shared" si="12"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G158" s="30">
+        <f t="shared" si="13"/>
+        <v>8928.5714285714203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+      <c r="B159" s="29">
+        <f t="shared" si="14"/>
+        <v>437500</v>
+      </c>
+      <c r="C159" s="7">
+        <v>1</v>
+      </c>
+      <c r="D159" s="8">
+        <v>48</v>
+      </c>
+      <c r="E159" s="7">
+        <f t="shared" si="11"/>
+        <v>437.5</v>
+      </c>
+      <c r="F159" s="19">
+        <f t="shared" si="12"/>
+        <v>0.4375</v>
+      </c>
+      <c r="G159" s="30">
+        <f t="shared" si="13"/>
+        <v>9308.5106382978847</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
+      <c r="B160" s="29">
+        <f t="shared" si="14"/>
+        <v>446808.51063829788</v>
+      </c>
+      <c r="C160" s="7">
+        <v>1</v>
+      </c>
+      <c r="D160" s="8">
+        <v>47</v>
+      </c>
+      <c r="E160" s="7">
+        <f t="shared" si="11"/>
+        <v>446.80851063829789</v>
+      </c>
+      <c r="F160" s="19">
+        <f t="shared" si="12"/>
+        <v>0.44680851063829791</v>
+      </c>
+      <c r="G160" s="30">
+        <f t="shared" si="13"/>
+        <v>9713.22849213687</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
+      <c r="B161" s="29">
+        <f t="shared" si="14"/>
+        <v>456521.73913043475</v>
+      </c>
+      <c r="C161" s="7">
+        <v>1</v>
+      </c>
+      <c r="D161" s="8">
+        <v>46</v>
+      </c>
+      <c r="E161" s="7">
+        <f t="shared" si="11"/>
+        <v>456.52173913043475</v>
+      </c>
+      <c r="F161" s="19">
+        <f t="shared" si="12"/>
+        <v>0.45652173913043476</v>
+      </c>
+      <c r="G161" s="30">
+        <f t="shared" si="13"/>
+        <v>10144.927536231931</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>161</v>
+      </c>
+      <c r="B162" s="29">
+        <f t="shared" si="14"/>
+        <v>466666.66666666669</v>
+      </c>
+      <c r="C162" s="7">
+        <v>1</v>
+      </c>
+      <c r="D162" s="8">
+        <v>45</v>
+      </c>
+      <c r="E162" s="7">
+        <f t="shared" si="11"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="F162" s="19">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G162" s="30">
+        <f t="shared" si="13"/>
+        <v>10606.060606060608</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
+      <c r="B163" s="29">
+        <f t="shared" si="14"/>
+        <v>477272.72727272729</v>
+      </c>
+      <c r="C163" s="7">
+        <v>1</v>
+      </c>
+      <c r="D163" s="8">
+        <v>44</v>
+      </c>
+      <c r="E163" s="7">
+        <f t="shared" si="11"/>
+        <v>477.27272727272731</v>
+      </c>
+      <c r="F163" s="19">
+        <f t="shared" si="12"/>
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="G163" s="30">
+        <f t="shared" si="13"/>
+        <v>11099.365750528523</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>163</v>
+      </c>
+      <c r="B164" s="29">
+        <f t="shared" si="14"/>
+        <v>488372.09302325582</v>
+      </c>
+      <c r="C164" s="7">
+        <v>1</v>
+      </c>
+      <c r="D164" s="8">
+        <v>43</v>
+      </c>
+      <c r="E164" s="7">
+        <f t="shared" si="11"/>
+        <v>488.37209302325584</v>
+      </c>
+      <c r="F164" s="19">
+        <f t="shared" si="12"/>
+        <v>0.48837209302325585</v>
+      </c>
+      <c r="G164" s="30">
+        <f t="shared" si="13"/>
+        <v>11627.906976744183</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>164</v>
+      </c>
+      <c r="B165" s="29">
+        <f t="shared" si="14"/>
+        <v>500000</v>
+      </c>
+      <c r="C165" s="7">
+        <v>1</v>
+      </c>
+      <c r="D165" s="8">
+        <v>42</v>
+      </c>
+      <c r="E165" s="7">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="F165" s="19">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="G165" s="30">
+        <f t="shared" si="13"/>
+        <v>12195.121951219509</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
+      <c r="B166" s="29">
+        <f t="shared" si="14"/>
+        <v>512195.12195121951</v>
+      </c>
+      <c r="C166" s="7">
+        <v>1</v>
+      </c>
+      <c r="D166" s="8">
+        <v>41</v>
+      </c>
+      <c r="E166" s="7">
+        <f t="shared" si="11"/>
+        <v>512.19512195121956</v>
+      </c>
+      <c r="F166" s="19">
+        <f t="shared" si="12"/>
+        <v>0.51219512195121952</v>
+      </c>
+      <c r="G166" s="30">
+        <f t="shared" si="13"/>
+        <v>12804.878048780491</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="21">
+        <v>166</v>
+      </c>
+      <c r="B167" s="29">
+        <f t="shared" si="14"/>
+        <v>525000</v>
+      </c>
+      <c r="C167" s="22">
+        <v>1</v>
+      </c>
+      <c r="D167" s="23">
+        <v>40</v>
+      </c>
+      <c r="E167" s="22">
+        <f t="shared" si="11"/>
+        <v>525</v>
+      </c>
+      <c r="F167" s="28">
+        <f t="shared" si="12"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G167" s="30">
+        <f>B168-B167</f>
+        <v>13461.538461538497</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>167</v>
+      </c>
+      <c r="B168" s="29">
+        <f t="shared" si="14"/>
+        <v>538461.5384615385</v>
+      </c>
+      <c r="C168" s="7">
+        <v>1</v>
+      </c>
+      <c r="D168" s="8">
+        <v>39</v>
+      </c>
+      <c r="E168" s="7">
+        <f t="shared" si="11"/>
+        <v>538.46153846153845</v>
+      </c>
+      <c r="F168" s="19">
+        <f t="shared" si="12"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="G168" s="30">
+        <f t="shared" si="13"/>
+        <v>14170.04048582993</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>168</v>
+      </c>
+      <c r="B169" s="29">
+        <f t="shared" si="14"/>
+        <v>552631.57894736843</v>
+      </c>
+      <c r="C169" s="7">
+        <v>1</v>
+      </c>
+      <c r="D169" s="8">
+        <v>38</v>
+      </c>
+      <c r="E169" s="7">
+        <f t="shared" si="11"/>
+        <v>552.63157894736844</v>
+      </c>
+      <c r="F169" s="19">
+        <f t="shared" si="12"/>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="G169" s="30">
+        <f t="shared" si="13"/>
+        <v>14935.988620199147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>169</v>
+      </c>
+      <c r="B170" s="29">
+        <f t="shared" si="14"/>
+        <v>567567.56756756757</v>
+      </c>
+      <c r="C170" s="7">
+        <v>1</v>
+      </c>
+      <c r="D170" s="8">
+        <v>37</v>
+      </c>
+      <c r="E170" s="7">
+        <f t="shared" si="11"/>
+        <v>567.56756756756761</v>
+      </c>
+      <c r="F170" s="19">
+        <f t="shared" si="12"/>
+        <v>0.56756756756756765</v>
+      </c>
+      <c r="G170" s="30">
+        <f t="shared" si="13"/>
+        <v>15765.765765765798</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>170</v>
+      </c>
+      <c r="B171" s="29">
+        <f t="shared" si="14"/>
+        <v>583333.33333333337</v>
+      </c>
+      <c r="C171" s="7">
+        <v>1</v>
+      </c>
+      <c r="D171" s="8">
+        <v>36</v>
+      </c>
+      <c r="E171" s="7">
+        <f t="shared" si="11"/>
+        <v>583.33333333333337</v>
+      </c>
+      <c r="F171" s="19">
+        <f t="shared" si="12"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G171" s="30">
+        <f t="shared" si="13"/>
+        <v>16666.666666666628</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>171</v>
+      </c>
+      <c r="B172" s="29">
+        <f t="shared" si="14"/>
+        <v>600000</v>
+      </c>
+      <c r="C172" s="7">
+        <v>1</v>
+      </c>
+      <c r="D172" s="8">
+        <v>35</v>
+      </c>
+      <c r="E172" s="7">
+        <f t="shared" si="11"/>
+        <v>600</v>
+      </c>
+      <c r="F172" s="19">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="G172" s="30">
+        <f t="shared" si="13"/>
+        <v>17647.058823529398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>172</v>
+      </c>
+      <c r="B173" s="29">
+        <f t="shared" si="14"/>
+        <v>617647.0588235294</v>
+      </c>
+      <c r="C173" s="7">
+        <v>1</v>
+      </c>
+      <c r="D173" s="8">
+        <v>34</v>
+      </c>
+      <c r="E173" s="7">
+        <f t="shared" si="11"/>
+        <v>617.64705882352939</v>
+      </c>
+      <c r="F173" s="19">
+        <f t="shared" si="12"/>
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="G173" s="30">
+        <f t="shared" si="13"/>
+        <v>18716.577540106955</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>173</v>
+      </c>
+      <c r="B174" s="29">
+        <f t="shared" si="14"/>
+        <v>636363.63636363635</v>
+      </c>
+      <c r="C174" s="7">
+        <v>1</v>
+      </c>
+      <c r="D174" s="8">
+        <v>33</v>
+      </c>
+      <c r="E174" s="7">
+        <f t="shared" si="11"/>
+        <v>636.36363636363637</v>
+      </c>
+      <c r="F174" s="19">
+        <f t="shared" si="12"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G174" s="30">
+        <f t="shared" si="13"/>
+        <v>19886.363636363647</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>174</v>
+      </c>
+      <c r="B175" s="29">
+        <f t="shared" si="14"/>
+        <v>656250</v>
+      </c>
+      <c r="C175" s="7">
+        <v>1</v>
+      </c>
+      <c r="D175" s="8">
+        <v>32</v>
+      </c>
+      <c r="E175" s="7">
+        <f t="shared" si="11"/>
+        <v>656.25</v>
+      </c>
+      <c r="F175" s="19">
+        <f t="shared" si="12"/>
+        <v>0.65625</v>
+      </c>
+      <c r="G175" s="30">
+        <f t="shared" si="13"/>
+        <v>21169.354838709696</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>175</v>
+      </c>
+      <c r="B176" s="29">
+        <f t="shared" si="14"/>
+        <v>677419.3548387097</v>
+      </c>
+      <c r="C176" s="7">
+        <v>1</v>
+      </c>
+      <c r="D176" s="8">
+        <v>31</v>
+      </c>
+      <c r="E176" s="7">
+        <f t="shared" si="11"/>
+        <v>677.41935483870975</v>
+      </c>
+      <c r="F176" s="19">
+        <f t="shared" si="12"/>
+        <v>0.67741935483870974</v>
+      </c>
+      <c r="G176" s="30">
+        <f t="shared" si="13"/>
+        <v>22580.645161290304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>176</v>
+      </c>
+      <c r="B177" s="29">
+        <f t="shared" si="14"/>
+        <v>700000</v>
+      </c>
+      <c r="C177" s="7">
+        <v>1</v>
+      </c>
+      <c r="D177" s="8">
+        <v>30</v>
+      </c>
+      <c r="E177" s="7">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="F177" s="19">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="G177" s="30">
+        <f t="shared" si="13"/>
+        <v>24137.931034482783</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>177</v>
+      </c>
+      <c r="B178" s="29">
+        <f t="shared" si="14"/>
+        <v>724137.93103448278</v>
+      </c>
+      <c r="C178" s="7">
+        <v>1</v>
+      </c>
+      <c r="D178" s="8">
+        <v>29</v>
+      </c>
+      <c r="E178" s="7">
+        <f t="shared" si="11"/>
+        <v>724.13793103448279</v>
+      </c>
+      <c r="F178" s="19">
+        <f t="shared" si="12"/>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="G178" s="30">
+        <f t="shared" si="13"/>
+        <v>25862.068965517217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>178</v>
+      </c>
+      <c r="B179" s="29">
+        <f t="shared" si="14"/>
+        <v>750000</v>
+      </c>
+      <c r="C179" s="7">
+        <v>1</v>
+      </c>
+      <c r="D179" s="8">
+        <v>28</v>
+      </c>
+      <c r="E179" s="7">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+      <c r="F179" s="19">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="G179" s="30">
+        <f t="shared" si="13"/>
+        <v>27777.777777777752</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>179</v>
+      </c>
+      <c r="B180" s="29">
+        <f t="shared" si="14"/>
+        <v>777777.77777777775</v>
+      </c>
+      <c r="C180" s="7">
+        <v>1</v>
+      </c>
+      <c r="D180" s="8">
+        <v>27</v>
+      </c>
+      <c r="E180" s="7">
+        <f t="shared" si="11"/>
+        <v>777.77777777777771</v>
+      </c>
+      <c r="F180" s="19">
+        <f t="shared" si="12"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="G180" s="30">
+        <f t="shared" si="13"/>
+        <v>29914.529914529994</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>180</v>
+      </c>
+      <c r="B181" s="29">
+        <f t="shared" si="14"/>
+        <v>807692.30769230775</v>
+      </c>
+      <c r="C181" s="7">
+        <v>1</v>
+      </c>
+      <c r="D181" s="8">
+        <v>26</v>
+      </c>
+      <c r="E181" s="7">
+        <f t="shared" si="11"/>
+        <v>807.69230769230774</v>
+      </c>
+      <c r="F181" s="19">
+        <f t="shared" si="12"/>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="G181" s="30">
+        <f t="shared" si="13"/>
+        <v>32307.692307692254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>181</v>
+      </c>
+      <c r="B182" s="29">
+        <f t="shared" si="14"/>
+        <v>840000</v>
+      </c>
+      <c r="C182" s="7">
+        <v>1</v>
+      </c>
+      <c r="D182" s="8">
+        <v>25</v>
+      </c>
+      <c r="E182" s="7">
+        <f t="shared" si="11"/>
+        <v>840</v>
+      </c>
+      <c r="F182" s="19">
+        <f t="shared" si="12"/>
+        <v>0.84</v>
+      </c>
+      <c r="G182" s="30">
+        <f t="shared" si="13"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>182</v>
+      </c>
+      <c r="B183" s="29">
+        <f t="shared" si="14"/>
+        <v>875000</v>
+      </c>
+      <c r="C183" s="7">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8">
+        <v>24</v>
+      </c>
+      <c r="E183" s="7">
+        <f t="shared" si="11"/>
+        <v>875</v>
+      </c>
+      <c r="F183" s="19">
+        <f t="shared" si="12"/>
+        <v>0.875</v>
+      </c>
+      <c r="G183" s="30">
+        <f t="shared" si="13"/>
+        <v>38043.47826086951</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>183</v>
+      </c>
+      <c r="B184" s="29">
+        <f t="shared" si="14"/>
+        <v>913043.47826086951</v>
+      </c>
+      <c r="C184" s="7">
+        <v>1</v>
+      </c>
+      <c r="D184" s="8">
+        <v>23</v>
+      </c>
+      <c r="E184" s="7">
+        <f t="shared" si="11"/>
+        <v>913.04347826086951</v>
+      </c>
+      <c r="F184" s="19">
+        <f t="shared" si="12"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="G184" s="30">
+        <f t="shared" si="13"/>
+        <v>41501.976284585078</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>184</v>
+      </c>
+      <c r="B185" s="29">
+        <f t="shared" si="14"/>
+        <v>954545.45454545459</v>
+      </c>
+      <c r="C185" s="7">
+        <v>1</v>
+      </c>
+      <c r="D185" s="8">
+        <v>22</v>
+      </c>
+      <c r="E185" s="7">
+        <f t="shared" si="11"/>
+        <v>954.54545454545462</v>
+      </c>
+      <c r="F185" s="19">
+        <f t="shared" si="12"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="G185" s="30">
+        <f t="shared" si="13"/>
+        <v>45454.545454545412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>185</v>
+      </c>
+      <c r="B186" s="29">
+        <f t="shared" si="14"/>
+        <v>1000000</v>
+      </c>
+      <c r="C186" s="7">
+        <v>1</v>
+      </c>
+      <c r="D186" s="8">
+        <v>21</v>
+      </c>
+      <c r="E186" s="7">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="F186" s="19">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G186" s="30">
+        <f t="shared" si="13"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>186</v>
+      </c>
+      <c r="B187" s="29">
+        <f t="shared" si="14"/>
+        <v>1050000</v>
+      </c>
+      <c r="C187" s="7">
+        <v>1</v>
+      </c>
+      <c r="D187" s="8">
+        <v>20</v>
+      </c>
+      <c r="E187" s="7">
+        <f t="shared" si="11"/>
+        <v>1050</v>
+      </c>
+      <c r="F187" s="19">
+        <f t="shared" si="12"/>
+        <v>1.05</v>
+      </c>
+      <c r="G187" s="30">
+        <f t="shared" si="13"/>
+        <v>55263.157894736854</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>187</v>
+      </c>
+      <c r="B188" s="29">
+        <f t="shared" si="14"/>
+        <v>1105263.1578947369</v>
+      </c>
+      <c r="C188" s="7">
+        <v>1</v>
+      </c>
+      <c r="D188" s="8">
+        <v>19</v>
+      </c>
+      <c r="E188" s="7">
+        <f t="shared" si="11"/>
+        <v>1105.2631578947369</v>
+      </c>
+      <c r="F188" s="19">
+        <f t="shared" si="12"/>
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="G188" s="30">
+        <f t="shared" si="13"/>
+        <v>61403.50877192989</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>188</v>
+      </c>
+      <c r="B189" s="29">
+        <f t="shared" si="14"/>
+        <v>1166666.6666666667</v>
+      </c>
+      <c r="C189" s="7">
+        <v>1</v>
+      </c>
+      <c r="D189" s="8">
+        <v>18</v>
+      </c>
+      <c r="E189" s="7">
+        <f t="shared" si="11"/>
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="F189" s="19">
+        <f t="shared" si="12"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="G189" s="30">
+        <f t="shared" si="13"/>
+        <v>68627.450980392052</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>189</v>
+      </c>
+      <c r="B190" s="29">
+        <f t="shared" si="14"/>
+        <v>1235294.1176470588</v>
+      </c>
+      <c r="C190" s="7">
+        <v>1</v>
+      </c>
+      <c r="D190" s="8">
+        <v>17</v>
+      </c>
+      <c r="E190" s="7">
+        <f t="shared" si="11"/>
+        <v>1235.2941176470588</v>
+      </c>
+      <c r="F190" s="19">
+        <f t="shared" si="12"/>
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="G190" s="30">
+        <f t="shared" si="13"/>
+        <v>77205.882352941204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>190</v>
+      </c>
+      <c r="B191" s="29">
+        <f t="shared" si="14"/>
+        <v>1312500</v>
+      </c>
+      <c r="C191" s="7">
+        <v>1</v>
+      </c>
+      <c r="D191" s="8">
+        <v>16</v>
+      </c>
+      <c r="E191" s="7">
+        <f t="shared" si="11"/>
+        <v>1312.5</v>
+      </c>
+      <c r="F191" s="19">
+        <f t="shared" si="12"/>
+        <v>1.3125</v>
+      </c>
+      <c r="G191" s="30">
+        <f t="shared" si="13"/>
+        <v>87500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>191</v>
+      </c>
+      <c r="B192" s="29">
+        <f t="shared" si="14"/>
+        <v>1400000</v>
+      </c>
+      <c r="C192" s="7">
+        <v>1</v>
+      </c>
+      <c r="D192" s="8">
+        <v>15</v>
+      </c>
+      <c r="E192" s="7">
+        <f t="shared" si="11"/>
+        <v>1400</v>
+      </c>
+      <c r="F192" s="19">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="G192" s="30">
+        <f t="shared" si="13"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>192</v>
+      </c>
+      <c r="B193" s="29">
+        <f t="shared" si="14"/>
+        <v>1500000</v>
+      </c>
+      <c r="C193" s="7">
+        <v>1</v>
+      </c>
+      <c r="D193" s="8">
+        <v>14</v>
+      </c>
+      <c r="E193" s="7">
+        <f t="shared" si="11"/>
+        <v>1500</v>
+      </c>
+      <c r="F193" s="19">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="G193" s="30">
+        <f t="shared" si="13"/>
+        <v>115384.61538461549</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>193</v>
+      </c>
+      <c r="B194" s="29">
+        <f t="shared" si="14"/>
+        <v>1615384.6153846155</v>
+      </c>
+      <c r="C194" s="7">
+        <v>1</v>
+      </c>
+      <c r="D194" s="8">
+        <v>13</v>
+      </c>
+      <c r="E194" s="7">
+        <f t="shared" ref="E194:E201" si="15">B194/1000</f>
+        <v>1615.3846153846155</v>
+      </c>
+      <c r="F194" s="19">
+        <f t="shared" ref="F194:F201" si="16">E194/1000</f>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="G194" s="30">
+        <f t="shared" ref="G194:G201" si="17">B195-B194</f>
+        <v>134615.38461538451</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>194</v>
+      </c>
+      <c r="B195" s="29">
+        <f t="shared" si="14"/>
+        <v>1750000</v>
+      </c>
+      <c r="C195" s="7">
+        <v>1</v>
+      </c>
+      <c r="D195" s="8">
+        <v>12</v>
+      </c>
+      <c r="E195" s="7">
+        <f t="shared" si="15"/>
+        <v>1750</v>
+      </c>
+      <c r="F195" s="19">
+        <f t="shared" si="16"/>
+        <v>1.75</v>
+      </c>
+      <c r="G195" s="30">
+        <f t="shared" si="17"/>
+        <v>159090.90909090918</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>195</v>
+      </c>
+      <c r="B196" s="29">
+        <f t="shared" si="14"/>
+        <v>1909090.9090909092</v>
+      </c>
+      <c r="C196" s="7">
+        <v>1</v>
+      </c>
+      <c r="D196" s="8">
+        <v>11</v>
+      </c>
+      <c r="E196" s="7">
+        <f t="shared" si="15"/>
+        <v>1909.0909090909092</v>
+      </c>
+      <c r="F196" s="19">
+        <f t="shared" si="16"/>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="G196" s="30">
+        <f t="shared" si="17"/>
+        <v>190909.09090909082</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>196</v>
+      </c>
+      <c r="B197" s="29">
+        <f t="shared" ref="B197:B201" si="18">21000000 /C197/D197</f>
+        <v>2100000</v>
+      </c>
+      <c r="C197" s="7">
+        <v>1</v>
+      </c>
+      <c r="D197" s="8">
+        <v>10</v>
+      </c>
+      <c r="E197" s="7">
+        <f t="shared" si="15"/>
+        <v>2100</v>
+      </c>
+      <c r="F197" s="19">
+        <f t="shared" si="16"/>
+        <v>2.1</v>
+      </c>
+      <c r="G197" s="30">
+        <f t="shared" si="17"/>
+        <v>233333.33333333349</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>197</v>
+      </c>
+      <c r="B198" s="29">
+        <f t="shared" si="18"/>
+        <v>2333333.3333333335</v>
+      </c>
+      <c r="C198" s="7">
+        <v>1</v>
+      </c>
+      <c r="D198" s="8">
+        <v>9</v>
+      </c>
+      <c r="E198" s="7">
+        <f t="shared" si="15"/>
+        <v>2333.3333333333335</v>
+      </c>
+      <c r="F198" s="19">
+        <f t="shared" si="16"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G198" s="30">
+        <f t="shared" si="17"/>
+        <v>291666.66666666651</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>198</v>
+      </c>
+      <c r="B199" s="29">
+        <f>21000000 /C199/D199</f>
+        <v>2625000</v>
+      </c>
+      <c r="C199" s="7">
+        <v>1</v>
+      </c>
+      <c r="D199" s="8">
+        <v>8</v>
+      </c>
+      <c r="E199" s="7">
+        <f t="shared" si="15"/>
+        <v>2625</v>
+      </c>
+      <c r="F199" s="19">
+        <f t="shared" si="16"/>
+        <v>2.625</v>
+      </c>
+      <c r="G199" s="30">
+        <f t="shared" si="17"/>
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>199</v>
+      </c>
+      <c r="B200" s="29">
+        <f>21000000 /C200/D200</f>
+        <v>3000000</v>
+      </c>
+      <c r="C200" s="7">
+        <v>1</v>
+      </c>
+      <c r="D200" s="8">
+        <v>7</v>
+      </c>
+      <c r="E200" s="7">
+        <f t="shared" si="15"/>
+        <v>3000</v>
+      </c>
+      <c r="F200" s="19">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G200" s="30">
+        <f t="shared" si="17"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>200</v>
+      </c>
+      <c r="B201" s="29">
+        <f>21000000 /C201/D201</f>
+        <v>3500000</v>
+      </c>
+      <c r="C201" s="7">
+        <v>1</v>
+      </c>
+      <c r="D201" s="8">
+        <v>6</v>
+      </c>
+      <c r="E201" s="7">
+        <f t="shared" si="15"/>
+        <v>3500</v>
+      </c>
+      <c r="F201" s="19">
+        <f t="shared" si="16"/>
+        <v>3.5</v>
+      </c>
+      <c r="G201" s="26"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Frequenzen.xlsx
+++ b/Frequenzen.xlsx
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="S109" sqref="S109"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="K22">
         <f>21000000*4/K31/L31</f>
-        <v>84000</v>
+        <v>64615.384615384617</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -1424,22 +1424,22 @@
         <v>1</v>
       </c>
       <c r="K31" s="29">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L31" s="7">
         <v>1</v>
       </c>
       <c r="M31" s="8">
         <f>84000000/K31/L31</f>
-        <v>84000</v>
+        <v>64615.384615384617</v>
       </c>
       <c r="N31" s="7">
         <f t="shared" ref="N31:N80" si="23">K31/1000</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" ref="O31:O80" si="24">N31/1000</f>
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="P31" s="30">
         <f t="shared" ref="P31:P80" si="25">K32-K31</f>
@@ -1447,11 +1447,11 @@
       </c>
       <c r="Q31" s="1">
         <f>M31-M32</f>
-        <v>72000</v>
+        <v>53108.535300316122</v>
       </c>
       <c r="R31" s="18">
         <f>M31-M32</f>
-        <v>72000</v>
+        <v>53108.535300316122</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -1494,22 +1494,22 @@
       </c>
       <c r="K32" s="29">
         <f>K31+6000</f>
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="L32" s="7">
         <v>1</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" ref="M32:M95" si="28">84000000/K32/L32</f>
-        <v>12000</v>
+        <f t="shared" ref="M32:M84" si="28">84000000/K32/L32</f>
+        <v>11506.849315068494</v>
       </c>
       <c r="N32" s="7">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="24"/>
-        <v>7.0000000000000001E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="P32" s="30">
         <f t="shared" si="25"/>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="Q32" s="1">
         <f t="shared" ref="Q32:Q95" si="29">M32-M33</f>
-        <v>5538.4615384615381</v>
+        <v>5191.0598413842827</v>
       </c>
       <c r="R32" s="18">
         <f t="shared" ref="R32:R95" si="30">M32-M33</f>
-        <v>5538.4615384615381</v>
+        <v>5191.0598413842827</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -1566,22 +1566,22 @@
       </c>
       <c r="K33" s="29">
         <f t="shared" ref="K33:K96" si="33">K32+6000</f>
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="L33" s="7">
         <v>1</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" si="28"/>
-        <v>6461.5384615384619</v>
+        <v>6315.7894736842109</v>
       </c>
       <c r="N33" s="7">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="O33" s="19">
         <f t="shared" si="24"/>
-        <v>1.2999999999999999E-2</v>
+        <v>1.3300000000000001E-2</v>
       </c>
       <c r="P33" s="30">
         <f t="shared" si="25"/>
@@ -1589,11 +1589,11 @@
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="29"/>
-        <v>2040.4858299595144</v>
+        <v>1963.4578674665945</v>
       </c>
       <c r="R33" s="18">
         <f t="shared" si="30"/>
-        <v>2040.4858299595144</v>
+        <v>1963.4578674665945</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -1657,22 +1657,22 @@
       </c>
       <c r="K34" s="29">
         <f t="shared" si="33"/>
-        <v>19000</v>
+        <v>19300</v>
       </c>
       <c r="L34" s="7">
         <v>1</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="28"/>
-        <v>4421.0526315789475</v>
+        <v>4352.3316062176164</v>
       </c>
       <c r="N34" s="7">
         <f t="shared" si="23"/>
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="24"/>
-        <v>1.9E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="P34" s="30">
         <f t="shared" si="25"/>
@@ -1680,11 +1680,11 @@
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="29"/>
-        <v>1061.0526315789475</v>
+        <v>1032.1735034508179</v>
       </c>
       <c r="R34" s="18">
         <f t="shared" si="30"/>
-        <v>1061.0526315789475</v>
+        <v>1032.1735034508179</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -1754,22 +1754,22 @@
       </c>
       <c r="K35" s="29">
         <f t="shared" si="33"/>
-        <v>25000</v>
+        <v>25300</v>
       </c>
       <c r="L35" s="7">
         <v>1</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="28"/>
-        <v>3360</v>
+        <v>3320.1581027667985</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="23"/>
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="O35" s="19">
         <f t="shared" si="24"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="P35" s="30">
         <f t="shared" si="25"/>
@@ -1777,11 +1777,11 @@
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="29"/>
-        <v>650.32258064516145</v>
+        <v>636.45203247925838</v>
       </c>
       <c r="R35" s="18">
         <f t="shared" si="30"/>
-        <v>650.32258064516145</v>
+        <v>636.45203247925838</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -1852,22 +1852,22 @@
       </c>
       <c r="K36" s="29">
         <f t="shared" si="33"/>
-        <v>31000</v>
+        <v>31300</v>
       </c>
       <c r="L36" s="7">
         <v>1</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="28"/>
-        <v>2709.6774193548385</v>
+        <v>2683.7060702875401</v>
       </c>
       <c r="N36" s="7">
         <f t="shared" si="23"/>
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="O36" s="19">
         <f t="shared" si="24"/>
-        <v>3.1E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="P36" s="30">
         <f t="shared" si="25"/>
@@ -1875,11 +1875,11 @@
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="29"/>
-        <v>439.40714908456812</v>
+        <v>431.69534642695044</v>
       </c>
       <c r="R36" s="18">
         <f t="shared" si="30"/>
-        <v>439.40714908456812</v>
+        <v>431.69534642695044</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -1950,22 +1950,22 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="33"/>
-        <v>37000</v>
+        <v>37300</v>
       </c>
       <c r="L37" s="7">
         <v>1</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" si="28"/>
-        <v>2270.2702702702704</v>
+        <v>2252.0107238605897</v>
       </c>
       <c r="N37" s="7">
         <f t="shared" si="23"/>
-        <v>37</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" si="24"/>
-        <v>3.6999999999999998E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="P37" s="30">
         <f t="shared" si="25"/>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="29"/>
-        <v>316.78189817724729</v>
+        <v>312.05691323703309</v>
       </c>
       <c r="R37" s="18">
         <f t="shared" si="30"/>
-        <v>316.78189817724729</v>
+        <v>312.05691323703309</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2048,22 +2048,22 @@
       </c>
       <c r="K38" s="29">
         <f t="shared" si="33"/>
-        <v>43000</v>
+        <v>43300</v>
       </c>
       <c r="L38" s="7">
         <v>1</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" si="28"/>
-        <v>1953.4883720930231</v>
+        <v>1939.9538106235566</v>
       </c>
       <c r="N38" s="7">
         <f t="shared" si="23"/>
-        <v>43</v>
+        <v>43.3</v>
       </c>
       <c r="O38" s="19">
         <f t="shared" si="24"/>
-        <v>4.2999999999999997E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="P38" s="30">
         <f t="shared" si="25"/>
@@ -2071,11 +2071,11 @@
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="29"/>
-        <v>239.20265780730892</v>
+        <v>236.09985524830313</v>
       </c>
       <c r="R38" s="18">
         <f t="shared" si="30"/>
-        <v>239.20265780730892</v>
+        <v>236.09985524830313</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -2146,22 +2146,22 @@
       </c>
       <c r="K39" s="29">
         <f t="shared" si="33"/>
-        <v>49000</v>
+        <v>49300</v>
       </c>
       <c r="L39" s="7">
         <v>1</v>
       </c>
       <c r="M39" s="8">
         <f t="shared" si="28"/>
-        <v>1714.2857142857142</v>
+        <v>1703.8539553752535</v>
       </c>
       <c r="N39" s="7">
         <f t="shared" si="23"/>
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="O39" s="19">
         <f t="shared" si="24"/>
-        <v>4.9000000000000002E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="P39" s="30">
         <f t="shared" si="25"/>
@@ -2169,11 +2169,11 @@
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="29"/>
-        <v>187.01298701298697</v>
+        <v>184.86661360310154</v>
       </c>
       <c r="R39" s="18">
         <f t="shared" si="30"/>
-        <v>187.01298701298697</v>
+        <v>184.86661360310154</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -2244,22 +2244,22 @@
       </c>
       <c r="K40" s="29">
         <f t="shared" si="33"/>
-        <v>55000</v>
+        <v>55300</v>
       </c>
       <c r="L40" s="7">
         <v>1</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" si="28"/>
-        <v>1527.2727272727273</v>
+        <v>1518.9873417721519</v>
       </c>
       <c r="N40" s="7">
         <f t="shared" si="23"/>
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" si="24"/>
-        <v>5.5E-2</v>
+        <v>5.5299999999999995E-2</v>
       </c>
       <c r="P40" s="30">
         <f t="shared" si="25"/>
@@ -2267,11 +2267,11 @@
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="29"/>
-        <v>150.2235469448583</v>
+        <v>148.67739071179312</v>
       </c>
       <c r="R40" s="18">
         <f t="shared" si="30"/>
-        <v>150.2235469448583</v>
+        <v>148.67739071179312</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -2342,22 +2342,22 @@
       </c>
       <c r="K41" s="29">
         <f t="shared" si="33"/>
-        <v>61000</v>
+        <v>61300</v>
       </c>
       <c r="L41" s="7">
         <v>1</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="28"/>
-        <v>1377.049180327869</v>
+        <v>1370.3099510603588</v>
       </c>
       <c r="N41" s="7">
         <f t="shared" si="23"/>
-        <v>61</v>
+        <v>61.3</v>
       </c>
       <c r="O41" s="19">
         <f t="shared" si="24"/>
-        <v>6.0999999999999999E-2</v>
+        <v>6.13E-2</v>
       </c>
       <c r="P41" s="30">
         <f t="shared" si="25"/>
@@ -2365,11 +2365,11 @@
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="29"/>
-        <v>123.31783704428676</v>
+        <v>122.16730618665883</v>
       </c>
       <c r="R41" s="18">
         <f t="shared" si="30"/>
-        <v>123.31783704428676</v>
+        <v>122.16730618665883</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -2440,22 +2440,22 @@
       </c>
       <c r="K42" s="29">
         <f t="shared" si="33"/>
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="L42" s="7">
         <v>1</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" si="28"/>
-        <v>1253.7313432835822</v>
+        <v>1248.1426448737</v>
       </c>
       <c r="N42" s="7">
         <f t="shared" si="23"/>
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="O42" s="19">
         <f t="shared" si="24"/>
-        <v>6.7000000000000004E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="P42" s="30">
         <f t="shared" si="25"/>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="29"/>
-        <v>103.04641177673284</v>
+        <v>102.16720149034381</v>
       </c>
       <c r="R42" s="18">
         <f t="shared" si="30"/>
-        <v>103.04641177673284</v>
+        <v>102.16720149034381</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -2538,22 +2538,22 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="33"/>
-        <v>73000</v>
+        <v>73300</v>
       </c>
       <c r="L43" s="7">
         <v>1</v>
       </c>
       <c r="M43" s="8">
         <f t="shared" si="28"/>
-        <v>1150.6849315068494</v>
+        <v>1145.9754433833562</v>
       </c>
       <c r="N43" s="7">
         <f t="shared" si="23"/>
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="O43" s="19">
         <f t="shared" si="24"/>
-        <v>7.2999999999999995E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="P43" s="30">
         <f t="shared" si="25"/>
@@ -2561,11 +2561,11 @@
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="29"/>
-        <v>87.393792266343098</v>
+        <v>86.706843131149299</v>
       </c>
       <c r="R43" s="18">
         <f t="shared" si="30"/>
-        <v>87.393792266343098</v>
+        <v>86.706843131149299</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -2636,22 +2636,22 @@
       </c>
       <c r="K44" s="29">
         <f t="shared" si="33"/>
-        <v>79000</v>
+        <v>79300</v>
       </c>
       <c r="L44" s="7">
         <v>1</v>
       </c>
       <c r="M44" s="8">
         <f t="shared" si="28"/>
-        <v>1063.2911392405063</v>
+        <v>1059.2686002522069</v>
       </c>
       <c r="N44" s="7">
         <f t="shared" si="23"/>
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="O44" s="19">
         <f t="shared" si="24"/>
-        <v>7.9000000000000001E-2</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="P44" s="30">
         <f t="shared" si="25"/>
@@ -2659,11 +2659,11 @@
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="29"/>
-        <v>75.055845122859182</v>
+        <v>74.508928505430731</v>
       </c>
       <c r="R44" s="18">
         <f t="shared" si="30"/>
-        <v>75.055845122859182</v>
+        <v>74.508928505430731</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -2734,22 +2734,22 @@
       </c>
       <c r="K45" s="29">
         <f t="shared" si="33"/>
-        <v>85000</v>
+        <v>85300</v>
       </c>
       <c r="L45" s="7">
         <v>1</v>
       </c>
       <c r="M45" s="8">
         <f t="shared" si="28"/>
-        <v>988.23529411764707</v>
+        <v>984.75967174677612</v>
       </c>
       <c r="N45" s="7">
         <f t="shared" si="23"/>
-        <v>85</v>
+        <v>85.3</v>
       </c>
       <c r="O45" s="19">
         <f t="shared" si="24"/>
-        <v>8.5000000000000006E-2</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="P45" s="30">
         <f t="shared" si="25"/>
@@ -2757,11 +2757,11 @@
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="29"/>
-        <v>65.158371040723978</v>
+        <v>64.715860136699462</v>
       </c>
       <c r="R45" s="18">
         <f t="shared" si="30"/>
-        <v>65.158371040723978</v>
+        <v>64.715860136699462</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -2832,22 +2832,22 @@
       </c>
       <c r="K46" s="29">
         <f t="shared" si="33"/>
-        <v>91000</v>
+        <v>91300</v>
       </c>
       <c r="L46" s="7">
         <v>1</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" si="28"/>
-        <v>923.07692307692309</v>
+        <v>920.04381161007666</v>
       </c>
       <c r="N46" s="7">
         <f t="shared" si="23"/>
-        <v>91</v>
+        <v>91.3</v>
       </c>
       <c r="O46" s="19">
         <f t="shared" si="24"/>
-        <v>9.0999999999999998E-2</v>
+        <v>9.1299999999999992E-2</v>
       </c>
       <c r="P46" s="30">
         <f t="shared" si="25"/>
@@ -2855,11 +2855,11 @@
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="29"/>
-        <v>57.097541633624132</v>
+        <v>56.734459092091015</v>
       </c>
       <c r="R46" s="18">
         <f t="shared" si="30"/>
-        <v>57.097541633624132</v>
+        <v>56.734459092091015</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -2930,22 +2930,22 @@
       </c>
       <c r="K47" s="29">
         <f t="shared" si="33"/>
-        <v>97000</v>
+        <v>97300</v>
       </c>
       <c r="L47" s="7">
         <v>1</v>
       </c>
       <c r="M47" s="8">
         <f t="shared" si="28"/>
-        <v>865.97938144329896</v>
+        <v>863.30935251798564</v>
       </c>
       <c r="N47" s="7">
         <f t="shared" si="23"/>
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="O47" s="19">
         <f t="shared" si="24"/>
-        <v>9.7000000000000003E-2</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="P47" s="30">
         <f t="shared" si="25"/>
@@ -2953,11 +2953,11 @@
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="29"/>
-        <v>50.445400860774726</v>
+        <v>50.143815247898488</v>
       </c>
       <c r="R47" s="18">
         <f t="shared" si="30"/>
-        <v>50.445400860774726</v>
+        <v>50.143815247898488</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -3028,22 +3028,22 @@
       </c>
       <c r="K48" s="29">
         <f t="shared" si="33"/>
-        <v>103000</v>
+        <v>103300</v>
       </c>
       <c r="L48" s="7">
         <v>1</v>
       </c>
       <c r="M48" s="8">
         <f t="shared" si="28"/>
-        <v>815.53398058252424</v>
+        <v>813.16553727008716</v>
       </c>
       <c r="N48" s="7">
         <f t="shared" si="23"/>
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="O48" s="19">
         <f t="shared" si="24"/>
-        <v>0.10299999999999999</v>
+        <v>0.1033</v>
       </c>
       <c r="P48" s="30">
         <f t="shared" si="25"/>
@@ -3051,11 +3051,11 @@
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="29"/>
-        <v>44.891778747661874</v>
+        <v>44.63854733413109</v>
       </c>
       <c r="R48" s="18">
         <f t="shared" si="30"/>
-        <v>44.891778747661874</v>
+        <v>44.63854733413109</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -3126,22 +3126,22 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="33"/>
-        <v>109000</v>
+        <v>109300</v>
       </c>
       <c r="L49" s="7">
         <v>1</v>
       </c>
       <c r="M49" s="8">
         <f t="shared" si="28"/>
-        <v>770.64220183486236</v>
+        <v>768.52698993595607</v>
       </c>
       <c r="N49" s="7">
         <f t="shared" si="23"/>
-        <v>109</v>
+        <v>109.3</v>
       </c>
       <c r="O49" s="19">
         <f t="shared" si="24"/>
-        <v>0.109</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="P49" s="30">
         <f t="shared" si="25"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="29"/>
-        <v>40.207419226166735</v>
+        <v>39.992731479754866</v>
       </c>
       <c r="R49" s="18">
         <f t="shared" si="30"/>
-        <v>40.207419226166735</v>
+        <v>39.992731479754866</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -3224,22 +3224,22 @@
       </c>
       <c r="K50" s="29">
         <f t="shared" si="33"/>
-        <v>115000</v>
+        <v>115300</v>
       </c>
       <c r="L50" s="7">
         <v>1</v>
       </c>
       <c r="M50" s="8">
         <f t="shared" si="28"/>
-        <v>730.43478260869563</v>
+        <v>728.5342584562012</v>
       </c>
       <c r="N50" s="7">
         <f t="shared" si="23"/>
-        <v>115</v>
+        <v>115.3</v>
       </c>
       <c r="O50" s="19">
         <f t="shared" si="24"/>
-        <v>0.115</v>
+        <v>0.1153</v>
       </c>
       <c r="P50" s="30">
         <f t="shared" si="25"/>
@@ -3247,11 +3247,11 @@
       </c>
       <c r="Q50" s="1">
         <f t="shared" si="29"/>
-        <v>36.219906575637765</v>
+        <v>36.036319461971971</v>
       </c>
       <c r="R50" s="18">
         <f t="shared" si="30"/>
-        <v>36.219906575637765</v>
+        <v>36.036319461971971</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -3322,22 +3322,22 @@
       </c>
       <c r="K51" s="29">
         <f t="shared" si="33"/>
-        <v>121000</v>
+        <v>121300</v>
       </c>
       <c r="L51" s="7">
         <v>1</v>
       </c>
       <c r="M51" s="8">
         <f t="shared" si="28"/>
-        <v>694.21487603305786</v>
+        <v>692.49793899422923</v>
       </c>
       <c r="N51" s="7">
         <f t="shared" si="23"/>
-        <v>121</v>
+        <v>121.3</v>
       </c>
       <c r="O51" s="19">
         <f t="shared" si="24"/>
-        <v>0.121</v>
+        <v>0.12129999999999999</v>
       </c>
       <c r="P51" s="30">
         <f t="shared" si="25"/>
@@ -3345,11 +3345,11 @@
       </c>
       <c r="Q51" s="1">
         <f t="shared" si="29"/>
-        <v>32.797553198412174</v>
+        <v>32.639337266028178</v>
       </c>
       <c r="R51" s="18">
         <f t="shared" si="30"/>
-        <v>32.797553198412174</v>
+        <v>32.639337266028178</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -3420,22 +3420,22 @@
       </c>
       <c r="K52" s="29">
         <f t="shared" si="33"/>
-        <v>127000</v>
+        <v>127300</v>
       </c>
       <c r="L52" s="7">
         <v>1</v>
       </c>
       <c r="M52" s="8">
         <f t="shared" si="28"/>
-        <v>661.41732283464569</v>
+        <v>659.85860172820105</v>
       </c>
       <c r="N52" s="7">
         <f t="shared" si="23"/>
-        <v>127</v>
+        <v>127.3</v>
       </c>
       <c r="O52" s="19">
         <f t="shared" si="24"/>
-        <v>0.127</v>
+        <v>0.1273</v>
       </c>
       <c r="P52" s="30">
         <f t="shared" si="25"/>
@@ -3443,11 +3443,11 @@
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="29"/>
-        <v>29.838375466224647</v>
+        <v>29.701062343354806</v>
       </c>
       <c r="R52" s="18">
         <f t="shared" si="30"/>
-        <v>29.838375466224647</v>
+        <v>29.701062343354806</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -3518,22 +3518,22 @@
       </c>
       <c r="K53" s="29">
         <f t="shared" si="33"/>
-        <v>133000</v>
+        <v>133300</v>
       </c>
       <c r="L53" s="7">
         <v>1</v>
       </c>
       <c r="M53" s="8">
         <f t="shared" si="28"/>
-        <v>631.57894736842104</v>
+        <v>630.15753938484625</v>
       </c>
       <c r="N53" s="7">
         <f t="shared" si="23"/>
-        <v>133</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="O53" s="19">
         <f t="shared" si="24"/>
-        <v>0.13300000000000001</v>
+        <v>0.1333</v>
       </c>
       <c r="P53" s="30">
         <f t="shared" si="25"/>
@@ -3541,11 +3541,11 @@
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="29"/>
-        <v>27.26240060583109</v>
+        <v>27.142464007961848</v>
       </c>
       <c r="R53" s="18">
         <f t="shared" si="30"/>
-        <v>27.26240060583109</v>
+        <v>27.142464007961848</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -3616,22 +3616,22 @@
       </c>
       <c r="K54" s="29">
         <f t="shared" si="33"/>
-        <v>139000</v>
+        <v>139300</v>
       </c>
       <c r="L54" s="7">
         <v>1</v>
       </c>
       <c r="M54" s="8">
         <f t="shared" si="28"/>
-        <v>604.31654676258995</v>
+        <v>603.0150753768844</v>
       </c>
       <c r="N54" s="7">
         <f t="shared" si="23"/>
-        <v>139</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="O54" s="19">
         <f t="shared" si="24"/>
-        <v>0.13900000000000001</v>
+        <v>0.13930000000000001</v>
       </c>
       <c r="P54" s="30">
         <f t="shared" si="25"/>
@@ -3639,11 +3639,11 @@
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="29"/>
-        <v>25.006201935003787</v>
+        <v>24.900828990098489</v>
       </c>
       <c r="R54" s="18">
         <f t="shared" si="30"/>
-        <v>25.006201935003787</v>
+        <v>24.900828990098489</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -3714,22 +3714,22 @@
       </c>
       <c r="K55" s="29">
         <f t="shared" si="33"/>
-        <v>145000</v>
+        <v>145300</v>
       </c>
       <c r="L55" s="7">
         <v>1</v>
       </c>
       <c r="M55" s="8">
         <f t="shared" si="28"/>
-        <v>579.31034482758616</v>
+        <v>578.11424638678591</v>
       </c>
       <c r="N55" s="7">
         <f t="shared" si="23"/>
-        <v>145</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="O55" s="19">
         <f t="shared" si="24"/>
-        <v>0.14499999999999999</v>
+        <v>0.14530000000000001</v>
       </c>
       <c r="P55" s="30">
         <f t="shared" si="25"/>
@@ -3737,11 +3737,11 @@
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="29"/>
-        <v>23.018954099109351</v>
+        <v>22.925878904961678</v>
       </c>
       <c r="R55" s="18">
         <f t="shared" si="30"/>
-        <v>23.018954099109351</v>
+        <v>22.925878904961678</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -3812,22 +3812,22 @@
       </c>
       <c r="K56" s="29">
         <f t="shared" si="33"/>
-        <v>151000</v>
+        <v>151300</v>
       </c>
       <c r="L56" s="7">
         <v>1</v>
       </c>
       <c r="M56" s="8">
         <f>84000000/K56/L56</f>
-        <v>556.29139072847681</v>
+        <v>555.18836748182423</v>
       </c>
       <c r="N56" s="7">
         <f t="shared" si="23"/>
-        <v>151</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="O56" s="19">
         <f t="shared" si="24"/>
-        <v>0.151</v>
+        <v>0.15130000000000002</v>
       </c>
       <c r="P56" s="30">
         <f t="shared" si="25"/>
@@ -3835,11 +3835,11 @@
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="29"/>
-        <v>21.259543594718821</v>
+        <v>21.176924379471984</v>
       </c>
       <c r="R56" s="18">
         <f t="shared" si="30"/>
-        <v>21.259543594718821</v>
+        <v>21.176924379471984</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -3910,22 +3910,22 @@
       </c>
       <c r="K57" s="29">
         <f t="shared" si="33"/>
-        <v>157000</v>
+        <v>157300</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
       </c>
       <c r="M57" s="8">
         <f t="shared" si="28"/>
-        <v>535.03184713375799</v>
+        <v>534.01144310235225</v>
       </c>
       <c r="N57" s="7">
         <f t="shared" si="23"/>
-        <v>157</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="O57" s="19">
         <f t="shared" si="24"/>
-        <v>0.157</v>
+        <v>0.15730000000000002</v>
       </c>
       <c r="P57" s="30">
         <f t="shared" si="25"/>
@@ -3933,11 +3933,11 @@
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="29"/>
-        <v>19.69442382087459</v>
+        <v>19.620751124397543</v>
       </c>
       <c r="R57" s="18">
         <f t="shared" si="30"/>
-        <v>19.69442382087459</v>
+        <v>19.620751124397543</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -4008,22 +4008,22 @@
       </c>
       <c r="K58" s="29">
         <f t="shared" si="33"/>
-        <v>163000</v>
+        <v>163300</v>
       </c>
       <c r="L58" s="7">
         <v>1</v>
       </c>
       <c r="M58" s="8">
         <f t="shared" si="28"/>
-        <v>515.3374233128834</v>
+        <v>514.3906919779547</v>
       </c>
       <c r="N58" s="7">
         <f t="shared" si="23"/>
-        <v>163</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="O58" s="19">
         <f t="shared" si="24"/>
-        <v>0.16300000000000001</v>
+        <v>0.1633</v>
       </c>
       <c r="P58" s="30">
         <f t="shared" si="25"/>
@@ -4031,11 +4031,11 @@
       </c>
       <c r="Q58" s="1">
         <f t="shared" si="29"/>
-        <v>18.296003194540219</v>
+        <v>18.230030430405975</v>
       </c>
       <c r="R58" s="18">
         <f t="shared" si="30"/>
-        <v>18.296003194540219</v>
+        <v>18.230030430405975</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -4106,22 +4106,22 @@
       </c>
       <c r="K59" s="29">
         <f t="shared" si="33"/>
-        <v>169000</v>
+        <v>169300</v>
       </c>
       <c r="L59" s="7">
         <v>1</v>
       </c>
       <c r="M59" s="8">
         <f t="shared" si="28"/>
-        <v>497.04142011834318</v>
+        <v>496.16066154754873</v>
       </c>
       <c r="N59" s="7">
         <f t="shared" si="23"/>
-        <v>169</v>
+        <v>169.3</v>
       </c>
       <c r="O59" s="19">
         <f t="shared" si="24"/>
-        <v>0.16900000000000001</v>
+        <v>0.16930000000000001</v>
       </c>
       <c r="P59" s="30">
         <f t="shared" si="25"/>
@@ -4129,11 +4129,11 @@
       </c>
       <c r="Q59" s="1">
         <f>M59-M60</f>
-        <v>17.041420118343183</v>
+        <v>16.982110492214986</v>
       </c>
       <c r="R59" s="18">
         <f t="shared" si="30"/>
-        <v>17.041420118343183</v>
+        <v>16.982110492214986</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -4204,22 +4204,22 @@
       </c>
       <c r="K60" s="29">
         <f t="shared" si="33"/>
-        <v>175000</v>
+        <v>175300</v>
       </c>
       <c r="L60" s="7">
         <v>1</v>
       </c>
       <c r="M60" s="8">
         <f t="shared" si="28"/>
-        <v>480</v>
+        <v>479.17855105533374</v>
       </c>
       <c r="N60" s="7">
         <f t="shared" si="23"/>
-        <v>175</v>
+        <v>175.3</v>
       </c>
       <c r="O60" s="19">
         <f t="shared" si="24"/>
-        <v>0.17499999999999999</v>
+        <v>0.17530000000000001</v>
       </c>
       <c r="P60" s="30">
         <f t="shared" si="25"/>
@@ -4227,11 +4227,11 @@
       </c>
       <c r="Q60" s="1">
         <f t="shared" si="29"/>
-        <v>15.91160220994476</v>
+        <v>15.858087734870423</v>
       </c>
       <c r="R60" s="18">
         <f t="shared" si="30"/>
-        <v>15.91160220994476</v>
+        <v>15.858087734870423</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -4299,22 +4299,22 @@
       </c>
       <c r="K61" s="29">
         <f t="shared" si="33"/>
-        <v>181000</v>
+        <v>181300</v>
       </c>
       <c r="L61" s="7">
         <v>1</v>
       </c>
       <c r="M61" s="8">
         <f t="shared" si="28"/>
-        <v>464.08839779005524</v>
+        <v>463.32046332046332</v>
       </c>
       <c r="N61" s="7">
         <f t="shared" si="23"/>
-        <v>181</v>
+        <v>181.3</v>
       </c>
       <c r="O61" s="19">
         <f t="shared" si="24"/>
-        <v>0.18099999999999999</v>
+        <v>0.18130000000000002</v>
       </c>
       <c r="P61" s="30">
         <f t="shared" si="25"/>
@@ -4322,11 +4322,11 @@
       </c>
       <c r="Q61" s="1">
         <f t="shared" si="29"/>
-        <v>14.890536827488404</v>
+        <v>14.842086385065556</v>
       </c>
       <c r="R61" s="18">
         <f t="shared" si="30"/>
-        <v>14.890536827488404</v>
+        <v>14.842086385065556</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -4394,22 +4394,22 @@
       </c>
       <c r="K62" s="29">
         <f t="shared" si="33"/>
-        <v>187000</v>
+        <v>187300</v>
       </c>
       <c r="L62" s="7">
         <v>1</v>
       </c>
       <c r="M62" s="8">
         <f t="shared" si="28"/>
-        <v>449.19786096256684</v>
+        <v>448.47837693539776</v>
       </c>
       <c r="N62" s="7">
         <f t="shared" si="23"/>
-        <v>187</v>
+        <v>187.3</v>
       </c>
       <c r="O62" s="19">
         <f t="shared" si="24"/>
-        <v>0.187</v>
+        <v>0.18730000000000002</v>
       </c>
       <c r="P62" s="30">
         <f t="shared" si="25"/>
@@ -4417,11 +4417,11 @@
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="29"/>
-        <v>13.964700340805166</v>
+        <v>13.920694576370352</v>
       </c>
       <c r="R62" s="18">
         <f t="shared" si="30"/>
-        <v>13.964700340805166</v>
+        <v>13.920694576370352</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -4489,22 +4489,22 @@
       </c>
       <c r="K63" s="29">
         <f t="shared" si="33"/>
-        <v>193000</v>
+        <v>193300</v>
       </c>
       <c r="L63" s="7">
         <v>1</v>
       </c>
       <c r="M63" s="8">
         <f t="shared" si="28"/>
-        <v>435.23316062176167</v>
+        <v>434.55768235902741</v>
       </c>
       <c r="N63" s="7">
         <f t="shared" si="23"/>
-        <v>193</v>
+        <v>193.3</v>
       </c>
       <c r="O63" s="19">
         <f t="shared" si="24"/>
-        <v>0.193</v>
+        <v>0.1933</v>
       </c>
       <c r="P63" s="30">
         <f t="shared" si="25"/>
@@ -4512,11 +4512,11 @@
       </c>
       <c r="Q63" s="1">
         <f t="shared" si="29"/>
-        <v>13.122607857942569</v>
+        <v>13.082519288279798</v>
       </c>
       <c r="R63" s="18">
         <f t="shared" si="30"/>
-        <v>13.122607857942569</v>
+        <v>13.082519288279798</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -4581,22 +4581,22 @@
       </c>
       <c r="K64" s="29">
         <f t="shared" si="33"/>
-        <v>199000</v>
+        <v>199300</v>
       </c>
       <c r="L64" s="7">
         <v>1</v>
       </c>
       <c r="M64" s="8">
         <f t="shared" si="28"/>
-        <v>422.1105527638191</v>
+        <v>421.47516307074761</v>
       </c>
       <c r="N64" s="7">
         <f t="shared" si="23"/>
-        <v>199</v>
+        <v>199.3</v>
       </c>
       <c r="O64" s="19">
         <f t="shared" si="24"/>
-        <v>0.19900000000000001</v>
+        <v>0.1993</v>
       </c>
       <c r="P64" s="30">
         <f t="shared" si="25"/>
@@ -4604,11 +4604,11 @@
       </c>
       <c r="Q64" s="1">
         <f t="shared" si="29"/>
-        <v>12.354455202843496</v>
+        <v>12.31783233523862</v>
       </c>
       <c r="R64" s="18">
         <f t="shared" si="30"/>
-        <v>12.354455202843496</v>
+        <v>12.31783233523862</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -4670,22 +4670,22 @@
       </c>
       <c r="K65" s="29">
         <f t="shared" si="33"/>
-        <v>205000</v>
+        <v>205300</v>
       </c>
       <c r="L65" s="7">
         <v>1</v>
       </c>
       <c r="M65" s="8">
         <f t="shared" si="28"/>
-        <v>409.7560975609756</v>
+        <v>409.15733073550899</v>
       </c>
       <c r="N65" s="7">
         <f t="shared" si="23"/>
-        <v>205</v>
+        <v>205.3</v>
       </c>
       <c r="O65" s="19">
         <f t="shared" si="24"/>
-        <v>0.20499999999999999</v>
+        <v>0.20530000000000001</v>
       </c>
       <c r="P65" s="30">
         <f t="shared" si="25"/>
@@ -4693,11 +4693,11 @@
       </c>
       <c r="Q65" s="1">
         <f t="shared" si="29"/>
-        <v>11.651832158131981</v>
+        <v>11.618286722257665</v>
       </c>
       <c r="R65" s="18">
         <f t="shared" si="30"/>
-        <v>11.651832158131981</v>
+        <v>11.618286722257665</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -4759,22 +4759,22 @@
       </c>
       <c r="K66" s="29">
         <f t="shared" si="33"/>
-        <v>211000</v>
+        <v>211300</v>
       </c>
       <c r="L66" s="7">
         <v>1</v>
       </c>
       <c r="M66" s="8">
         <f t="shared" si="28"/>
-        <v>398.10426540284362</v>
+        <v>397.53904401325133</v>
       </c>
       <c r="N66" s="7">
         <f t="shared" si="23"/>
-        <v>211</v>
+        <v>211.3</v>
       </c>
       <c r="O66" s="19">
         <f t="shared" si="24"/>
-        <v>0.21099999999999999</v>
+        <v>0.21130000000000002</v>
       </c>
       <c r="P66" s="30">
         <f t="shared" si="25"/>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="Q66" s="1">
         <f t="shared" si="29"/>
-        <v>11.00749120929521</v>
+        <v>10.976687823651673</v>
       </c>
       <c r="R66" s="18">
         <f t="shared" si="30"/>
-        <v>11.00749120929521</v>
+        <v>10.976687823651673</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -4848,22 +4848,22 @@
       </c>
       <c r="K67" s="29">
         <f t="shared" si="33"/>
-        <v>217000</v>
+        <v>217300</v>
       </c>
       <c r="L67" s="7">
         <v>1</v>
       </c>
       <c r="M67" s="8">
         <f t="shared" si="28"/>
-        <v>387.09677419354841</v>
+        <v>386.56235618959965</v>
       </c>
       <c r="N67" s="7">
         <f t="shared" si="23"/>
-        <v>217</v>
+        <v>217.3</v>
       </c>
       <c r="O67" s="19">
         <f t="shared" si="24"/>
-        <v>0.217</v>
+        <v>0.21730000000000002</v>
       </c>
       <c r="P67" s="30">
         <f t="shared" si="25"/>
@@ -4871,11 +4871,11 @@
       </c>
       <c r="Q67" s="1">
         <f t="shared" si="29"/>
-        <v>10.415159843772642</v>
+        <v>10.386807600257953</v>
       </c>
       <c r="R67" s="18">
         <f t="shared" si="30"/>
-        <v>10.415159843772642</v>
+        <v>10.386807600257953</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -4937,22 +4937,22 @@
       </c>
       <c r="K68" s="29">
         <f t="shared" si="33"/>
-        <v>223000</v>
+        <v>223300</v>
       </c>
       <c r="L68" s="7">
         <v>1</v>
       </c>
       <c r="M68" s="8">
         <f t="shared" si="28"/>
-        <v>376.68161434977577</v>
+        <v>376.1755485893417</v>
       </c>
       <c r="N68" s="7">
         <f t="shared" si="23"/>
-        <v>223</v>
+        <v>223.3</v>
       </c>
       <c r="O68" s="19">
         <f t="shared" si="24"/>
-        <v>0.223</v>
+        <v>0.2233</v>
       </c>
       <c r="P68" s="30">
         <f t="shared" si="25"/>
@@ -4960,11 +4960,11 @@
       </c>
       <c r="Q68" s="20">
         <f t="shared" si="29"/>
-        <v>9.8693872755399639</v>
+        <v>9.8432328457743097</v>
       </c>
       <c r="R68" s="18">
         <f t="shared" si="30"/>
-        <v>9.8693872755399639</v>
+        <v>9.8432328457743097</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -5026,22 +5026,22 @@
       </c>
       <c r="K69" s="29">
         <f t="shared" si="33"/>
-        <v>229000</v>
+        <v>229300</v>
       </c>
       <c r="L69" s="7">
         <v>1</v>
       </c>
       <c r="M69" s="8">
         <f t="shared" si="28"/>
-        <v>366.81222707423581</v>
+        <v>366.33231574356739</v>
       </c>
       <c r="N69" s="7">
         <f t="shared" si="23"/>
-        <v>229</v>
+        <v>229.3</v>
       </c>
       <c r="O69" s="19">
         <f t="shared" si="24"/>
-        <v>0.22900000000000001</v>
+        <v>0.2293</v>
       </c>
       <c r="P69" s="30">
         <f t="shared" si="25"/>
@@ -5049,11 +5049,11 @@
       </c>
       <c r="Q69" s="1">
         <f t="shared" si="29"/>
-        <v>9.3654185635975296</v>
+        <v>9.3412405204479683</v>
       </c>
       <c r="R69" s="18">
         <f t="shared" si="30"/>
-        <v>9.3654185635975296</v>
+        <v>9.3412405204479683</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -5115,22 +5115,22 @@
       </c>
       <c r="K70" s="29">
         <f t="shared" si="33"/>
-        <v>235000</v>
+        <v>235300</v>
       </c>
       <c r="L70" s="7">
         <v>1</v>
       </c>
       <c r="M70" s="8">
         <f t="shared" si="28"/>
-        <v>357.44680851063828</v>
+        <v>356.99107522311942</v>
       </c>
       <c r="N70" s="7">
         <f t="shared" si="23"/>
-        <v>235</v>
+        <v>235.3</v>
       </c>
       <c r="O70" s="19">
         <f t="shared" si="24"/>
-        <v>0.23499999999999999</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="P70" s="30">
         <f t="shared" si="25"/>
@@ -5138,11 +5138,11 @@
       </c>
       <c r="Q70" s="24">
         <f>M70-M71</f>
-        <v>8.8990906683146136</v>
+        <v>8.8766947838322494</v>
       </c>
       <c r="R70" s="18">
         <f t="shared" si="30"/>
-        <v>8.8990906683146136</v>
+        <v>8.8766947838322494</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -5204,22 +5204,22 @@
       </c>
       <c r="K71" s="29">
         <f t="shared" si="33"/>
-        <v>241000</v>
+        <v>241300</v>
       </c>
       <c r="L71" s="7">
         <v>1</v>
       </c>
       <c r="M71" s="8">
         <f t="shared" si="28"/>
-        <v>348.54771784232366</v>
+        <v>348.11438043928717</v>
       </c>
       <c r="N71" s="7">
         <f t="shared" si="23"/>
-        <v>241</v>
+        <v>241.3</v>
       </c>
       <c r="O71" s="19">
         <f t="shared" si="24"/>
-        <v>0.24099999999999999</v>
+        <v>0.24130000000000001</v>
       </c>
       <c r="P71" s="30">
         <f t="shared" si="25"/>
@@ -5227,11 +5227,11 @@
       </c>
       <c r="Q71" s="1">
         <f>M71-M72</f>
-        <v>8.46674618240462</v>
+        <v>8.4459615149038427</v>
       </c>
       <c r="R71" s="18">
         <f t="shared" si="30"/>
-        <v>8.46674618240462</v>
+        <v>8.4459615149038427</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -5293,22 +5293,22 @@
       </c>
       <c r="K72" s="29">
         <f t="shared" si="33"/>
-        <v>247000</v>
+        <v>247300</v>
       </c>
       <c r="L72" s="7">
         <v>1</v>
       </c>
       <c r="M72" s="8">
         <f t="shared" si="28"/>
-        <v>340.08097165991904</v>
+        <v>339.66841892438333</v>
       </c>
       <c r="N72" s="7">
         <f t="shared" si="23"/>
-        <v>247</v>
+        <v>247.3</v>
       </c>
       <c r="O72" s="19">
         <f t="shared" si="24"/>
-        <v>0.247</v>
+        <v>0.24730000000000002</v>
       </c>
       <c r="P72" s="30">
         <f t="shared" si="25"/>
@@ -5316,11 +5316,11 @@
       </c>
       <c r="Q72" s="1">
         <f t="shared" si="29"/>
-        <v>8.0651613832392286</v>
+        <v>8.0458370057098136</v>
       </c>
       <c r="R72" s="18">
         <f t="shared" si="30"/>
-        <v>8.0651613832392286</v>
+        <v>8.0458370057098136</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -5382,22 +5382,22 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="33"/>
-        <v>253000</v>
+        <v>253300</v>
       </c>
       <c r="L73" s="7">
         <v>1</v>
       </c>
       <c r="M73" s="8">
         <f t="shared" si="28"/>
-        <v>332.01581027667982</v>
+        <v>331.62258191867352</v>
       </c>
       <c r="N73" s="7">
         <f t="shared" si="23"/>
-        <v>253</v>
+        <v>253.3</v>
       </c>
       <c r="O73" s="19">
         <f t="shared" si="24"/>
-        <v>0.253</v>
+        <v>0.25330000000000003</v>
       </c>
       <c r="P73" s="30">
         <f t="shared" si="25"/>
@@ -5405,11 +5405,11 @@
       </c>
       <c r="Q73" s="1">
         <f t="shared" si="29"/>
-        <v>7.6914859523554924</v>
+        <v>7.6734882048285726</v>
       </c>
       <c r="R73" s="18">
         <f t="shared" si="30"/>
-        <v>7.6914859523554924</v>
+        <v>7.6734882048285726</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -5471,22 +5471,22 @@
       </c>
       <c r="K74" s="29">
         <f t="shared" si="33"/>
-        <v>259000</v>
+        <v>259300</v>
       </c>
       <c r="L74" s="7">
         <v>1</v>
       </c>
       <c r="M74" s="8">
         <f t="shared" si="28"/>
-        <v>324.32432432432432</v>
+        <v>323.94909371384495</v>
       </c>
       <c r="N74" s="7">
         <f t="shared" si="23"/>
-        <v>259</v>
+        <v>259.3</v>
       </c>
       <c r="O74" s="19">
         <f t="shared" si="24"/>
-        <v>0.25900000000000001</v>
+        <v>0.25930000000000003</v>
       </c>
       <c r="P74" s="30">
         <f t="shared" si="25"/>
@@ -5494,11 +5494,11 @@
       </c>
       <c r="Q74" s="1">
         <f>M74-M75</f>
-        <v>7.3431922488526311</v>
+        <v>7.3264024209689751</v>
       </c>
       <c r="R74" s="18">
         <f t="shared" si="30"/>
-        <v>7.3431922488526311</v>
+        <v>7.3264024209689751</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -5560,22 +5560,22 @@
       </c>
       <c r="K75" s="29">
         <f t="shared" si="33"/>
-        <v>265000</v>
+        <v>265300</v>
       </c>
       <c r="L75" s="7">
         <v>1</v>
       </c>
       <c r="M75" s="8">
         <f t="shared" si="28"/>
-        <v>316.98113207547169</v>
+        <v>316.62269129287597</v>
       </c>
       <c r="N75" s="7">
         <f t="shared" si="23"/>
-        <v>265</v>
+        <v>265.3</v>
       </c>
       <c r="O75" s="19">
         <f t="shared" si="24"/>
-        <v>0.26500000000000001</v>
+        <v>0.26530000000000004</v>
       </c>
       <c r="P75" s="30">
         <f t="shared" si="25"/>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="Q75" s="1">
         <f t="shared" si="29"/>
-        <v>7.0180324444754092</v>
+        <v>7.0023448129644521</v>
       </c>
       <c r="R75" s="18">
         <f t="shared" si="30"/>
-        <v>7.0180324444754092</v>
+        <v>7.0023448129644521</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -5649,22 +5649,22 @@
       </c>
       <c r="K76" s="29">
         <f t="shared" si="33"/>
-        <v>271000</v>
+        <v>271300</v>
       </c>
       <c r="L76" s="7">
         <v>1</v>
       </c>
       <c r="M76" s="8">
         <f>84000000/K76/L76</f>
-        <v>309.96309963099628</v>
+        <v>309.62034647991152</v>
       </c>
       <c r="N76" s="7">
         <f t="shared" si="23"/>
-        <v>271</v>
+        <v>271.3</v>
       </c>
       <c r="O76" s="19">
         <f t="shared" si="24"/>
-        <v>0.27100000000000002</v>
+        <v>0.27129999999999999</v>
       </c>
       <c r="P76" s="30">
         <f t="shared" si="25"/>
@@ -5672,11 +5672,11 @@
       </c>
       <c r="Q76" s="1">
         <f t="shared" si="29"/>
-        <v>6.7140021580721054</v>
+        <v>6.6993223183536657</v>
       </c>
       <c r="R76" s="18">
         <f t="shared" si="30"/>
-        <v>6.7140021580721054</v>
+        <v>6.6993223183536657</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -5738,22 +5738,22 @@
       </c>
       <c r="K77" s="29">
         <f t="shared" si="33"/>
-        <v>277000</v>
+        <v>277300</v>
       </c>
       <c r="L77" s="7">
         <v>1</v>
       </c>
       <c r="M77" s="8">
         <f t="shared" si="28"/>
-        <v>303.24909747292418</v>
+        <v>302.92102416155785</v>
       </c>
       <c r="N77" s="7">
         <f t="shared" si="23"/>
-        <v>277</v>
+        <v>277.3</v>
       </c>
       <c r="O77" s="19">
         <f t="shared" si="24"/>
-        <v>0.27700000000000002</v>
+        <v>0.27729999999999999</v>
       </c>
       <c r="P77" s="30">
         <f t="shared" si="25"/>
@@ -5761,11 +5761,11 @@
       </c>
       <c r="Q77" s="1">
         <f t="shared" si="29"/>
-        <v>6.4293094870584468</v>
+        <v>6.4155529296482428</v>
       </c>
       <c r="R77" s="18">
         <f t="shared" si="30"/>
-        <v>6.4293094870584468</v>
+        <v>6.4155529296482428</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -5827,22 +5827,22 @@
       </c>
       <c r="K78" s="29">
         <f t="shared" si="33"/>
-        <v>283000</v>
+        <v>283300</v>
       </c>
       <c r="L78" s="7">
         <v>1</v>
       </c>
       <c r="M78" s="8">
         <f t="shared" si="28"/>
-        <v>296.81978798586573</v>
+        <v>296.50547123190961</v>
       </c>
       <c r="N78" s="7">
         <f t="shared" si="23"/>
-        <v>283</v>
+        <v>283.3</v>
       </c>
       <c r="O78" s="19">
         <f t="shared" si="24"/>
-        <v>0.28299999999999997</v>
+        <v>0.2833</v>
       </c>
       <c r="P78" s="30">
         <f t="shared" si="25"/>
@@ -5850,11 +5850,11 @@
       </c>
       <c r="Q78" s="1">
         <f t="shared" si="29"/>
-        <v>6.1623485394989643</v>
+        <v>6.149439431010876</v>
       </c>
       <c r="R78" s="18">
         <f t="shared" si="30"/>
-        <v>6.1623485394989643</v>
+        <v>6.149439431010876</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -5916,22 +5916,22 @@
       </c>
       <c r="K79" s="29">
         <f t="shared" si="33"/>
-        <v>289000</v>
+        <v>289300</v>
       </c>
       <c r="L79" s="7">
         <v>1</v>
       </c>
       <c r="M79" s="8">
         <f t="shared" si="28"/>
-        <v>290.65743944636677</v>
+        <v>290.35603180089873</v>
       </c>
       <c r="N79" s="7">
         <f t="shared" si="23"/>
-        <v>289</v>
+        <v>289.3</v>
       </c>
       <c r="O79" s="19">
         <f t="shared" si="24"/>
-        <v>0.28899999999999998</v>
+        <v>0.2893</v>
       </c>
       <c r="P79" s="30">
         <f t="shared" si="25"/>
@@ -5939,11 +5939,11 @@
       </c>
       <c r="Q79" s="1">
         <f t="shared" si="29"/>
-        <v>5.9116767345023504</v>
+        <v>5.8995468703196821</v>
       </c>
       <c r="R79" s="18">
         <f t="shared" si="30"/>
-        <v>5.9116767345023504</v>
+        <v>5.8995468703196821</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -6005,22 +6005,22 @@
       </c>
       <c r="K80" s="29">
         <f t="shared" si="33"/>
-        <v>295000</v>
+        <v>295300</v>
       </c>
       <c r="L80" s="7">
         <v>1</v>
       </c>
       <c r="M80" s="8">
         <f t="shared" si="28"/>
-        <v>284.74576271186442</v>
+        <v>284.45648493057905</v>
       </c>
       <c r="N80" s="7">
         <f t="shared" si="23"/>
-        <v>295</v>
+        <v>295.3</v>
       </c>
       <c r="O80" s="19">
         <f t="shared" si="24"/>
-        <v>0.29499999999999998</v>
+        <v>0.29530000000000001</v>
       </c>
       <c r="P80" s="30">
         <f t="shared" si="25"/>
@@ -6028,11 +6028,11 @@
       </c>
       <c r="Q80" s="1">
         <f t="shared" si="29"/>
-        <v>5.6759952700039662</v>
+        <v>5.6645831715349004</v>
       </c>
       <c r="R80" s="18">
         <f t="shared" si="30"/>
-        <v>5.6759952700039662</v>
+        <v>5.6645831715349004</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -6094,22 +6094,22 @@
       </c>
       <c r="K81" s="29">
         <f t="shared" si="33"/>
-        <v>301000</v>
+        <v>301300</v>
       </c>
       <c r="L81" s="7">
         <v>1</v>
       </c>
       <c r="M81" s="8">
         <f t="shared" si="28"/>
-        <v>279.06976744186045</v>
+        <v>278.79190175904415</v>
       </c>
       <c r="N81" s="7">
         <f t="shared" ref="N81:N126" si="51">K81/1000</f>
-        <v>301</v>
+        <v>301.3</v>
       </c>
       <c r="O81" s="19">
         <f t="shared" ref="O81:O95" si="52">N81/1000</f>
-        <v>0.30099999999999999</v>
+        <v>0.30130000000000001</v>
       </c>
       <c r="P81" s="30">
         <f t="shared" ref="P81:P95" si="53">K82-K81</f>
@@ -6117,11 +6117,11 @@
       </c>
       <c r="Q81" s="1">
         <f t="shared" si="29"/>
-        <v>5.4541322627073328</v>
+        <v>5.4433823968573734</v>
       </c>
       <c r="R81" s="18">
         <f t="shared" si="30"/>
-        <v>5.4541322627073328</v>
+        <v>5.4433823968573734</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -6183,22 +6183,22 @@
       </c>
       <c r="K82" s="29">
         <f t="shared" si="33"/>
-        <v>307000</v>
+        <v>307300</v>
       </c>
       <c r="L82" s="7">
         <v>1</v>
       </c>
       <c r="M82" s="8">
         <f t="shared" si="28"/>
-        <v>273.61563517915312</v>
+        <v>273.34851936218678</v>
       </c>
       <c r="N82" s="7">
         <f t="shared" si="51"/>
-        <v>307</v>
+        <v>307.3</v>
       </c>
       <c r="O82" s="19">
         <f t="shared" si="52"/>
-        <v>0.307</v>
+        <v>0.30730000000000002</v>
       </c>
       <c r="P82" s="30">
         <f t="shared" si="53"/>
@@ -6206,11 +6206,11 @@
       </c>
       <c r="Q82" s="1">
         <f t="shared" si="29"/>
-        <v>5.2450281503991505</v>
+        <v>5.2348902527070322</v>
       </c>
       <c r="R82" s="18">
         <f t="shared" si="30"/>
-        <v>5.2450281503991505</v>
+        <v>5.2348902527070322</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -6272,22 +6272,22 @@
       </c>
       <c r="K83" s="29">
         <f t="shared" si="33"/>
-        <v>313000</v>
+        <v>313300</v>
       </c>
       <c r="L83" s="7">
         <v>1</v>
       </c>
       <c r="M83" s="8">
         <f t="shared" si="28"/>
-        <v>268.37060702875397</v>
+        <v>268.11362910947975</v>
       </c>
       <c r="N83" s="7">
         <f t="shared" si="51"/>
-        <v>313</v>
+        <v>313.3</v>
       </c>
       <c r="O83" s="19">
         <f t="shared" si="52"/>
-        <v>0.313</v>
+        <v>0.31330000000000002</v>
       </c>
       <c r="P83" s="30">
         <f t="shared" si="53"/>
@@ -6295,11 +6295,11 @@
       </c>
       <c r="Q83" s="1">
         <f t="shared" si="29"/>
-        <v>5.0477230162147748</v>
+        <v>5.0381515022138501</v>
       </c>
       <c r="R83" s="18">
         <f t="shared" si="30"/>
-        <v>5.0477230162147748</v>
+        <v>5.0381515022138501</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -6361,22 +6361,22 @@
       </c>
       <c r="K84" s="29">
         <f t="shared" si="33"/>
-        <v>319000</v>
+        <v>319300</v>
       </c>
       <c r="L84" s="7">
         <v>1</v>
       </c>
       <c r="M84" s="8">
         <f t="shared" si="28"/>
-        <v>263.32288401253919</v>
+        <v>263.0754776072659</v>
       </c>
       <c r="N84" s="7">
         <f t="shared" si="51"/>
-        <v>319</v>
+        <v>319.3</v>
       </c>
       <c r="O84" s="19">
         <f t="shared" si="52"/>
-        <v>0.31900000000000001</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="P84" s="30">
         <f t="shared" si="53"/>
@@ -6384,11 +6384,11 @@
       </c>
       <c r="Q84" s="1">
         <f t="shared" si="29"/>
-        <v>4.8613455510007384</v>
+        <v>4.8522990029006792</v>
       </c>
       <c r="R84" s="18">
         <f t="shared" si="30"/>
-        <v>4.8613455510007384</v>
+        <v>4.8522990029006792</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -6450,22 +6450,22 @@
       </c>
       <c r="K85" s="29">
         <f t="shared" si="33"/>
-        <v>325000</v>
+        <v>325300</v>
       </c>
       <c r="L85" s="7">
         <v>1</v>
       </c>
       <c r="M85" s="8">
-        <f t="shared" ref="M85:M143" si="54">84000000/K85/L85</f>
-        <v>258.46153846153845</v>
+        <f t="shared" ref="M85:M141" si="54">84000000/K85/L85</f>
+        <v>258.22317860436522</v>
       </c>
       <c r="N85" s="7">
         <f t="shared" si="51"/>
-        <v>325</v>
+        <v>325.3</v>
       </c>
       <c r="O85" s="19">
         <f t="shared" si="52"/>
-        <v>0.32500000000000001</v>
+        <v>0.32530000000000003</v>
       </c>
       <c r="P85" s="30">
         <f t="shared" si="53"/>
@@ -6473,11 +6473,11 @@
       </c>
       <c r="Q85" s="1">
         <f t="shared" si="29"/>
-        <v>4.6851034162212386</v>
+        <v>4.6765441340965879</v>
       </c>
       <c r="R85" s="18">
         <f t="shared" si="30"/>
-        <v>4.6851034162212386</v>
+        <v>4.6765441340965879</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -6539,22 +6539,22 @@
       </c>
       <c r="K86" s="29">
         <f t="shared" si="33"/>
-        <v>331000</v>
+        <v>331300</v>
       </c>
       <c r="L86" s="7">
         <v>1</v>
       </c>
       <c r="M86" s="8">
         <f t="shared" si="54"/>
-        <v>253.77643504531721</v>
+        <v>253.54663447026863</v>
       </c>
       <c r="N86" s="7">
         <f t="shared" si="51"/>
-        <v>331</v>
+        <v>331.3</v>
       </c>
       <c r="O86" s="19">
         <f t="shared" si="52"/>
-        <v>0.33100000000000002</v>
+        <v>0.33130000000000004</v>
       </c>
       <c r="P86" s="30">
         <f t="shared" si="53"/>
@@ -6562,11 +6562,11 @@
       </c>
       <c r="Q86" s="1">
         <f t="shared" si="29"/>
-        <v>4.518274807928492</v>
+        <v>4.5101684163107336</v>
       </c>
       <c r="R86" s="18">
         <f t="shared" si="30"/>
-        <v>4.518274807928492</v>
+        <v>4.5101684163107336</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -6628,22 +6628,22 @@
       </c>
       <c r="K87" s="29">
         <f t="shared" si="33"/>
-        <v>337000</v>
+        <v>337300</v>
       </c>
       <c r="L87" s="7">
         <v>1</v>
       </c>
       <c r="M87" s="8">
         <f t="shared" si="54"/>
-        <v>249.25816023738872</v>
+        <v>249.03646605395789</v>
       </c>
       <c r="N87" s="7">
         <f t="shared" si="51"/>
-        <v>337</v>
+        <v>337.3</v>
       </c>
       <c r="O87" s="19">
         <f t="shared" si="52"/>
-        <v>0.33700000000000002</v>
+        <v>0.33729999999999999</v>
       </c>
       <c r="P87" s="30">
         <f t="shared" si="53"/>
@@ -6651,11 +6651,11 @@
       </c>
       <c r="Q87" s="1">
         <f t="shared" si="29"/>
-        <v>4.360201053715258</v>
+        <v>4.3525161559095409</v>
       </c>
       <c r="R87" s="18">
         <f t="shared" si="30"/>
-        <v>4.360201053715258</v>
+        <v>4.3525161559095409</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -6717,22 +6717,22 @@
       </c>
       <c r="K88" s="29">
         <f t="shared" si="33"/>
-        <v>343000</v>
+        <v>343300</v>
       </c>
       <c r="L88" s="7">
         <v>1</v>
       </c>
       <c r="M88" s="8">
         <f t="shared" si="54"/>
-        <v>244.89795918367346</v>
+        <v>244.68394989804835</v>
       </c>
       <c r="N88" s="7">
         <f t="shared" si="51"/>
-        <v>343</v>
+        <v>343.3</v>
       </c>
       <c r="O88" s="19">
         <f t="shared" si="52"/>
-        <v>0.34300000000000003</v>
+        <v>0.34329999999999999</v>
       </c>
       <c r="P88" s="30">
         <f t="shared" si="53"/>
@@ -6740,11 +6740,11 @@
       </c>
       <c r="Q88" s="1">
         <f t="shared" si="29"/>
-        <v>4.210280100578899</v>
+        <v>4.2029879742006528</v>
       </c>
       <c r="R88" s="18">
         <f t="shared" si="30"/>
-        <v>4.210280100578899</v>
+        <v>4.2029879742006528</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -6806,22 +6806,22 @@
       </c>
       <c r="K89" s="29">
         <f t="shared" si="33"/>
-        <v>349000</v>
+        <v>349300</v>
       </c>
       <c r="L89" s="7">
         <v>1</v>
       </c>
       <c r="M89" s="8">
         <f t="shared" si="54"/>
-        <v>240.68767908309457</v>
+        <v>240.4809619238477</v>
       </c>
       <c r="N89" s="7">
         <f t="shared" si="51"/>
-        <v>349</v>
+        <v>349.3</v>
       </c>
       <c r="O89" s="19">
         <f t="shared" si="52"/>
-        <v>0.34899999999999998</v>
+        <v>0.3493</v>
       </c>
       <c r="P89" s="30">
         <f t="shared" si="53"/>
@@ -6829,11 +6829,11 @@
       </c>
       <c r="Q89" s="1">
         <f t="shared" si="29"/>
-        <v>4.0679607732353986</v>
+        <v>4.0610351014441051</v>
       </c>
       <c r="R89" s="18">
         <f t="shared" si="30"/>
-        <v>4.0679607732353986</v>
+        <v>4.0610351014441051</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -6895,22 +6895,22 @@
       </c>
       <c r="K90" s="29">
         <f t="shared" si="33"/>
-        <v>355000</v>
+        <v>355300</v>
       </c>
       <c r="L90" s="7">
         <v>1</v>
       </c>
       <c r="M90" s="8">
         <f t="shared" si="54"/>
-        <v>236.61971830985917</v>
+        <v>236.4199268224036</v>
       </c>
       <c r="N90" s="7">
         <f t="shared" si="51"/>
-        <v>355</v>
+        <v>355.3</v>
       </c>
       <c r="O90" s="19">
         <f t="shared" si="52"/>
-        <v>0.35499999999999998</v>
+        <v>0.3553</v>
       </c>
       <c r="P90" s="30">
         <f t="shared" si="53"/>
@@ -6918,11 +6918,11 @@
       </c>
       <c r="Q90" s="1">
         <f t="shared" si="29"/>
-        <v>3.9327377004408959</v>
+        <v>3.9261543341666822</v>
       </c>
       <c r="R90" s="18">
         <f t="shared" si="30"/>
-        <v>3.9327377004408959</v>
+        <v>3.9261543341666822</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -6984,22 +6984,22 @@
       </c>
       <c r="K91" s="29">
         <f t="shared" si="33"/>
-        <v>361000</v>
+        <v>361300</v>
       </c>
       <c r="L91" s="7">
         <v>1</v>
       </c>
       <c r="M91" s="8">
         <f t="shared" si="54"/>
-        <v>232.68698060941827</v>
+        <v>232.49377248823691</v>
       </c>
       <c r="N91" s="7">
         <f t="shared" si="51"/>
-        <v>361</v>
+        <v>361.3</v>
       </c>
       <c r="O91" s="19">
         <f t="shared" si="52"/>
-        <v>0.36099999999999999</v>
+        <v>0.36130000000000001</v>
       </c>
       <c r="P91" s="30">
         <f t="shared" si="53"/>
@@ -7007,11 +7007,11 @@
       </c>
       <c r="Q91" s="1">
         <f t="shared" si="29"/>
-        <v>3.8041468219523438</v>
+        <v>3.7978835690972517</v>
       </c>
       <c r="R91" s="18">
         <f t="shared" si="30"/>
-        <v>3.8041468219523438</v>
+        <v>3.7978835690972517</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -7073,22 +7073,22 @@
       </c>
       <c r="K92" s="29">
         <f t="shared" si="33"/>
-        <v>367000</v>
+        <v>367300</v>
       </c>
       <c r="L92" s="7">
         <v>1</v>
       </c>
       <c r="M92" s="8">
         <f t="shared" si="54"/>
-        <v>228.88283378746593</v>
+        <v>228.69588891913966</v>
       </c>
       <c r="N92" s="7">
         <f t="shared" si="51"/>
-        <v>367</v>
+        <v>367.3</v>
       </c>
       <c r="O92" s="19">
         <f t="shared" si="52"/>
-        <v>0.36699999999999999</v>
+        <v>0.36730000000000002</v>
       </c>
       <c r="P92" s="30">
         <f t="shared" si="53"/>
@@ -7096,11 +7096,11 @@
       </c>
       <c r="Q92" s="1">
         <f t="shared" si="29"/>
-        <v>3.6817614014069591</v>
+        <v>3.6757978395789905</v>
       </c>
       <c r="R92" s="18">
         <f t="shared" si="30"/>
-        <v>3.6817614014069591</v>
+        <v>3.6757978395789905</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -7162,22 +7162,22 @@
       </c>
       <c r="K93" s="29">
         <f t="shared" si="33"/>
-        <v>373000</v>
+        <v>373300</v>
       </c>
       <c r="L93" s="7">
         <v>1</v>
       </c>
       <c r="M93" s="8">
         <f t="shared" si="54"/>
-        <v>225.20107238605897</v>
+        <v>225.02009107956067</v>
       </c>
       <c r="N93" s="7">
         <f t="shared" si="51"/>
-        <v>373</v>
+        <v>373.3</v>
       </c>
       <c r="O93" s="19">
         <f t="shared" si="52"/>
-        <v>0.373</v>
+        <v>0.37330000000000002</v>
       </c>
       <c r="P93" s="30">
         <f t="shared" si="53"/>
@@ -7185,11 +7185,11 @@
       </c>
       <c r="Q93" s="1">
         <f t="shared" si="29"/>
-        <v>3.5651884810457659</v>
+        <v>3.5595057908709862</v>
       </c>
       <c r="R93" s="18">
         <f t="shared" si="30"/>
-        <v>3.5651884810457659</v>
+        <v>3.5595057908709862</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -7251,22 +7251,22 @@
       </c>
       <c r="K94" s="29">
         <f t="shared" si="33"/>
-        <v>379000</v>
+        <v>379300</v>
       </c>
       <c r="L94" s="7">
         <v>1</v>
       </c>
       <c r="M94" s="8">
         <f t="shared" si="54"/>
-        <v>221.6358839050132</v>
+        <v>221.46058528868969</v>
       </c>
       <c r="N94" s="7">
         <f t="shared" si="51"/>
-        <v>379</v>
+        <v>379.3</v>
       </c>
       <c r="O94" s="19">
         <f t="shared" si="52"/>
-        <v>0.379</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="P94" s="30">
         <f t="shared" si="53"/>
@@ -7274,11 +7274,11 @@
       </c>
       <c r="Q94" s="1">
         <f t="shared" si="29"/>
-        <v>3.4540657231950149</v>
+        <v>3.4486465396629455</v>
       </c>
       <c r="R94" s="18">
         <f t="shared" si="30"/>
-        <v>3.4540657231950149</v>
+        <v>3.4486465396629455</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -7340,22 +7340,22 @@
       </c>
       <c r="K95" s="29">
         <f t="shared" si="33"/>
-        <v>385000</v>
+        <v>385300</v>
       </c>
       <c r="L95" s="7">
         <v>1</v>
       </c>
       <c r="M95" s="8">
         <f t="shared" si="54"/>
-        <v>218.18181818181819</v>
+        <v>218.01193874902674</v>
       </c>
       <c r="N95" s="7">
         <f t="shared" si="51"/>
-        <v>385</v>
+        <v>385.3</v>
       </c>
       <c r="O95" s="19">
         <f t="shared" si="52"/>
-        <v>0.38500000000000001</v>
+        <v>0.38530000000000003</v>
       </c>
       <c r="P95" s="30">
         <f t="shared" si="53"/>
@@ -7363,11 +7363,11 @@
       </c>
       <c r="Q95" s="1">
         <f t="shared" si="29"/>
-        <v>3.3480585910253353</v>
+        <v>3.3428868706725439</v>
       </c>
       <c r="R95" s="18">
         <f t="shared" si="30"/>
-        <v>3.3480585910253353</v>
+        <v>3.3428868706725439</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -7429,22 +7429,22 @@
       </c>
       <c r="K96" s="29">
         <f t="shared" si="33"/>
-        <v>391000</v>
+        <v>391300</v>
       </c>
       <c r="L96" s="7">
         <v>1</v>
       </c>
       <c r="M96" s="8">
         <f t="shared" si="54"/>
-        <v>214.83375959079285</v>
+        <v>214.6690518783542</v>
       </c>
       <c r="N96" s="7">
         <f t="shared" si="51"/>
-        <v>391</v>
+        <v>391.3</v>
       </c>
       <c r="O96" s="19">
         <f t="shared" ref="O96:O159" si="55">N96/1000</f>
-        <v>0.39100000000000001</v>
+        <v>0.39130000000000004</v>
       </c>
       <c r="P96" s="30">
         <f t="shared" ref="P96:P159" si="56">K97-K96</f>
@@ -7452,11 +7452,11 @@
       </c>
       <c r="Q96" s="1">
         <f t="shared" ref="Q96:Q99" si="57">M96-M97</f>
-        <v>3.2468578275686752</v>
+        <v>3.2419187296001155</v>
       </c>
       <c r="R96" s="18">
         <f t="shared" ref="R96:R159" si="58">M96-M97</f>
-        <v>3.2468578275686752</v>
+        <v>3.2419187296001155</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -7518,22 +7518,22 @@
       </c>
       <c r="K97" s="29">
         <f t="shared" ref="K97:K105" si="59">K96+6000</f>
-        <v>397000</v>
+        <v>397300</v>
       </c>
       <c r="L97" s="7">
         <v>1</v>
       </c>
       <c r="M97" s="8">
         <f t="shared" si="54"/>
-        <v>211.58690176322418</v>
+        <v>211.42713314875408</v>
       </c>
       <c r="N97" s="7">
         <f t="shared" si="51"/>
-        <v>397</v>
+        <v>397.3</v>
       </c>
       <c r="O97" s="19">
         <f t="shared" si="55"/>
-        <v>0.39700000000000002</v>
+        <v>0.39729999999999999</v>
       </c>
       <c r="P97" s="30">
         <f t="shared" si="56"/>
@@ -7541,11 +7541,11 @@
       </c>
       <c r="Q97" s="1">
         <f t="shared" si="57"/>
-        <v>3.1501771974673431</v>
+        <v>3.1454569771696583</v>
       </c>
       <c r="R97" s="18">
         <f t="shared" si="58"/>
-        <v>3.1501771974673431</v>
+        <v>3.1454569771696583</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -7607,22 +7607,22 @@
       </c>
       <c r="K98" s="29">
         <f t="shared" si="59"/>
-        <v>403000</v>
+        <v>403300</v>
       </c>
       <c r="L98" s="7">
         <v>1</v>
       </c>
       <c r="M98" s="8">
         <f t="shared" si="54"/>
-        <v>208.43672456575683</v>
+        <v>208.28167617158442</v>
       </c>
       <c r="N98" s="7">
         <f t="shared" si="51"/>
-        <v>403</v>
+        <v>403.3</v>
       </c>
       <c r="O98" s="19">
         <f t="shared" si="55"/>
-        <v>0.40300000000000002</v>
+        <v>0.40329999999999999</v>
       </c>
       <c r="P98" s="30">
         <f t="shared" si="56"/>
@@ -7630,11 +7630,11 @@
       </c>
       <c r="Q98" s="1">
         <f t="shared" si="57"/>
-        <v>3.0577514606223701</v>
+        <v>3.0532373736367049</v>
       </c>
       <c r="R98" s="18">
         <f t="shared" si="58"/>
-        <v>3.0577514606223701</v>
+        <v>3.0532373736367049</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -7696,22 +7696,22 @@
       </c>
       <c r="K99" s="29">
         <f t="shared" si="59"/>
-        <v>409000</v>
+        <v>409300</v>
       </c>
       <c r="L99" s="7">
         <v>1</v>
       </c>
       <c r="M99" s="8">
         <f t="shared" si="54"/>
-        <v>205.37897310513446</v>
+        <v>205.22843879794772</v>
       </c>
       <c r="N99" s="7">
         <f t="shared" si="51"/>
-        <v>409</v>
+        <v>409.3</v>
       </c>
       <c r="O99" s="19">
         <f t="shared" si="55"/>
-        <v>0.40899999999999997</v>
+        <v>0.4093</v>
       </c>
       <c r="P99" s="30">
         <f t="shared" si="56"/>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="Q99" s="1">
         <f t="shared" si="57"/>
-        <v>2.9693345509176083</v>
+        <v>2.9650147671266325</v>
       </c>
       <c r="R99" s="18">
         <f t="shared" si="58"/>
-        <v>2.9693345509176083</v>
+        <v>2.9650147671266325</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -7785,22 +7785,22 @@
       </c>
       <c r="K100" s="29">
         <f t="shared" si="59"/>
-        <v>415000</v>
+        <v>415300</v>
       </c>
       <c r="L100" s="7">
         <v>1</v>
       </c>
       <c r="M100" s="8">
         <f t="shared" si="54"/>
-        <v>202.40963855421685</v>
+        <v>202.26342403082108</v>
       </c>
       <c r="N100" s="7">
         <f t="shared" si="51"/>
-        <v>415</v>
+        <v>415.3</v>
       </c>
       <c r="O100" s="19">
         <f t="shared" si="55"/>
-        <v>0.41499999999999998</v>
+        <v>0.4153</v>
       </c>
       <c r="P100" s="30">
         <f t="shared" si="56"/>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="R100" s="18">
         <f t="shared" si="58"/>
-        <v>2.8846979366396681</v>
+        <v>2.8805614625799194</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -7870,22 +7870,22 @@
       </c>
       <c r="K101" s="29">
         <f t="shared" si="59"/>
-        <v>421000</v>
+        <v>421300</v>
       </c>
       <c r="L101" s="7">
         <v>1</v>
       </c>
       <c r="M101" s="8">
         <f t="shared" si="54"/>
-        <v>199.52494061757719</v>
+        <v>199.38286256824117</v>
       </c>
       <c r="N101" s="7">
         <f t="shared" si="51"/>
-        <v>421</v>
+        <v>421.3</v>
       </c>
       <c r="O101" s="19">
         <f t="shared" si="55"/>
-        <v>0.42099999999999999</v>
+        <v>0.42130000000000001</v>
       </c>
       <c r="P101" s="30">
         <f t="shared" si="56"/>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="R101" s="18">
         <f t="shared" si="58"/>
-        <v>2.8036291421673525</v>
+        <v>2.7996657510167324</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -7955,22 +7955,22 @@
       </c>
       <c r="K102" s="29">
         <f t="shared" si="59"/>
-        <v>427000</v>
+        <v>427300</v>
       </c>
       <c r="L102" s="7">
         <v>1</v>
       </c>
       <c r="M102" s="8">
         <f t="shared" si="54"/>
-        <v>196.72131147540983</v>
+        <v>196.58319681722443</v>
       </c>
       <c r="N102" s="7">
         <f t="shared" si="51"/>
-        <v>427</v>
+        <v>427.3</v>
       </c>
       <c r="O102" s="19">
         <f t="shared" si="55"/>
-        <v>0.42699999999999999</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="P102" s="30">
         <f t="shared" si="56"/>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="R102" s="18">
         <f t="shared" si="58"/>
-        <v>2.7259304130541864</v>
+        <v>2.7221305813601475</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -8040,22 +8040,22 @@
       </c>
       <c r="K103" s="29">
         <f t="shared" si="59"/>
-        <v>433000</v>
+        <v>433300</v>
       </c>
       <c r="L103" s="7">
         <v>1</v>
       </c>
       <c r="M103" s="8">
         <f t="shared" si="54"/>
-        <v>193.99538106235565</v>
+        <v>193.86106623586429</v>
       </c>
       <c r="N103" s="7">
         <f t="shared" si="51"/>
-        <v>433</v>
+        <v>433.3</v>
       </c>
       <c r="O103" s="19">
         <f t="shared" si="55"/>
-        <v>0.433</v>
+        <v>0.43330000000000002</v>
       </c>
       <c r="P103" s="30">
         <f t="shared" si="56"/>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="R103" s="18">
         <f t="shared" si="58"/>
-        <v>2.6514175088248919</v>
+        <v>2.6477723592423956</v>
       </c>
       <c r="S103">
         <v>1</v>
@@ -8125,22 +8125,22 @@
       </c>
       <c r="K104" s="29">
         <f t="shared" si="59"/>
-        <v>439000</v>
+        <v>439300</v>
       </c>
       <c r="L104" s="7">
         <v>1</v>
       </c>
       <c r="M104" s="8">
         <f t="shared" si="54"/>
-        <v>191.34396355353076</v>
+        <v>191.21329387662189</v>
       </c>
       <c r="N104" s="7">
         <f t="shared" si="51"/>
-        <v>439</v>
+        <v>439.3</v>
       </c>
       <c r="O104" s="19">
         <f t="shared" si="55"/>
-        <v>0.439</v>
+        <v>0.43930000000000002</v>
       </c>
       <c r="P104" s="30">
         <f t="shared" si="56"/>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="R104" s="18">
         <f t="shared" si="58"/>
-        <v>2.5799186097105178</v>
+        <v>2.5764198591056129</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -8210,22 +8210,22 @@
       </c>
       <c r="K105" s="29">
         <f t="shared" si="59"/>
-        <v>445000</v>
+        <v>445300</v>
       </c>
       <c r="L105" s="7">
         <v>1</v>
       </c>
       <c r="M105" s="8">
         <f t="shared" si="54"/>
-        <v>188.76404494382024</v>
+        <v>188.63687401751628</v>
       </c>
       <c r="N105" s="7">
         <f t="shared" si="51"/>
-        <v>445</v>
+        <v>445.3</v>
       </c>
       <c r="O105" s="19">
         <f t="shared" si="55"/>
-        <v>0.44500000000000001</v>
+        <v>0.44530000000000003</v>
       </c>
       <c r="P105" s="30">
         <f t="shared" si="56"/>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="R105" s="18">
         <f t="shared" si="58"/>
-        <v>3.33358136766131</v>
+        <v>3.3291308011033038</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -8295,22 +8295,22 @@
       </c>
       <c r="K106" s="29">
         <f>K105+8000</f>
-        <v>453000</v>
+        <v>453300</v>
       </c>
       <c r="L106" s="7">
         <v>1</v>
       </c>
       <c r="M106" s="8">
         <f t="shared" si="54"/>
-        <v>185.43046357615893</v>
+        <v>185.30774321641297</v>
       </c>
       <c r="N106" s="7">
         <f t="shared" si="51"/>
-        <v>453</v>
+        <v>453.3</v>
       </c>
       <c r="O106" s="19">
         <f t="shared" si="55"/>
-        <v>0.45300000000000001</v>
+        <v>0.45330000000000004</v>
       </c>
       <c r="P106" s="30">
         <f t="shared" si="56"/>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="R106" s="18">
         <f t="shared" si="58"/>
-        <v>3.2178822312565387</v>
+        <v>3.2136612740760881</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -8380,22 +8380,22 @@
       </c>
       <c r="K107" s="29">
         <f t="shared" ref="K107:K135" si="66">K106+8000</f>
-        <v>461000</v>
+        <v>461300</v>
       </c>
       <c r="L107" s="7">
         <v>1</v>
       </c>
       <c r="M107" s="8">
         <f t="shared" si="54"/>
-        <v>182.21258134490239</v>
+        <v>182.09408194233689</v>
       </c>
       <c r="N107" s="7">
         <f t="shared" si="51"/>
-        <v>461</v>
+        <v>461.3</v>
       </c>
       <c r="O107" s="19">
         <f t="shared" si="55"/>
-        <v>0.46100000000000002</v>
+        <v>0.46129999999999999</v>
       </c>
       <c r="P107" s="30">
         <f t="shared" si="56"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="R107" s="18">
         <f t="shared" si="58"/>
-        <v>3.1081037329620926</v>
+        <v>3.1040968581689867</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -8465,22 +8465,22 @@
       </c>
       <c r="K108" s="29">
         <f t="shared" si="66"/>
-        <v>469000</v>
+        <v>469300</v>
       </c>
       <c r="L108" s="7">
         <v>1</v>
       </c>
       <c r="M108" s="8">
         <f t="shared" si="54"/>
-        <v>179.1044776119403</v>
+        <v>178.9899850841679</v>
       </c>
       <c r="N108" s="7">
         <f t="shared" si="51"/>
-        <v>469</v>
+        <v>469.3</v>
       </c>
       <c r="O108" s="19">
         <f t="shared" si="55"/>
-        <v>0.46899999999999997</v>
+        <v>0.46929999999999999</v>
       </c>
       <c r="P108" s="30">
         <f t="shared" si="56"/>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="R108" s="18">
         <f t="shared" si="58"/>
-        <v>3.0038486811226903</v>
+        <v>3.0000416523639899</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -8550,22 +8550,22 @@
       </c>
       <c r="K109" s="29">
         <f t="shared" si="66"/>
-        <v>477000</v>
+        <v>477300</v>
       </c>
       <c r="L109" s="7">
         <v>1</v>
       </c>
       <c r="M109" s="8">
         <f t="shared" si="54"/>
-        <v>176.10062893081761</v>
+        <v>175.98994343180391</v>
       </c>
       <c r="N109" s="7">
         <f t="shared" si="51"/>
-        <v>477</v>
+        <v>477.3</v>
       </c>
       <c r="O109" s="19">
         <f t="shared" si="55"/>
-        <v>0.47699999999999998</v>
+        <v>0.4773</v>
       </c>
       <c r="P109" s="30">
         <f t="shared" si="56"/>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="R109" s="18">
         <f t="shared" si="58"/>
-        <v>2.9047526421578027</v>
+        <v>2.9011323870892909</v>
       </c>
       <c r="S109">
         <v>1</v>
@@ -8635,22 +8635,22 @@
       </c>
       <c r="K110" s="29">
         <f t="shared" si="66"/>
-        <v>485000</v>
+        <v>485300</v>
       </c>
       <c r="L110" s="7">
         <v>1</v>
       </c>
       <c r="M110" s="8">
         <f t="shared" si="54"/>
-        <v>173.1958762886598</v>
+        <v>173.08881104471462</v>
       </c>
       <c r="N110" s="7">
         <f t="shared" si="51"/>
-        <v>485</v>
+        <v>485.3</v>
       </c>
       <c r="O110" s="19">
         <f t="shared" si="55"/>
-        <v>0.48499999999999999</v>
+        <v>0.48530000000000001</v>
       </c>
       <c r="P110" s="30">
         <f t="shared" si="56"/>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="R110" s="18">
         <f t="shared" si="58"/>
-        <v>2.8104807511344347</v>
+        <v>2.8070352490527455</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -8720,22 +8720,22 @@
       </c>
       <c r="K111" s="29">
         <f t="shared" si="66"/>
-        <v>493000</v>
+        <v>493300</v>
       </c>
       <c r="L111" s="7">
         <v>1</v>
       </c>
       <c r="M111" s="8">
         <f t="shared" si="54"/>
-        <v>170.38539553752537</v>
+        <v>170.28177579566187</v>
       </c>
       <c r="N111" s="7">
         <f t="shared" si="51"/>
-        <v>493</v>
+        <v>493.3</v>
       </c>
       <c r="O111" s="19">
         <f t="shared" si="55"/>
-        <v>0.49299999999999999</v>
+        <v>0.49330000000000002</v>
       </c>
       <c r="P111" s="30">
         <f t="shared" si="56"/>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="R111" s="18">
         <f t="shared" si="58"/>
-        <v>2.7207248788427307</v>
+        <v>2.717443060772581</v>
       </c>
       <c r="S111">
         <v>1</v>
@@ -8805,22 +8805,22 @@
       </c>
       <c r="K112" s="29">
         <f t="shared" si="66"/>
-        <v>501000</v>
+        <v>501300</v>
       </c>
       <c r="L112" s="7">
         <v>1</v>
       </c>
       <c r="M112" s="8">
         <f t="shared" si="54"/>
-        <v>167.66467065868264</v>
+        <v>167.56433273488929</v>
       </c>
       <c r="N112" s="7">
         <f t="shared" si="51"/>
-        <v>501</v>
+        <v>501.3</v>
       </c>
       <c r="O112" s="19">
         <f t="shared" si="55"/>
-        <v>0.501</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="P112" s="30">
         <f t="shared" si="56"/>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="R112" s="18">
         <f t="shared" si="58"/>
-        <v>2.6352011105490476</v>
+        <v>2.6320727702319289</v>
       </c>
       <c r="S112">
         <v>1</v>
@@ -8890,22 +8890,22 @@
       </c>
       <c r="K113" s="29">
         <f t="shared" si="66"/>
-        <v>509000</v>
+        <v>509300</v>
       </c>
       <c r="L113" s="7">
         <v>1</v>
       </c>
       <c r="M113" s="8">
         <f t="shared" si="54"/>
-        <v>165.02946954813359</v>
+        <v>164.93225996465736</v>
       </c>
       <c r="N113" s="7">
         <f t="shared" si="51"/>
-        <v>509</v>
+        <v>509.3</v>
       </c>
       <c r="O113" s="19">
         <f t="shared" si="55"/>
-        <v>0.50900000000000001</v>
+        <v>0.50929999999999997</v>
       </c>
       <c r="P113" s="30">
         <f t="shared" si="56"/>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="R113" s="18">
         <f t="shared" si="58"/>
-        <v>2.5536474978434569</v>
+        <v>2.5506632122892938</v>
       </c>
       <c r="S113">
         <v>1</v>
@@ -8975,22 +8975,22 @@
       </c>
       <c r="K114" s="29">
         <f t="shared" si="66"/>
-        <v>517000</v>
+        <v>517300</v>
       </c>
       <c r="L114" s="7">
         <v>1</v>
       </c>
       <c r="M114" s="8">
         <f t="shared" si="54"/>
-        <v>162.47582205029013</v>
+        <v>162.38159675236807</v>
       </c>
       <c r="N114" s="7">
         <f t="shared" si="51"/>
-        <v>517</v>
+        <v>517.29999999999995</v>
       </c>
       <c r="O114" s="19">
         <f t="shared" si="55"/>
-        <v>0.51700000000000002</v>
+        <v>0.51729999999999998</v>
       </c>
       <c r="P114" s="30">
         <f t="shared" si="56"/>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="R114" s="18">
         <f t="shared" si="58"/>
-        <v>2.4758220502901338</v>
+        <v>2.4729731087358573</v>
       </c>
       <c r="S114">
         <v>1</v>
@@ -9060,22 +9060,22 @@
       </c>
       <c r="K115" s="29">
         <f t="shared" si="66"/>
-        <v>525000</v>
+        <v>525300</v>
       </c>
       <c r="L115" s="7">
         <v>1</v>
       </c>
       <c r="M115" s="8">
         <f t="shared" si="54"/>
-        <v>160</v>
+        <v>159.90862364363221</v>
       </c>
       <c r="N115" s="7">
         <f t="shared" si="51"/>
-        <v>525</v>
+        <v>525.29999999999995</v>
       </c>
       <c r="O115" s="19">
         <f t="shared" si="55"/>
-        <v>0.52500000000000002</v>
+        <v>0.52529999999999999</v>
       </c>
       <c r="P115" s="30">
         <f t="shared" si="56"/>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="R115" s="18">
         <f t="shared" si="58"/>
-        <v>2.4015009380863148</v>
+        <v>2.3987792783593704</v>
       </c>
       <c r="S115">
         <v>1</v>
@@ -9145,22 +9145,22 @@
       </c>
       <c r="K116" s="29">
         <f t="shared" si="66"/>
-        <v>533000</v>
+        <v>533300</v>
       </c>
       <c r="L116" s="7">
         <v>1</v>
       </c>
       <c r="M116" s="8">
         <f t="shared" si="54"/>
-        <v>157.59849906191369</v>
+        <v>157.50984436527284</v>
       </c>
       <c r="N116" s="7">
         <f t="shared" si="51"/>
-        <v>533</v>
+        <v>533.29999999999995</v>
       </c>
       <c r="O116" s="19">
         <f t="shared" si="55"/>
-        <v>0.53300000000000003</v>
+        <v>0.5333</v>
       </c>
       <c r="P116" s="30">
         <f t="shared" si="56"/>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="R116" s="18">
         <f t="shared" si="58"/>
-        <v>2.3304768807676624</v>
+        <v>2.3278750321858297</v>
       </c>
       <c r="S116">
         <v>1</v>
@@ -9230,22 +9230,22 @@
       </c>
       <c r="K117" s="29">
         <f t="shared" si="66"/>
-        <v>541000</v>
+        <v>541300</v>
       </c>
       <c r="L117" s="7">
         <v>1</v>
       </c>
       <c r="M117" s="8">
         <f t="shared" si="54"/>
-        <v>155.26802218114602</v>
+        <v>155.18196933308701</v>
       </c>
       <c r="N117" s="7">
         <f t="shared" si="51"/>
-        <v>541</v>
+        <v>541.29999999999995</v>
       </c>
       <c r="O117" s="19">
         <f t="shared" si="55"/>
-        <v>0.54100000000000004</v>
+        <v>0.5413</v>
       </c>
       <c r="P117" s="30">
         <f t="shared" si="56"/>
@@ -9253,7 +9253,7 @@
       </c>
       <c r="R117" s="18">
         <f t="shared" si="58"/>
-        <v>2.2625577002717137</v>
+        <v>2.2600687323223951</v>
       </c>
       <c r="S117">
         <v>1</v>
@@ -9315,22 +9315,22 @@
       </c>
       <c r="K118" s="29">
         <f t="shared" si="66"/>
-        <v>549000</v>
+        <v>549300</v>
       </c>
       <c r="L118" s="7">
         <v>1</v>
       </c>
       <c r="M118" s="8">
         <f t="shared" si="54"/>
-        <v>153.00546448087431</v>
+        <v>152.92190060076462</v>
       </c>
       <c r="N118" s="7">
         <f t="shared" si="51"/>
-        <v>549</v>
+        <v>549.29999999999995</v>
       </c>
       <c r="O118" s="19">
         <f t="shared" si="55"/>
-        <v>0.54900000000000004</v>
+        <v>0.5492999999999999</v>
       </c>
       <c r="P118" s="30">
         <f t="shared" si="56"/>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="R118" s="18">
         <f t="shared" si="58"/>
-        <v>2.1975650194739558</v>
+        <v>2.1951824956147732</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -9400,22 +9400,22 @@
       </c>
       <c r="K119" s="29">
         <f t="shared" si="66"/>
-        <v>557000</v>
+        <v>557300</v>
       </c>
       <c r="L119" s="7">
         <v>1</v>
       </c>
       <c r="M119" s="8">
         <f t="shared" si="54"/>
-        <v>150.80789946140035</v>
+        <v>150.72671810514984</v>
       </c>
       <c r="N119" s="7">
         <f t="shared" si="51"/>
-        <v>557</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="O119" s="19">
         <f t="shared" si="55"/>
-        <v>0.55700000000000005</v>
+        <v>0.55729999999999991</v>
       </c>
       <c r="P119" s="30">
         <f t="shared" si="56"/>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="R119" s="18">
         <f t="shared" si="58"/>
-        <v>2.1353330897189267</v>
+        <v>2.1330510257229776</v>
       </c>
       <c r="S119">
         <v>1</v>
@@ -9485,22 +9485,22 @@
       </c>
       <c r="K120" s="29">
         <f t="shared" si="66"/>
-        <v>565000</v>
+        <v>565300</v>
       </c>
       <c r="L120" s="7">
         <v>1</v>
       </c>
       <c r="M120" s="8">
         <f t="shared" si="54"/>
-        <v>148.67256637168143</v>
+        <v>148.59366707942687</v>
       </c>
       <c r="N120" s="7">
         <f t="shared" si="51"/>
-        <v>565</v>
+        <v>565.29999999999995</v>
       </c>
       <c r="O120" s="19">
         <f t="shared" si="55"/>
-        <v>0.56499999999999995</v>
+        <v>0.56529999999999991</v>
       </c>
       <c r="P120" s="30">
         <f t="shared" si="56"/>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="R120" s="18">
         <f t="shared" si="58"/>
-        <v>2.0757077329379854</v>
+        <v>2.0735205592803538</v>
       </c>
       <c r="S120">
         <v>1</v>
@@ -9570,22 +9570,22 @@
       </c>
       <c r="K121" s="29">
         <f t="shared" si="66"/>
-        <v>573000</v>
+        <v>573300</v>
       </c>
       <c r="L121" s="7">
         <v>1</v>
       </c>
       <c r="M121" s="8">
         <f t="shared" si="54"/>
-        <v>146.59685863874344</v>
+        <v>146.52014652014651</v>
       </c>
       <c r="N121" s="7">
         <f t="shared" si="51"/>
-        <v>573</v>
+        <v>573.29999999999995</v>
       </c>
       <c r="O121" s="19">
         <f t="shared" si="55"/>
-        <v>0.57299999999999995</v>
+        <v>0.57329999999999992</v>
       </c>
       <c r="P121" s="30">
         <f t="shared" si="56"/>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="R121" s="18">
         <f t="shared" si="58"/>
-        <v>2.018545385731386</v>
+        <v>2.0164479135750355</v>
       </c>
       <c r="S121">
         <v>1</v>
@@ -9655,22 +9655,22 @@
       </c>
       <c r="K122" s="29">
         <f t="shared" si="66"/>
-        <v>581000</v>
+        <v>581300</v>
       </c>
       <c r="L122" s="7">
         <v>1</v>
       </c>
       <c r="M122" s="8">
         <f t="shared" si="54"/>
-        <v>144.57831325301206</v>
+        <v>144.50369860657148</v>
       </c>
       <c r="N122" s="7">
         <f t="shared" si="51"/>
-        <v>581</v>
+        <v>581.29999999999995</v>
       </c>
       <c r="O122" s="19">
         <f t="shared" si="55"/>
-        <v>0.58099999999999996</v>
+        <v>0.58129999999999993</v>
       </c>
       <c r="P122" s="30">
         <f t="shared" si="56"/>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="R122" s="18">
         <f t="shared" si="58"/>
-        <v>1.9637122343363274</v>
+        <v>1.9616996247286238</v>
       </c>
       <c r="S122">
         <v>1</v>
@@ -9740,22 +9740,22 @@
       </c>
       <c r="K123" s="29">
         <f t="shared" si="66"/>
-        <v>589000</v>
+        <v>589300</v>
       </c>
       <c r="L123" s="7">
         <v>1</v>
       </c>
       <c r="M123" s="8">
         <f t="shared" si="54"/>
-        <v>142.61460101867573</v>
+        <v>142.54199898184285</v>
       </c>
       <c r="N123" s="7">
         <f t="shared" si="51"/>
-        <v>589</v>
+        <v>589.29999999999995</v>
       </c>
       <c r="O123" s="19">
         <f t="shared" si="55"/>
-        <v>0.58899999999999997</v>
+        <v>0.58929999999999993</v>
       </c>
       <c r="P123" s="30">
         <f t="shared" si="56"/>
@@ -9763,7 +9763,7 @@
       </c>
       <c r="R123" s="18">
         <f t="shared" si="58"/>
-        <v>1.9110834307360278</v>
+        <v>1.9091511666746044</v>
       </c>
       <c r="S123">
         <v>1</v>
@@ -9825,22 +9825,22 @@
       </c>
       <c r="K124" s="29">
         <f t="shared" si="66"/>
-        <v>597000</v>
+        <v>597300</v>
       </c>
       <c r="L124" s="7">
         <v>1</v>
       </c>
       <c r="M124" s="8">
         <f t="shared" si="54"/>
-        <v>140.7035175879397</v>
+        <v>140.63284781516825</v>
       </c>
       <c r="N124" s="7">
         <f t="shared" si="51"/>
-        <v>597</v>
+        <v>597.29999999999995</v>
       </c>
       <c r="O124" s="19">
         <f t="shared" si="55"/>
-        <v>0.59699999999999998</v>
+        <v>0.59729999999999994</v>
       </c>
       <c r="P124" s="30">
         <f t="shared" si="56"/>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="R124" s="18">
         <f t="shared" si="58"/>
-        <v>1.8605423813281163</v>
+        <v>1.8586862423944126</v>
       </c>
       <c r="S124">
         <v>1</v>
@@ -9910,22 +9910,22 @@
       </c>
       <c r="K125" s="29">
         <f t="shared" si="66"/>
-        <v>605000</v>
+        <v>605300</v>
       </c>
       <c r="L125" s="7">
         <v>1</v>
       </c>
       <c r="M125" s="8">
         <f t="shared" si="54"/>
-        <v>138.84297520661158</v>
+        <v>138.77416157277383</v>
       </c>
       <c r="N125" s="7">
         <f t="shared" si="51"/>
-        <v>605</v>
+        <v>605.29999999999995</v>
       </c>
       <c r="O125" s="19">
         <f t="shared" si="55"/>
-        <v>0.60499999999999998</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="P125" s="30">
         <f t="shared" si="56"/>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="R125" s="18">
         <f t="shared" si="58"/>
-        <v>1.8119801005756813</v>
+        <v>1.8101961398698734</v>
       </c>
       <c r="S125">
         <v>1</v>
@@ -9995,22 +9995,22 @@
       </c>
       <c r="K126" s="29">
         <f t="shared" si="66"/>
-        <v>613000</v>
+        <v>613300</v>
       </c>
       <c r="L126" s="7">
         <v>1</v>
       </c>
       <c r="M126" s="8">
         <f t="shared" si="54"/>
-        <v>137.0309951060359</v>
+        <v>136.96396543290396</v>
       </c>
       <c r="N126" s="7">
         <f t="shared" si="51"/>
-        <v>613</v>
+        <v>613.29999999999995</v>
       </c>
       <c r="O126" s="19">
         <f t="shared" si="55"/>
-        <v>0.61299999999999999</v>
+        <v>0.61329999999999996</v>
       </c>
       <c r="P126" s="30">
         <f t="shared" si="56"/>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="R126" s="18">
         <f t="shared" si="58"/>
-        <v>1.7652946229441113</v>
+        <v>1.7635791460859878</v>
       </c>
       <c r="S126">
         <v>1</v>
@@ -10080,22 +10080,22 @@
       </c>
       <c r="K127" s="29">
         <f t="shared" si="66"/>
-        <v>621000</v>
+        <v>621300</v>
       </c>
       <c r="L127" s="7">
         <v>1</v>
       </c>
       <c r="M127" s="8">
         <f t="shared" si="54"/>
-        <v>135.26570048309179</v>
+        <v>135.20038628681797</v>
       </c>
       <c r="N127" s="7">
         <f t="shared" ref="N127:N184" si="73">K127/1000</f>
-        <v>621</v>
+        <v>621.29999999999995</v>
       </c>
       <c r="O127" s="19">
         <f t="shared" si="55"/>
-        <v>0.621</v>
+        <v>0.62129999999999996</v>
       </c>
       <c r="P127" s="30">
         <f t="shared" si="56"/>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="R127" s="18">
         <f t="shared" si="58"/>
-        <v>1.7203904671935391</v>
+        <v>1.718740013180593</v>
       </c>
       <c r="S127">
         <v>1</v>
@@ -10165,22 +10165,22 @@
       </c>
       <c r="K128" s="29">
         <f>K127+8000</f>
-        <v>629000</v>
+        <v>629300</v>
       </c>
       <c r="L128" s="7">
         <v>1</v>
       </c>
       <c r="M128" s="8">
         <f t="shared" si="54"/>
-        <v>133.54531001589825</v>
+        <v>133.48164627363738</v>
       </c>
       <c r="N128" s="7">
         <f t="shared" si="73"/>
-        <v>629</v>
+        <v>629.29999999999995</v>
       </c>
       <c r="O128" s="19">
         <f t="shared" si="55"/>
-        <v>0.629</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="P128" s="30">
         <f t="shared" si="56"/>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="R128" s="18">
         <f t="shared" si="58"/>
-        <v>1.6771781477663978</v>
+        <v>1.6755894715033719</v>
       </c>
       <c r="S128">
         <v>1</v>
@@ -10250,22 +10250,22 @@
       </c>
       <c r="K129" s="29">
         <f t="shared" si="66"/>
-        <v>637000</v>
+        <v>637300</v>
       </c>
       <c r="L129" s="7">
         <v>1</v>
       </c>
       <c r="M129" s="8">
         <f t="shared" si="54"/>
-        <v>131.86813186813185</v>
+        <v>131.80605680213401</v>
       </c>
       <c r="N129" s="7">
         <f t="shared" si="73"/>
-        <v>637</v>
+        <v>637.29999999999995</v>
       </c>
       <c r="O129" s="19">
         <f t="shared" si="55"/>
-        <v>0.63700000000000001</v>
+        <v>0.63729999999999998</v>
       </c>
       <c r="P129" s="30">
         <f t="shared" si="56"/>
@@ -10273,7 +10273,7 @@
       </c>
       <c r="R129" s="18">
         <f t="shared" si="58"/>
-        <v>1.6355737285969667</v>
+        <v>1.6340437849327145</v>
       </c>
       <c r="S129">
         <v>1</v>
@@ -10335,22 +10335,22 @@
       </c>
       <c r="K130" s="29">
         <f t="shared" si="66"/>
-        <v>645000</v>
+        <v>645300</v>
       </c>
       <c r="L130" s="7">
         <v>1</v>
       </c>
       <c r="M130" s="8">
         <f t="shared" si="54"/>
-        <v>130.23255813953489</v>
+        <v>130.17201301720129</v>
       </c>
       <c r="N130" s="7">
         <f t="shared" si="73"/>
-        <v>645</v>
+        <v>645.29999999999995</v>
       </c>
       <c r="O130" s="19">
         <f t="shared" si="55"/>
-        <v>0.64500000000000002</v>
+        <v>0.64529999999999998</v>
       </c>
       <c r="P130" s="30">
         <f t="shared" si="56"/>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="R130" s="18">
         <f t="shared" si="58"/>
-        <v>1.5954984151857161</v>
+        <v>1.5940243443098154</v>
       </c>
       <c r="S130">
         <v>1</v>
@@ -10420,22 +10420,22 @@
       </c>
       <c r="K131" s="29">
         <f t="shared" si="66"/>
-        <v>653000</v>
+        <v>653300</v>
       </c>
       <c r="L131" s="7">
         <v>1</v>
       </c>
       <c r="M131" s="8">
         <f t="shared" si="54"/>
-        <v>128.63705972434917</v>
+        <v>128.57798867289148</v>
       </c>
       <c r="N131" s="7">
         <f t="shared" si="73"/>
-        <v>653</v>
+        <v>653.29999999999995</v>
       </c>
       <c r="O131" s="19">
         <f t="shared" si="55"/>
-        <v>0.65300000000000002</v>
+        <v>0.65329999999999999</v>
       </c>
       <c r="P131" s="30">
         <f t="shared" si="56"/>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="R131" s="18">
         <f t="shared" si="58"/>
-        <v>1.5568781812326762</v>
+        <v>1.5554572953018777</v>
       </c>
       <c r="S131">
         <v>1</v>
@@ -10505,22 +10505,22 @@
       </c>
       <c r="K132" s="29">
         <f t="shared" si="66"/>
-        <v>661000</v>
+        <v>661300</v>
       </c>
       <c r="L132" s="7">
         <v>1</v>
       </c>
       <c r="M132" s="8">
         <f t="shared" si="54"/>
-        <v>127.0801815431165</v>
+        <v>127.0225313775896</v>
       </c>
       <c r="N132" s="7">
         <f t="shared" si="73"/>
-        <v>661</v>
+        <v>661.3</v>
       </c>
       <c r="O132" s="19">
         <f t="shared" si="55"/>
-        <v>0.66100000000000003</v>
+        <v>0.6613</v>
       </c>
       <c r="P132" s="30">
         <f t="shared" si="56"/>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="R132" s="18">
         <f t="shared" si="58"/>
-        <v>1.5196434265245671</v>
+        <v>1.5182731974013421</v>
       </c>
       <c r="S132">
         <v>1</v>
@@ -10590,22 +10590,22 @@
       </c>
       <c r="K133" s="29">
         <f t="shared" si="66"/>
-        <v>669000</v>
+        <v>669300</v>
       </c>
       <c r="L133" s="7">
         <v>1</v>
       </c>
       <c r="M133" s="8">
         <f t="shared" si="54"/>
-        <v>125.56053811659193</v>
+        <v>125.50425818018826</v>
       </c>
       <c r="N133" s="7">
         <f t="shared" si="73"/>
-        <v>669</v>
+        <v>669.3</v>
       </c>
       <c r="O133" s="19">
         <f t="shared" si="55"/>
-        <v>0.66900000000000004</v>
+        <v>0.66930000000000001</v>
       </c>
       <c r="P133" s="30">
         <f t="shared" si="56"/>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="R133" s="18">
         <f t="shared" si="58"/>
-        <v>1.4837286631207292</v>
+        <v>1.4824067111198929</v>
       </c>
       <c r="S133">
         <v>1</v>
@@ -10675,22 +10675,22 @@
       </c>
       <c r="K134" s="29">
         <f t="shared" si="66"/>
-        <v>677000</v>
+        <v>677300</v>
       </c>
       <c r="L134" s="7">
         <v>1</v>
       </c>
       <c r="M134" s="8">
         <f t="shared" si="54"/>
-        <v>124.0768094534712</v>
+        <v>124.02185146906837</v>
       </c>
       <c r="N134" s="7">
         <f t="shared" si="73"/>
-        <v>677</v>
+        <v>677.3</v>
       </c>
       <c r="O134" s="19">
         <f t="shared" si="55"/>
-        <v>0.67700000000000005</v>
+        <v>0.6772999999999999</v>
       </c>
       <c r="P134" s="30">
         <f t="shared" si="56"/>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="R134" s="18">
         <f t="shared" si="58"/>
-        <v>1.4490722271938239</v>
+        <v>1.4477963107435414</v>
       </c>
       <c r="S134">
         <v>1</v>
@@ -10760,22 +10760,22 @@
       </c>
       <c r="K135" s="29">
         <f t="shared" si="66"/>
-        <v>685000</v>
+        <v>685300</v>
       </c>
       <c r="L135" s="7">
         <v>1</v>
       </c>
       <c r="M135" s="8">
         <f t="shared" si="54"/>
-        <v>122.62773722627738</v>
+        <v>122.57405515832482</v>
       </c>
       <c r="N135" s="7">
         <f t="shared" si="73"/>
-        <v>685</v>
+        <v>685.3</v>
       </c>
       <c r="O135" s="19">
         <f t="shared" si="55"/>
-        <v>0.68500000000000005</v>
+        <v>0.68529999999999991</v>
       </c>
       <c r="P135" s="30">
         <f t="shared" si="56"/>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="R135" s="18">
         <f t="shared" si="58"/>
-        <v>1.4156160141561571</v>
+        <v>1.4143840202893472</v>
       </c>
       <c r="S135">
         <v>1</v>
@@ -10845,22 +10845,22 @@
       </c>
       <c r="K136" s="29">
         <f>K135+8000</f>
-        <v>693000</v>
+        <v>693300</v>
       </c>
       <c r="L136" s="7">
         <v>1</v>
       </c>
       <c r="M136" s="8">
         <f t="shared" si="54"/>
-        <v>121.21212121212122</v>
+        <v>121.15967113803548</v>
       </c>
       <c r="N136" s="7">
         <f t="shared" si="73"/>
-        <v>693</v>
+        <v>693.3</v>
       </c>
       <c r="O136" s="19">
         <f t="shared" si="55"/>
-        <v>0.69299999999999995</v>
+        <v>0.69329999999999992</v>
       </c>
       <c r="P136" s="30">
         <f t="shared" si="56"/>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="R136" s="18">
         <f t="shared" si="58"/>
-        <v>1.3833052349457517</v>
+        <v>1.3821151705465269</v>
       </c>
       <c r="S136">
         <v>1</v>
@@ -10930,22 +10930,22 @@
       </c>
       <c r="K137" s="29">
         <f>K136+8000</f>
-        <v>701000</v>
+        <v>701300</v>
       </c>
       <c r="L137" s="7">
         <v>1</v>
       </c>
       <c r="M137" s="8">
         <f t="shared" si="54"/>
-        <v>119.82881597717547</v>
+        <v>119.77755596748895</v>
       </c>
       <c r="N137" s="7">
         <f t="shared" si="73"/>
-        <v>701</v>
+        <v>701.3</v>
       </c>
       <c r="O137" s="19">
         <f t="shared" si="55"/>
-        <v>0.70099999999999996</v>
+        <v>0.70129999999999992</v>
       </c>
       <c r="P137" s="30">
         <f t="shared" si="56"/>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="R137" s="18">
         <f t="shared" si="58"/>
-        <v>1.3520881915619327</v>
+        <v>1.3509381752994614</v>
       </c>
       <c r="S137">
         <v>1</v>
@@ -11015,22 +11015,22 @@
       </c>
       <c r="K138" s="29">
         <f t="shared" ref="K138:K141" si="74">K137+8000</f>
-        <v>709000</v>
+        <v>709300</v>
       </c>
       <c r="L138" s="7">
         <v>1</v>
       </c>
       <c r="M138" s="8">
         <f t="shared" si="54"/>
-        <v>118.47672778561353</v>
+        <v>118.42661779218949</v>
       </c>
       <c r="N138" s="7">
         <f t="shared" si="73"/>
-        <v>709</v>
+        <v>709.3</v>
       </c>
       <c r="O138" s="19">
         <f t="shared" si="55"/>
-        <v>0.70899999999999996</v>
+        <v>0.70929999999999993</v>
       </c>
       <c r="P138" s="30">
         <f t="shared" si="56"/>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="R138" s="18">
         <f t="shared" si="58"/>
-        <v>1.3219160701323602</v>
+        <v>1.3208043250209442</v>
       </c>
       <c r="S138">
         <v>1</v>
@@ -11100,22 +11100,22 @@
       </c>
       <c r="K139" s="29">
         <f t="shared" si="74"/>
-        <v>717000</v>
+        <v>717300</v>
       </c>
       <c r="L139" s="7">
         <v>1</v>
       </c>
       <c r="M139" s="8">
         <f t="shared" si="54"/>
-        <v>117.15481171548117</v>
+        <v>117.10581346716855</v>
       </c>
       <c r="N139" s="7">
         <f t="shared" si="73"/>
-        <v>717</v>
+        <v>717.3</v>
       </c>
       <c r="O139" s="19">
         <f t="shared" si="55"/>
-        <v>0.71699999999999997</v>
+        <v>0.71729999999999994</v>
       </c>
       <c r="P139" s="30">
         <f t="shared" si="56"/>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="R139" s="18">
         <f t="shared" si="58"/>
-        <v>1.292742749963935</v>
+        <v>1.2916675964943352</v>
       </c>
       <c r="S139">
         <v>1</v>
@@ -11185,22 +11185,22 @@
       </c>
       <c r="K140" s="29">
         <f t="shared" si="74"/>
-        <v>725000</v>
+        <v>725300</v>
       </c>
       <c r="L140" s="7">
         <v>1</v>
       </c>
       <c r="M140" s="8">
         <f t="shared" si="54"/>
-        <v>115.86206896551724</v>
+        <v>115.81414587067421</v>
       </c>
       <c r="N140" s="7">
         <f t="shared" si="73"/>
-        <v>725</v>
+        <v>725.3</v>
       </c>
       <c r="O140" s="19">
         <f t="shared" si="55"/>
-        <v>0.72499999999999998</v>
+        <v>0.72529999999999994</v>
       </c>
       <c r="P140" s="30">
         <f t="shared" si="56"/>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="R140" s="18">
         <f t="shared" si="58"/>
-        <v>1.2645246271816291</v>
+        <v>1.2634844769744973</v>
       </c>
       <c r="S140">
         <v>1</v>
@@ -11270,22 +11270,22 @@
       </c>
       <c r="K141" s="29">
         <f t="shared" si="74"/>
-        <v>733000</v>
+        <v>733300</v>
       </c>
       <c r="L141" s="7">
         <v>1</v>
       </c>
       <c r="M141" s="8">
         <f t="shared" si="54"/>
-        <v>114.59754433833561</v>
+        <v>114.55066139369971</v>
       </c>
       <c r="N141" s="7">
         <f t="shared" si="73"/>
-        <v>733</v>
+        <v>733.3</v>
       </c>
       <c r="O141" s="19">
         <f t="shared" si="55"/>
-        <v>0.73299999999999998</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="P141" s="30">
         <f t="shared" si="56"/>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="R141" s="18">
         <f t="shared" si="58"/>
-        <v>1.2372204516959329</v>
+        <v>1.2362138016317203</v>
       </c>
       <c r="S141">
         <v>1</v>
@@ -11354,23 +11354,23 @@
         <v>112</v>
       </c>
       <c r="K142" s="29">
-        <f t="shared" ref="K142:K157" si="75">K141+8000</f>
-        <v>741000</v>
+        <f t="shared" ref="K142:K145" si="75">K141+8000</f>
+        <v>741300</v>
       </c>
       <c r="L142" s="7">
         <v>1</v>
       </c>
       <c r="M142" s="8">
         <f>84000000/K142/L142</f>
-        <v>113.36032388663968</v>
+        <v>113.31444759206799</v>
       </c>
       <c r="N142" s="7">
         <f t="shared" si="73"/>
-        <v>741</v>
+        <v>741.3</v>
       </c>
       <c r="O142" s="19">
         <f t="shared" si="55"/>
-        <v>0.74099999999999999</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="P142" s="30">
         <f t="shared" si="56"/>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="R142" s="18">
         <f t="shared" si="58"/>
-        <v>1.210791176359308</v>
+        <v>1.2098166031450006</v>
       </c>
       <c r="S142">
         <v>1</v>
@@ -11440,22 +11440,22 @@
       </c>
       <c r="K143" s="29">
         <f t="shared" si="75"/>
-        <v>749000</v>
+        <v>749300</v>
       </c>
       <c r="L143" s="7">
         <v>1</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" ref="M142:M157" si="76">84000000/K143/L143</f>
-        <v>112.14953271028037</v>
+        <f t="shared" ref="M143:M157" si="76">84000000/K143/L143</f>
+        <v>112.10463098892299</v>
       </c>
       <c r="N143" s="7">
         <f t="shared" si="73"/>
-        <v>749</v>
+        <v>749.3</v>
       </c>
       <c r="O143" s="19">
         <f t="shared" si="55"/>
-        <v>0.749</v>
+        <v>0.74929999999999997</v>
       </c>
       <c r="P143" s="30">
         <f t="shared" si="56"/>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="R143" s="18">
         <f t="shared" si="58"/>
-        <v>1.1851998172816849</v>
+        <v>1.1842559724169774</v>
       </c>
       <c r="S143">
         <v>1</v>
@@ -11525,22 +11525,22 @@
       </c>
       <c r="K144" s="29">
         <f t="shared" si="75"/>
-        <v>757000</v>
+        <v>757300</v>
       </c>
       <c r="L144" s="7">
         <v>1</v>
       </c>
       <c r="M144" s="8">
         <f t="shared" si="76"/>
-        <v>110.96433289299868</v>
+        <v>110.92037501650601</v>
       </c>
       <c r="N144" s="7">
         <f t="shared" si="73"/>
-        <v>757</v>
+        <v>757.3</v>
       </c>
       <c r="O144" s="19">
         <f t="shared" si="55"/>
-        <v>0.75700000000000001</v>
+        <v>0.75729999999999997</v>
       </c>
       <c r="P144" s="30">
         <f t="shared" si="56"/>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="R144" s="18">
         <f t="shared" si="58"/>
-        <v>1.1604113243712391</v>
+        <v>1.1594969294813211</v>
       </c>
       <c r="S144">
         <v>1</v>
@@ -11610,22 +11610,22 @@
       </c>
       <c r="K145" s="29">
         <f t="shared" si="75"/>
-        <v>765000</v>
+        <v>765300</v>
       </c>
       <c r="L145" s="7">
         <v>1</v>
       </c>
       <c r="M145" s="8">
         <f t="shared" si="76"/>
-        <v>109.80392156862744</v>
+        <v>109.76087808702469</v>
       </c>
       <c r="N145" s="7">
         <f t="shared" si="73"/>
-        <v>765</v>
+        <v>765.3</v>
       </c>
       <c r="O145" s="19">
         <f t="shared" si="55"/>
-        <v>0.76500000000000001</v>
+        <v>0.76529999999999998</v>
       </c>
       <c r="P145" s="30">
         <f t="shared" si="56"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="R145" s="18">
         <f t="shared" si="58"/>
-        <v>1.1363924612535783</v>
+        <v>1.1355063037581772</v>
       </c>
       <c r="S145">
         <v>1</v>
@@ -11695,22 +11695,22 @@
       </c>
       <c r="K146" s="29">
         <f>K145+8000</f>
-        <v>773000</v>
+        <v>773300</v>
       </c>
       <c r="L146" s="7">
         <v>1</v>
       </c>
       <c r="M146" s="8">
         <f t="shared" si="76"/>
-        <v>108.66752910737387</v>
+        <v>108.62537178326652</v>
       </c>
       <c r="N146" s="7">
         <f t="shared" si="73"/>
-        <v>773</v>
+        <v>773.3</v>
       </c>
       <c r="O146" s="19">
         <f t="shared" si="55"/>
-        <v>0.77300000000000002</v>
+        <v>0.77329999999999999</v>
       </c>
       <c r="P146" s="30">
         <f t="shared" si="56"/>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="R146" s="18">
         <f t="shared" si="58"/>
-        <v>1.1131116938015282</v>
+        <v>1.1122526228927825</v>
       </c>
       <c r="S146">
         <v>1</v>
@@ -11780,22 +11780,22 @@
       </c>
       <c r="K147" s="29">
         <f t="shared" ref="K147:K152" si="77">K146+8000</f>
-        <v>781000</v>
+        <v>781300</v>
       </c>
       <c r="L147" s="7">
         <v>1</v>
       </c>
       <c r="M147" s="8">
         <f t="shared" si="76"/>
-        <v>107.55441741357234</v>
+        <v>107.51311916037373</v>
       </c>
       <c r="N147" s="7">
         <f t="shared" si="73"/>
-        <v>781</v>
+        <v>781.3</v>
       </c>
       <c r="O147" s="19">
         <f t="shared" si="55"/>
-        <v>0.78100000000000003</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="P147" s="30">
         <f t="shared" si="56"/>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="R147" s="18">
         <f t="shared" si="58"/>
-        <v>1.0905390865761433</v>
+        <v>1.0897060094805369</v>
       </c>
       <c r="S147">
         <v>1</v>
@@ -11865,22 +11865,22 @@
       </c>
       <c r="K148" s="29">
         <f t="shared" si="77"/>
-        <v>789000</v>
+        <v>789300</v>
       </c>
       <c r="L148" s="7">
         <v>1</v>
       </c>
       <c r="M148" s="8">
         <f t="shared" si="76"/>
-        <v>106.46387832699619</v>
+        <v>106.4234131508932</v>
       </c>
       <c r="N148" s="7">
         <f t="shared" si="73"/>
-        <v>789</v>
+        <v>789.3</v>
       </c>
       <c r="O148" s="19">
         <f t="shared" si="55"/>
-        <v>0.78900000000000003</v>
+        <v>0.7893</v>
       </c>
       <c r="P148" s="30">
         <f t="shared" si="56"/>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="R148" s="18">
         <f t="shared" si="58"/>
-        <v>1.0686462065444999</v>
+        <v>1.0678380850459632</v>
       </c>
       <c r="S148">
         <v>1</v>
@@ -11950,22 +11950,22 @@
       </c>
       <c r="K149" s="29">
         <f t="shared" si="77"/>
-        <v>797000</v>
+        <v>797300</v>
       </c>
       <c r="L149" s="7">
         <v>1</v>
       </c>
       <c r="M149" s="8">
         <f t="shared" si="76"/>
-        <v>105.39523212045169</v>
+        <v>105.35557506584723</v>
       </c>
       <c r="N149" s="7">
         <f t="shared" si="73"/>
-        <v>797</v>
+        <v>797.3</v>
       </c>
       <c r="O149" s="19">
         <f t="shared" si="55"/>
-        <v>0.79700000000000004</v>
+        <v>0.79730000000000001</v>
       </c>
       <c r="P149" s="30">
         <f t="shared" si="56"/>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="R149" s="18">
         <f t="shared" si="58"/>
-        <v>1.0474060334951787</v>
+        <v>1.0466218806988365</v>
       </c>
       <c r="S149">
         <v>1</v>
@@ -12035,22 +12035,22 @@
       </c>
       <c r="K150" s="29">
         <f t="shared" si="77"/>
-        <v>805000</v>
+        <v>805300</v>
       </c>
       <c r="L150" s="7">
         <v>1</v>
       </c>
       <c r="M150" s="8">
         <f t="shared" si="76"/>
-        <v>104.34782608695652</v>
+        <v>104.3089531851484</v>
       </c>
       <c r="N150" s="7">
         <f t="shared" si="73"/>
-        <v>805</v>
+        <v>805.3</v>
       </c>
       <c r="O150" s="19">
         <f t="shared" si="55"/>
-        <v>0.80500000000000005</v>
+        <v>0.8052999999999999</v>
       </c>
       <c r="P150" s="30">
         <f t="shared" si="56"/>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="R150" s="18">
         <f t="shared" si="58"/>
-        <v>1.0267928766244125</v>
+        <v>1.0260317539422061</v>
       </c>
       <c r="S150">
         <v>1</v>
@@ -12120,22 +12120,22 @@
       </c>
       <c r="K151" s="29">
         <f t="shared" si="77"/>
-        <v>813000</v>
+        <v>813300</v>
       </c>
       <c r="L151" s="7">
         <v>1</v>
       </c>
       <c r="M151" s="8">
         <f t="shared" si="76"/>
-        <v>103.3210332103321</v>
+        <v>103.28292143120619</v>
       </c>
       <c r="N151" s="7">
         <f t="shared" si="73"/>
-        <v>813</v>
+        <v>813.3</v>
       </c>
       <c r="O151" s="19">
         <f t="shared" si="55"/>
-        <v>0.81299999999999994</v>
+        <v>0.81329999999999991</v>
       </c>
       <c r="P151" s="30">
         <f t="shared" si="56"/>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="R151" s="18">
         <f t="shared" si="58"/>
-        <v>1.0067822968120055</v>
+        <v>1.0060433111526237</v>
       </c>
       <c r="S151">
         <v>1</v>
@@ -12205,22 +12205,22 @@
       </c>
       <c r="K152" s="29">
         <f t="shared" si="77"/>
-        <v>821000</v>
+        <v>821300</v>
       </c>
       <c r="L152" s="7">
         <v>1</v>
       </c>
       <c r="M152" s="8">
         <f t="shared" ref="M152:M156" si="78">84000000/K152/L152</f>
-        <v>102.3142509135201</v>
+        <v>102.27687812005357</v>
       </c>
       <c r="N152" s="7">
         <f t="shared" si="73"/>
-        <v>821</v>
+        <v>821.3</v>
       </c>
       <c r="O152" s="19">
         <f t="shared" si="55"/>
-        <v>0.82099999999999995</v>
+        <v>0.82129999999999992</v>
       </c>
       <c r="P152" s="30">
         <f t="shared" si="56"/>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="R152" s="18">
         <f t="shared" si="58"/>
-        <v>1.1094316364116708</v>
+        <v>1.1086256811760506</v>
       </c>
       <c r="S152">
         <v>1</v>
@@ -12289,23 +12289,23 @@
         <v>123</v>
       </c>
       <c r="K153" s="29">
-        <f t="shared" ref="K149:K158" si="79">K152+9000</f>
-        <v>830000</v>
+        <f t="shared" ref="K153:K158" si="79">K152+9000</f>
+        <v>830300</v>
       </c>
       <c r="L153" s="7">
         <v>1</v>
       </c>
       <c r="M153" s="8">
         <f t="shared" si="76"/>
-        <v>101.20481927710843</v>
+        <v>101.16825243887752</v>
       </c>
       <c r="N153" s="7">
         <f t="shared" si="73"/>
-        <v>830</v>
+        <v>830.3</v>
       </c>
       <c r="O153" s="19">
         <f t="shared" si="55"/>
-        <v>0.83</v>
+        <v>0.83029999999999993</v>
       </c>
       <c r="P153" s="30">
         <f t="shared" si="56"/>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="R153" s="18">
         <f t="shared" si="58"/>
-        <v>1.085629765785427</v>
+        <v>1.0848496031810981</v>
       </c>
       <c r="T153">
         <f t="shared" si="60"/>
@@ -12372,22 +12372,22 @@
       </c>
       <c r="K154" s="29">
         <f t="shared" si="79"/>
-        <v>839000</v>
+        <v>839300</v>
       </c>
       <c r="L154" s="7">
         <v>1</v>
       </c>
       <c r="M154" s="8">
         <f t="shared" si="78"/>
-        <v>100.119189511323</v>
+        <v>100.08340283569642</v>
       </c>
       <c r="N154" s="7">
         <f t="shared" si="73"/>
-        <v>839</v>
+        <v>839.3</v>
       </c>
       <c r="O154" s="19">
         <f t="shared" si="55"/>
-        <v>0.83899999999999997</v>
+        <v>0.83929999999999993</v>
       </c>
       <c r="P154" s="30">
         <f t="shared" si="56"/>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="R154" s="18">
         <f t="shared" si="58"/>
-        <v>1.0625857377380896</v>
+        <v>1.0618302788179506</v>
       </c>
       <c r="T154">
         <f t="shared" si="60"/>
@@ -12454,22 +12454,22 @@
       </c>
       <c r="K155" s="29">
         <f t="shared" si="79"/>
-        <v>848000</v>
+        <v>848300</v>
       </c>
       <c r="L155" s="7">
         <v>1</v>
       </c>
       <c r="M155" s="8">
         <f t="shared" si="76"/>
-        <v>99.056603773584911</v>
+        <v>99.021572556878468</v>
       </c>
       <c r="N155" s="7">
         <f t="shared" si="73"/>
-        <v>848</v>
+        <v>848.3</v>
       </c>
       <c r="O155" s="19">
         <f t="shared" si="55"/>
-        <v>0.84799999999999998</v>
+        <v>0.84829999999999994</v>
       </c>
       <c r="P155" s="30">
         <f t="shared" si="56"/>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="R155" s="18">
         <f t="shared" si="58"/>
-        <v>1.0402677175755741</v>
+        <v>1.0395359302600156</v>
       </c>
       <c r="T155">
         <f t="shared" si="60"/>
@@ -12536,22 +12536,22 @@
       </c>
       <c r="K156" s="29">
         <f t="shared" si="79"/>
-        <v>857000</v>
+        <v>857300</v>
       </c>
       <c r="L156" s="7">
         <v>1</v>
       </c>
       <c r="M156" s="8">
         <f t="shared" si="78"/>
-        <v>98.016336056009337</v>
+        <v>97.982036626618452</v>
       </c>
       <c r="N156" s="7">
         <f t="shared" si="73"/>
-        <v>857</v>
+        <v>857.3</v>
       </c>
       <c r="O156" s="19">
         <f t="shared" si="55"/>
-        <v>0.85699999999999998</v>
+        <v>0.85729999999999995</v>
       </c>
       <c r="P156" s="30">
         <f t="shared" si="56"/>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="R156" s="18">
         <f t="shared" si="58"/>
-        <v>1.0186455248315127</v>
+        <v>1.0179364303815817</v>
       </c>
       <c r="T156">
         <f t="shared" si="60"/>
@@ -12618,22 +12618,22 @@
       </c>
       <c r="K157" s="29">
         <f t="shared" si="79"/>
-        <v>866000</v>
+        <v>866300</v>
       </c>
       <c r="L157" s="7">
         <v>1</v>
       </c>
       <c r="M157" s="8">
         <f t="shared" si="76"/>
-        <v>96.997690531177824</v>
+        <v>96.96410019623687</v>
       </c>
       <c r="N157" s="7">
         <f t="shared" si="73"/>
-        <v>866</v>
+        <v>866.3</v>
       </c>
       <c r="O157" s="19">
         <f t="shared" si="55"/>
-        <v>0.86599999999999999</v>
+        <v>0.86629999999999996</v>
       </c>
       <c r="P157" s="30">
         <f t="shared" si="56"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="R157" s="18">
         <f t="shared" si="58"/>
-        <v>0.99769053117782391</v>
+        <v>0.96410019623687049</v>
       </c>
       <c r="T157">
         <f t="shared" si="60"/>
@@ -12700,7 +12700,7 @@
       </c>
       <c r="K158" s="29">
         <f t="shared" si="79"/>
-        <v>875000</v>
+        <v>875300</v>
       </c>
       <c r="L158" s="7">
         <v>1</v>
@@ -12710,15 +12710,15 @@
       </c>
       <c r="N158" s="7">
         <f t="shared" si="73"/>
-        <v>875</v>
+        <v>875.3</v>
       </c>
       <c r="O158" s="19">
         <f t="shared" si="55"/>
-        <v>0.875</v>
+        <v>0.87529999999999997</v>
       </c>
       <c r="P158" s="30">
         <f t="shared" si="56"/>
-        <v>9210.5263157894369</v>
+        <v>8910.5263157894369</v>
       </c>
       <c r="R158" s="18">
         <f t="shared" si="58"/>
@@ -12780,7 +12780,7 @@
         <v>129</v>
       </c>
       <c r="K159" s="29">
-        <f t="shared" ref="K152:K163" si="80">84000000/M159</f>
+        <f t="shared" ref="K159:K163" si="80">84000000/M159</f>
         <v>884210.52631578944</v>
       </c>
       <c r="L159" s="7">
@@ -13185,7 +13185,7 @@
         <v>134</v>
       </c>
       <c r="K164" s="29">
-        <f t="shared" ref="K160:K210" si="86">84000000/M164</f>
+        <f t="shared" ref="K164:K210" si="86">84000000/M164</f>
         <v>933333.33333333337</v>
       </c>
       <c r="L164" s="7">
@@ -16988,7 +16988,7 @@
         <v>181</v>
       </c>
       <c r="K211" s="29">
-        <f t="shared" ref="K205:K229" si="99">84000000/M211</f>
+        <f t="shared" ref="K211:K229" si="99">84000000/M211</f>
         <v>1953488.3720930233</v>
       </c>
       <c r="L211" s="7">

--- a/Frequenzen.xlsx
+++ b/Frequenzen.xlsx
@@ -1019,8 +1019,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1180,7 +1181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1214,6 +1215,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -21834,8 +21836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E201" sqref="E2:E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27157,27 +27159,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.42578125" style="31"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30">
         <v>8000000</v>
       </c>
       <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="31">
         <f>A1/1000</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>5333333</v>
       </c>
@@ -27190,12 +27195,15 @@
       <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="31">
         <f t="shared" ref="E2:E65" si="0">A2/1000</f>
         <v>5333.3329999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>4000000</v>
       </c>
@@ -27208,12 +27216,15 @@
       <c r="D3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="31">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3200000</v>
       </c>
@@ -27226,12 +27237,15 @@
       <c r="D4" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="31">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2666666</v>
       </c>
@@ -27244,12 +27258,15 @@
       <c r="D5" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="31">
         <f t="shared" si="0"/>
         <v>2666.6660000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>2285714</v>
       </c>
@@ -27262,12 +27279,15 @@
       <c r="D6" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
         <v>2285.7139999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2000000</v>
       </c>
@@ -27280,12 +27300,15 @@
       <c r="D7" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="31">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>1777777</v>
       </c>
@@ -27298,12 +27321,15 @@
       <c r="D8" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="31">
         <f t="shared" si="0"/>
         <v>1777.777</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>1600000</v>
       </c>
@@ -27316,12 +27342,15 @@
       <c r="D9" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="31">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>1454545</v>
       </c>
@@ -27334,12 +27363,15 @@
       <c r="D10" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="31">
         <f t="shared" si="0"/>
         <v>1454.5450000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>1333333</v>
       </c>
@@ -27352,12 +27384,15 @@
       <c r="D11" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="31">
         <f t="shared" si="0"/>
         <v>1333.3330000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>1230769</v>
       </c>
@@ -27370,12 +27405,15 @@
       <c r="D12" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="31">
         <f t="shared" si="0"/>
         <v>1230.769</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>1142857</v>
       </c>
@@ -27388,12 +27426,15 @@
       <c r="D13" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="31">
         <f t="shared" si="0"/>
         <v>1142.857</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>1066666</v>
       </c>
@@ -27406,12 +27447,15 @@
       <c r="D14" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="31">
         <f t="shared" si="0"/>
         <v>1066.6659999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>1000000</v>
       </c>
@@ -27424,12 +27468,15 @@
       <c r="D15" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="31">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>941176</v>
       </c>
@@ -27442,12 +27489,15 @@
       <c r="D16" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="31">
         <f t="shared" si="0"/>
         <v>941.17600000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>888888</v>
       </c>
@@ -27460,12 +27510,15 @@
       <c r="D17" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="31">
         <f t="shared" si="0"/>
         <v>888.88800000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>842105</v>
       </c>
@@ -27478,12 +27531,15 @@
       <c r="D18" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="31">
         <f t="shared" si="0"/>
         <v>842.10500000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>800000</v>
       </c>
@@ -27496,12 +27552,15 @@
       <c r="D19" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="31">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>761904</v>
       </c>
@@ -27514,12 +27573,15 @@
       <c r="D20" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="31">
         <f t="shared" si="0"/>
         <v>761.904</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>727272</v>
       </c>
@@ -27532,12 +27594,15 @@
       <c r="D21" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="31">
         <f t="shared" si="0"/>
         <v>727.27200000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>695652</v>
       </c>
@@ -27550,12 +27615,15 @@
       <c r="D22" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="31">
         <f t="shared" si="0"/>
         <v>695.65200000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>666666</v>
       </c>
@@ -27568,12 +27636,15 @@
       <c r="D23" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="31">
         <f t="shared" si="0"/>
         <v>666.66600000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>640000</v>
       </c>
@@ -27586,12 +27657,15 @@
       <c r="D24" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="31">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>615384</v>
       </c>
@@ -27604,12 +27678,15 @@
       <c r="D25" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="31">
         <f t="shared" si="0"/>
         <v>615.38400000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>592592</v>
       </c>
@@ -27622,12 +27699,15 @@
       <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="31">
         <f t="shared" si="0"/>
         <v>592.59199999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>571428</v>
       </c>
@@ -27640,12 +27720,15 @@
       <c r="D27" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="31">
         <f t="shared" si="0"/>
         <v>571.428</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>551724</v>
       </c>
@@ -27658,12 +27741,15 @@
       <c r="D28" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="31">
         <f t="shared" si="0"/>
         <v>551.72400000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>533333</v>
       </c>
@@ -27676,12 +27762,15 @@
       <c r="D29" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="31">
         <f t="shared" si="0"/>
         <v>533.33299999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>516129</v>
       </c>
@@ -27694,12 +27783,15 @@
       <c r="D30" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="31">
         <f t="shared" si="0"/>
         <v>516.12900000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>500000</v>
       </c>
@@ -27712,12 +27804,15 @@
       <c r="D31" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="31">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>484848</v>
       </c>
@@ -27730,12 +27825,15 @@
       <c r="D32" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="31">
         <f t="shared" si="0"/>
         <v>484.84800000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>470588</v>
       </c>
@@ -27748,12 +27846,15 @@
       <c r="D33" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="31">
         <f t="shared" si="0"/>
         <v>470.58800000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>457142</v>
       </c>
@@ -27766,12 +27867,15 @@
       <c r="D34" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="31">
         <f t="shared" si="0"/>
         <v>457.142</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>444444</v>
       </c>
@@ -27784,12 +27888,15 @@
       <c r="D35" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="31">
         <f t="shared" si="0"/>
         <v>444.44400000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>432432</v>
       </c>
@@ -27802,12 +27909,15 @@
       <c r="D36" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="31">
         <f t="shared" si="0"/>
         <v>432.43200000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>421052</v>
       </c>
@@ -27820,12 +27930,15 @@
       <c r="D37" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="31">
         <f t="shared" si="0"/>
         <v>421.05200000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>410256</v>
       </c>
@@ -27838,12 +27951,15 @@
       <c r="D38" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="31">
         <f t="shared" si="0"/>
         <v>410.25599999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>400000</v>
       </c>
@@ -27856,12 +27972,15 @@
       <c r="D39" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="31">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>390243</v>
       </c>
@@ -27874,12 +27993,15 @@
       <c r="D40" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="31">
         <f t="shared" si="0"/>
         <v>390.24299999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>380952</v>
       </c>
@@ -27892,12 +28014,15 @@
       <c r="D41" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="31">
         <f t="shared" si="0"/>
         <v>380.952</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>372093</v>
       </c>
@@ -27910,12 +28035,15 @@
       <c r="D42" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="31">
         <f t="shared" si="0"/>
         <v>372.09300000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>363636</v>
       </c>
@@ -27928,12 +28056,15 @@
       <c r="D43" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="31">
         <f t="shared" si="0"/>
         <v>363.63600000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>355555</v>
       </c>
@@ -27946,12 +28077,15 @@
       <c r="D44" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="31">
         <f t="shared" si="0"/>
         <v>355.55500000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>347826</v>
       </c>
@@ -27964,12 +28098,15 @@
       <c r="D45" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="31">
         <f t="shared" si="0"/>
         <v>347.82600000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>340425</v>
       </c>
@@ -27982,12 +28119,15 @@
       <c r="D46" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="31">
         <f t="shared" si="0"/>
         <v>340.42500000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>333333</v>
       </c>
@@ -28000,12 +28140,15 @@
       <c r="D47" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="31">
         <f t="shared" si="0"/>
         <v>333.33300000000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>326530</v>
       </c>
@@ -28018,12 +28161,15 @@
       <c r="D48" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="31">
         <f t="shared" si="0"/>
         <v>326.52999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>320000</v>
       </c>
@@ -28036,12 +28182,15 @@
       <c r="D49" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="31">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>313725</v>
       </c>
@@ -28054,12 +28203,15 @@
       <c r="D50" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="31">
         <f t="shared" si="0"/>
         <v>313.72500000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>307692</v>
       </c>
@@ -28072,12 +28224,15 @@
       <c r="D51" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="31">
         <f t="shared" si="0"/>
         <v>307.69200000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>301886</v>
       </c>
@@ -28090,12 +28245,15 @@
       <c r="D52" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="31">
         <f t="shared" si="0"/>
         <v>301.88600000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>296296</v>
       </c>
@@ -28108,12 +28266,15 @@
       <c r="D53" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="31">
         <f t="shared" si="0"/>
         <v>296.29599999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>290909</v>
       </c>
@@ -28126,12 +28287,15 @@
       <c r="D54" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="31">
         <f t="shared" si="0"/>
         <v>290.90899999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>285714</v>
       </c>
@@ -28144,12 +28308,15 @@
       <c r="D55" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="31">
         <f t="shared" si="0"/>
         <v>285.714</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>280701</v>
       </c>
@@ -28162,12 +28329,15 @@
       <c r="D56" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="31">
         <f t="shared" si="0"/>
         <v>280.70100000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>275862</v>
       </c>
@@ -28180,12 +28350,15 @@
       <c r="D57" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="31">
         <f t="shared" si="0"/>
         <v>275.86200000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>271186</v>
       </c>
@@ -28198,12 +28371,15 @@
       <c r="D58" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="31">
         <f t="shared" si="0"/>
         <v>271.18599999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>266666</v>
       </c>
@@ -28216,12 +28392,15 @@
       <c r="D59" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="31">
         <f t="shared" si="0"/>
         <v>266.666</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>262295</v>
       </c>
@@ -28234,12 +28413,15 @@
       <c r="D60" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="31">
         <f t="shared" si="0"/>
         <v>262.29500000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>258064</v>
       </c>
@@ -28252,12 +28434,15 @@
       <c r="D61" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="31">
         <f t="shared" si="0"/>
         <v>258.06400000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>253968</v>
       </c>
@@ -28270,12 +28455,15 @@
       <c r="D62" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="31">
         <f t="shared" si="0"/>
         <v>253.96799999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>250000</v>
       </c>
@@ -28288,12 +28476,15 @@
       <c r="D63" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="31">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>246153</v>
       </c>
@@ -28306,12 +28497,15 @@
       <c r="D64" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="31">
         <f t="shared" si="0"/>
         <v>246.15299999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>242424</v>
       </c>
@@ -28324,12 +28518,15 @@
       <c r="D65" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="31">
         <f t="shared" si="0"/>
         <v>242.42400000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>238805</v>
       </c>
@@ -28342,12 +28539,15 @@
       <c r="D66" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="31">
         <f t="shared" ref="E66:E129" si="1">A66/1000</f>
         <v>238.80500000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>235294</v>
       </c>
@@ -28360,12 +28560,15 @@
       <c r="D67" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="31">
         <f t="shared" si="1"/>
         <v>235.29400000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>231884</v>
       </c>
@@ -28378,12 +28581,15 @@
       <c r="D68" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="31">
         <f t="shared" si="1"/>
         <v>231.88399999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>228571</v>
       </c>
@@ -28396,12 +28602,15 @@
       <c r="D69" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="31">
         <f t="shared" si="1"/>
         <v>228.571</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>225352</v>
       </c>
@@ -28414,12 +28623,15 @@
       <c r="D70" t="s">
         <v>134</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="31">
         <f t="shared" si="1"/>
         <v>225.352</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>222222</v>
       </c>
@@ -28432,12 +28644,15 @@
       <c r="D71" t="s">
         <v>134</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="31">
         <f t="shared" si="1"/>
         <v>222.22200000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>219178</v>
       </c>
@@ -28450,12 +28665,15 @@
       <c r="D72" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="31">
         <f t="shared" si="1"/>
         <v>219.178</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>216216</v>
       </c>
@@ -28468,12 +28686,15 @@
       <c r="D73" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="31">
         <f t="shared" si="1"/>
         <v>216.21600000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>213333</v>
       </c>
@@ -28486,12 +28707,15 @@
       <c r="D74" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="31">
         <f t="shared" si="1"/>
         <v>213.333</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>210526</v>
       </c>
@@ -28504,12 +28728,15 @@
       <c r="D75" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="31">
         <f t="shared" si="1"/>
         <v>210.52600000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>207792</v>
       </c>
@@ -28522,12 +28749,15 @@
       <c r="D76" t="s">
         <v>134</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="31">
         <f t="shared" si="1"/>
         <v>207.792</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>205128</v>
       </c>
@@ -28540,12 +28770,15 @@
       <c r="D77" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="31">
         <f t="shared" si="1"/>
         <v>205.12799999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>202531</v>
       </c>
@@ -28558,12 +28791,15 @@
       <c r="D78" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="31">
         <f t="shared" si="1"/>
         <v>202.53100000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>200000</v>
       </c>
@@ -28576,12 +28812,15 @@
       <c r="D79" t="s">
         <v>134</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="31">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>197530</v>
       </c>
@@ -28594,12 +28833,15 @@
       <c r="D80" t="s">
         <v>134</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="31">
         <f t="shared" si="1"/>
         <v>197.53</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
         <v>195121</v>
       </c>
@@ -28612,12 +28854,15 @@
       <c r="D81" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="31">
         <f t="shared" si="1"/>
         <v>195.12100000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>192771</v>
       </c>
@@ -28630,12 +28875,15 @@
       <c r="D82" t="s">
         <v>134</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="31">
         <f t="shared" si="1"/>
         <v>192.77099999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="30">
         <v>190476</v>
       </c>
@@ -28648,12 +28896,15 @@
       <c r="D83" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="31">
         <f t="shared" si="1"/>
         <v>190.476</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>188235</v>
       </c>
@@ -28666,12 +28917,15 @@
       <c r="D84" t="s">
         <v>134</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="31">
         <f t="shared" si="1"/>
         <v>188.23500000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>186046</v>
       </c>
@@ -28684,12 +28938,15 @@
       <c r="D85" t="s">
         <v>134</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="31">
         <f t="shared" si="1"/>
         <v>186.04599999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="30">
         <v>183908</v>
       </c>
@@ -28702,12 +28959,15 @@
       <c r="D86" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="31">
         <f t="shared" si="1"/>
         <v>183.90799999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="30">
         <v>181818</v>
       </c>
@@ -28720,12 +28980,15 @@
       <c r="D87" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="31">
         <f t="shared" si="1"/>
         <v>181.81800000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="30">
         <v>179775</v>
       </c>
@@ -28738,12 +29001,15 @@
       <c r="D88" t="s">
         <v>134</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="31">
         <f t="shared" si="1"/>
         <v>179.77500000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="30">
         <v>177777</v>
       </c>
@@ -28756,12 +29022,15 @@
       <c r="D89" t="s">
         <v>134</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="31">
         <f t="shared" si="1"/>
         <v>177.77699999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="30">
         <v>175824</v>
       </c>
@@ -28774,12 +29043,15 @@
       <c r="D90" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="31">
         <f t="shared" si="1"/>
         <v>175.82400000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="30">
         <v>173913</v>
       </c>
@@ -28792,12 +29064,15 @@
       <c r="D91" t="s">
         <v>134</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="31">
         <f t="shared" si="1"/>
         <v>173.91300000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="30">
         <v>172043</v>
       </c>
@@ -28810,12 +29085,15 @@
       <c r="D92" t="s">
         <v>134</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="31">
         <f t="shared" si="1"/>
         <v>172.04300000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="30">
         <v>170212</v>
       </c>
@@ -28828,12 +29106,15 @@
       <c r="D93" t="s">
         <v>134</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="31">
         <f t="shared" si="1"/>
         <v>170.21199999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="30">
         <v>168421</v>
       </c>
@@ -28846,12 +29127,15 @@
       <c r="D94" t="s">
         <v>134</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="31">
         <f t="shared" si="1"/>
         <v>168.42099999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="30">
         <v>166666</v>
       </c>
@@ -28864,12 +29148,15 @@
       <c r="D95" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="31">
         <f t="shared" si="1"/>
         <v>166.666</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="30">
         <v>164948</v>
       </c>
@@ -28882,12 +29169,15 @@
       <c r="D96" t="s">
         <v>134</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="31">
         <f t="shared" si="1"/>
         <v>164.94800000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="30">
         <v>163265</v>
       </c>
@@ -28900,12 +29190,15 @@
       <c r="D97" t="s">
         <v>134</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="31">
         <f t="shared" si="1"/>
         <v>163.26499999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="30">
         <v>161616</v>
       </c>
@@ -28918,12 +29211,15 @@
       <c r="D98" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="31">
         <f t="shared" si="1"/>
         <v>161.61600000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="30">
         <v>160000</v>
       </c>
@@ -28936,12 +29232,15 @@
       <c r="D99" t="s">
         <v>134</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="31">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="30">
         <v>158415</v>
       </c>
@@ -28954,12 +29253,15 @@
       <c r="D100" t="s">
         <v>134</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="31">
         <f t="shared" si="1"/>
         <v>158.41499999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="30">
         <v>156862</v>
       </c>
@@ -28972,12 +29274,15 @@
       <c r="D101" t="s">
         <v>134</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="31">
         <f t="shared" si="1"/>
         <v>156.86199999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="30">
         <v>155339</v>
       </c>
@@ -28990,12 +29295,15 @@
       <c r="D102" t="s">
         <v>134</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="31">
         <f t="shared" si="1"/>
         <v>155.339</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="30">
         <v>153846</v>
       </c>
@@ -29008,12 +29316,15 @@
       <c r="D103" t="s">
         <v>134</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="31">
         <f t="shared" si="1"/>
         <v>153.846</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="30">
         <v>152380</v>
       </c>
@@ -29026,12 +29337,15 @@
       <c r="D104" t="s">
         <v>134</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="31">
         <f t="shared" si="1"/>
         <v>152.38</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="30">
         <v>150943</v>
       </c>
@@ -29044,12 +29358,15 @@
       <c r="D105" t="s">
         <v>134</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="31">
         <f t="shared" si="1"/>
         <v>150.94300000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="30">
         <v>149532</v>
       </c>
@@ -29062,12 +29379,15 @@
       <c r="D106" t="s">
         <v>134</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="31">
         <f t="shared" si="1"/>
         <v>149.53200000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="30">
         <v>148148</v>
       </c>
@@ -29080,12 +29400,15 @@
       <c r="D107" t="s">
         <v>134</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="31">
         <f t="shared" si="1"/>
         <v>148.148</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>146788</v>
       </c>
@@ -29098,12 +29421,15 @@
       <c r="D108" t="s">
         <v>134</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="31">
         <f t="shared" si="1"/>
         <v>146.78800000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>145454</v>
       </c>
@@ -29116,12 +29442,15 @@
       <c r="D109" t="s">
         <v>134</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="31">
         <f t="shared" si="1"/>
         <v>145.45400000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="30">
         <v>144144</v>
       </c>
@@ -29134,12 +29463,15 @@
       <c r="D110" t="s">
         <v>134</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="31">
         <f t="shared" si="1"/>
         <v>144.14400000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>142857</v>
       </c>
@@ -29152,12 +29484,15 @@
       <c r="D111" t="s">
         <v>134</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="31">
         <f t="shared" si="1"/>
         <v>142.857</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
         <v>141592</v>
       </c>
@@ -29170,12 +29505,15 @@
       <c r="D112" t="s">
         <v>134</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="31">
         <f t="shared" si="1"/>
         <v>141.59200000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="30">
         <v>140350</v>
       </c>
@@ -29188,12 +29526,15 @@
       <c r="D113" t="s">
         <v>134</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="31">
         <f t="shared" si="1"/>
         <v>140.35</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="30">
         <v>139130</v>
       </c>
@@ -29206,12 +29547,15 @@
       <c r="D114" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E114" s="31">
         <f t="shared" si="1"/>
         <v>139.13</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="30">
         <v>137931</v>
       </c>
@@ -29224,12 +29568,15 @@
       <c r="D115" t="s">
         <v>134</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E115" s="31">
         <f t="shared" si="1"/>
         <v>137.93100000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="30">
         <v>136752</v>
       </c>
@@ -29242,12 +29589,15 @@
       <c r="D116" t="s">
         <v>134</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E116" s="31">
         <f t="shared" si="1"/>
         <v>136.75200000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="30">
         <v>135593</v>
       </c>
@@ -29260,12 +29610,15 @@
       <c r="D117" t="s">
         <v>134</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="31">
         <f t="shared" si="1"/>
         <v>135.59299999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="30">
         <v>134453</v>
       </c>
@@ -29278,12 +29631,15 @@
       <c r="D118" t="s">
         <v>134</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="31">
         <f t="shared" si="1"/>
         <v>134.453</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="30">
         <v>133333</v>
       </c>
@@ -29296,12 +29652,15 @@
       <c r="D119" t="s">
         <v>134</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="31">
         <f t="shared" si="1"/>
         <v>133.333</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="30">
         <v>132231</v>
       </c>
@@ -29314,12 +29673,15 @@
       <c r="D120" t="s">
         <v>134</v>
       </c>
-      <c r="E120" s="18">
+      <c r="E120" s="31">
         <f t="shared" si="1"/>
         <v>132.23099999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="30">
         <v>131147</v>
       </c>
@@ -29332,12 +29694,15 @@
       <c r="D121" t="s">
         <v>134</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="31">
         <f t="shared" si="1"/>
         <v>131.14699999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="30">
         <v>130081</v>
       </c>
@@ -29350,12 +29715,15 @@
       <c r="D122" t="s">
         <v>134</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E122" s="31">
         <f t="shared" si="1"/>
         <v>130.08099999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="30">
         <v>129032</v>
       </c>
@@ -29368,12 +29736,15 @@
       <c r="D123" t="s">
         <v>134</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E123" s="31">
         <f t="shared" si="1"/>
         <v>129.03200000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="30">
         <v>128000</v>
       </c>
@@ -29386,12 +29757,15 @@
       <c r="D124" t="s">
         <v>134</v>
       </c>
-      <c r="E124" s="18">
+      <c r="E124" s="31">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="30">
         <v>126984</v>
       </c>
@@ -29404,12 +29778,15 @@
       <c r="D125" t="s">
         <v>134</v>
       </c>
-      <c r="E125" s="18">
+      <c r="E125" s="31">
         <f t="shared" si="1"/>
         <v>126.98399999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="30">
         <v>125984</v>
       </c>
@@ -29422,12 +29799,15 @@
       <c r="D126" t="s">
         <v>134</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="31">
         <f t="shared" si="1"/>
         <v>125.98399999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="30">
         <v>125000</v>
       </c>
@@ -29440,12 +29820,15 @@
       <c r="D127" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="18">
+      <c r="E127" s="31">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="30">
         <v>124031</v>
       </c>
@@ -29458,12 +29841,15 @@
       <c r="D128" t="s">
         <v>134</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E128" s="31">
         <f t="shared" si="1"/>
         <v>124.03100000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="30">
         <v>123076</v>
       </c>
@@ -29476,12 +29862,15 @@
       <c r="D129" t="s">
         <v>134</v>
       </c>
-      <c r="E129" s="18">
+      <c r="E129" s="31">
         <f t="shared" si="1"/>
         <v>123.07599999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>122137</v>
       </c>
@@ -29494,12 +29883,15 @@
       <c r="D130" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="18">
+      <c r="E130" s="31">
         <f t="shared" ref="E130:E193" si="2">A130/1000</f>
         <v>122.137</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="30">
         <v>121212</v>
       </c>
@@ -29512,12 +29904,15 @@
       <c r="D131" t="s">
         <v>134</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="31">
         <f t="shared" si="2"/>
         <v>121.212</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="30">
         <v>120300</v>
       </c>
@@ -29530,12 +29925,15 @@
       <c r="D132" t="s">
         <v>134</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="31">
         <f t="shared" si="2"/>
         <v>120.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="30">
         <v>119402</v>
       </c>
@@ -29548,12 +29946,15 @@
       <c r="D133" t="s">
         <v>134</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="31">
         <f t="shared" si="2"/>
         <v>119.402</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="30">
         <v>118518</v>
       </c>
@@ -29566,12 +29967,15 @@
       <c r="D134" t="s">
         <v>134</v>
       </c>
-      <c r="E134" s="18">
+      <c r="E134" s="31">
         <f t="shared" si="2"/>
         <v>118.518</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="30">
         <v>117647</v>
       </c>
@@ -29584,12 +29988,15 @@
       <c r="D135" t="s">
         <v>134</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E135" s="31">
         <f t="shared" si="2"/>
         <v>117.64700000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="30">
         <v>116788</v>
       </c>
@@ -29602,12 +30009,15 @@
       <c r="D136" t="s">
         <v>134</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E136" s="31">
         <f t="shared" si="2"/>
         <v>116.788</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="30">
         <v>115942</v>
       </c>
@@ -29620,12 +30030,15 @@
       <c r="D137" t="s">
         <v>134</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="31">
         <f t="shared" si="2"/>
         <v>115.94199999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="30">
         <v>115107</v>
       </c>
@@ -29638,12 +30051,15 @@
       <c r="D138" t="s">
         <v>134</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="31">
         <f t="shared" si="2"/>
         <v>115.107</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="30">
         <v>114285</v>
       </c>
@@ -29656,12 +30072,15 @@
       <c r="D139" t="s">
         <v>134</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="31">
         <f t="shared" si="2"/>
         <v>114.285</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="30">
         <v>113475</v>
       </c>
@@ -29674,12 +30093,15 @@
       <c r="D140" t="s">
         <v>134</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="31">
         <f t="shared" si="2"/>
         <v>113.47499999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
         <v>112676</v>
       </c>
@@ -29692,12 +30114,15 @@
       <c r="D141" t="s">
         <v>134</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="31">
         <f t="shared" si="2"/>
         <v>112.676</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>111888</v>
       </c>
@@ -29710,12 +30135,15 @@
       <c r="D142" t="s">
         <v>134</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="31">
         <f t="shared" si="2"/>
         <v>111.88800000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="30">
         <v>111111</v>
       </c>
@@ -29728,12 +30156,15 @@
       <c r="D143" t="s">
         <v>134</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="31">
         <f t="shared" si="2"/>
         <v>111.111</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="30">
         <v>110344</v>
       </c>
@@ -29746,12 +30177,15 @@
       <c r="D144" t="s">
         <v>134</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E144" s="31">
         <f t="shared" si="2"/>
         <v>110.34399999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="30">
         <v>109589</v>
       </c>
@@ -29764,12 +30198,15 @@
       <c r="D145" t="s">
         <v>134</v>
       </c>
-      <c r="E145" s="18">
+      <c r="E145" s="31">
         <f t="shared" si="2"/>
         <v>109.589</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="30">
         <v>108843</v>
       </c>
@@ -29782,12 +30219,15 @@
       <c r="D146" t="s">
         <v>134</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="31">
         <f t="shared" si="2"/>
         <v>108.843</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="30">
         <v>108108</v>
       </c>
@@ -29800,12 +30240,15 @@
       <c r="D147" t="s">
         <v>134</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E147" s="31">
         <f t="shared" si="2"/>
         <v>108.108</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="30">
         <v>107382</v>
       </c>
@@ -29818,12 +30261,15 @@
       <c r="D148" t="s">
         <v>134</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E148" s="31">
         <f t="shared" si="2"/>
         <v>107.38200000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="30">
         <v>106666</v>
       </c>
@@ -29836,12 +30282,15 @@
       <c r="D149" t="s">
         <v>134</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="31">
         <f t="shared" si="2"/>
         <v>106.666</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
         <v>105960</v>
       </c>
@@ -29854,12 +30303,15 @@
       <c r="D150" t="s">
         <v>134</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="31">
         <f t="shared" si="2"/>
         <v>105.96</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="30">
         <v>105263</v>
       </c>
@@ -29872,12 +30324,15 @@
       <c r="D151" t="s">
         <v>134</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E151" s="31">
         <f t="shared" si="2"/>
         <v>105.26300000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="30">
         <v>104575</v>
       </c>
@@ -29890,12 +30345,15 @@
       <c r="D152" t="s">
         <v>134</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="31">
         <f t="shared" si="2"/>
         <v>104.575</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="30">
         <v>103896</v>
       </c>
@@ -29908,12 +30366,15 @@
       <c r="D153" t="s">
         <v>134</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="31">
         <f t="shared" si="2"/>
         <v>103.896</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="30">
         <v>103225</v>
       </c>
@@ -29926,12 +30387,15 @@
       <c r="D154" t="s">
         <v>134</v>
       </c>
-      <c r="E154" s="18">
+      <c r="E154" s="31">
         <f t="shared" si="2"/>
         <v>103.22499999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="30">
         <v>102564</v>
       </c>
@@ -29944,12 +30408,15 @@
       <c r="D155" t="s">
         <v>134</v>
       </c>
-      <c r="E155" s="18">
+      <c r="E155" s="31">
         <f t="shared" si="2"/>
         <v>102.56399999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="30">
         <v>101910</v>
       </c>
@@ -29962,12 +30429,15 @@
       <c r="D156" t="s">
         <v>134</v>
       </c>
-      <c r="E156" s="18">
+      <c r="E156" s="31">
         <f t="shared" si="2"/>
         <v>101.91</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
         <v>101265</v>
       </c>
@@ -29980,12 +30450,15 @@
       <c r="D157" t="s">
         <v>134</v>
       </c>
-      <c r="E157" s="18">
+      <c r="E157" s="31">
         <f t="shared" si="2"/>
         <v>101.265</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="30">
         <v>100628</v>
       </c>
@@ -29998,12 +30471,15 @@
       <c r="D158" t="s">
         <v>134</v>
       </c>
-      <c r="E158" s="18">
+      <c r="E158" s="31">
         <f t="shared" si="2"/>
         <v>100.628</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="30">
         <v>100000</v>
       </c>
@@ -30016,12 +30492,15 @@
       <c r="D159" t="s">
         <v>134</v>
       </c>
-      <c r="E159" s="18">
+      <c r="E159" s="31">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="30">
         <v>99378</v>
       </c>
@@ -30034,12 +30513,15 @@
       <c r="D160" t="s">
         <v>134</v>
       </c>
-      <c r="E160" s="18">
+      <c r="E160" s="31">
         <f t="shared" si="2"/>
         <v>99.378</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="30">
         <v>98765</v>
       </c>
@@ -30052,12 +30534,15 @@
       <c r="D161" t="s">
         <v>134</v>
       </c>
-      <c r="E161" s="18">
+      <c r="E161" s="31">
         <f t="shared" si="2"/>
         <v>98.765000000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="30">
         <v>98159</v>
       </c>
@@ -30070,12 +30555,15 @@
       <c r="D162" t="s">
         <v>134</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="31">
         <f t="shared" si="2"/>
         <v>98.159000000000006</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="30">
         <v>97560</v>
       </c>
@@ -30088,12 +30576,15 @@
       <c r="D163" t="s">
         <v>134</v>
       </c>
-      <c r="E163" s="18">
+      <c r="E163" s="31">
         <f t="shared" si="2"/>
         <v>97.56</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="30">
         <v>96969</v>
       </c>
@@ -30106,12 +30597,15 @@
       <c r="D164" t="s">
         <v>134</v>
       </c>
-      <c r="E164" s="18">
+      <c r="E164" s="31">
         <f t="shared" si="2"/>
         <v>96.968999999999994</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="30">
         <v>96385</v>
       </c>
@@ -30124,12 +30618,15 @@
       <c r="D165" t="s">
         <v>134</v>
       </c>
-      <c r="E165" s="18">
+      <c r="E165" s="31">
         <f t="shared" si="2"/>
         <v>96.385000000000005</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="30">
         <v>95808</v>
       </c>
@@ -30142,12 +30639,15 @@
       <c r="D166" t="s">
         <v>134</v>
       </c>
-      <c r="E166" s="18">
+      <c r="E166" s="31">
         <f t="shared" si="2"/>
         <v>95.808000000000007</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="30">
         <v>95238</v>
       </c>
@@ -30160,12 +30660,15 @@
       <c r="D167" t="s">
         <v>134</v>
       </c>
-      <c r="E167" s="18">
+      <c r="E167" s="31">
         <f t="shared" si="2"/>
         <v>95.238</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="30">
         <v>94674</v>
       </c>
@@ -30178,12 +30681,15 @@
       <c r="D168" t="s">
         <v>134</v>
       </c>
-      <c r="E168" s="18">
+      <c r="E168" s="31">
         <f t="shared" si="2"/>
         <v>94.674000000000007</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="30">
         <v>94117</v>
       </c>
@@ -30196,12 +30702,15 @@
       <c r="D169" t="s">
         <v>134</v>
       </c>
-      <c r="E169" s="18">
+      <c r="E169" s="31">
         <f t="shared" si="2"/>
         <v>94.117000000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="30">
         <v>93567</v>
       </c>
@@ -30214,12 +30723,15 @@
       <c r="D170" t="s">
         <v>134</v>
       </c>
-      <c r="E170" s="18">
+      <c r="E170" s="31">
         <f t="shared" si="2"/>
         <v>93.566999999999993</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="30">
         <v>93023</v>
       </c>
@@ -30232,12 +30744,15 @@
       <c r="D171" t="s">
         <v>134</v>
       </c>
-      <c r="E171" s="18">
+      <c r="E171" s="31">
         <f t="shared" si="2"/>
         <v>93.022999999999996</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="30">
         <v>92485</v>
       </c>
@@ -30250,12 +30765,15 @@
       <c r="D172" t="s">
         <v>134</v>
       </c>
-      <c r="E172" s="18">
+      <c r="E172" s="31">
         <f t="shared" si="2"/>
         <v>92.484999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="30">
         <v>91954</v>
       </c>
@@ -30268,12 +30786,15 @@
       <c r="D173" t="s">
         <v>134</v>
       </c>
-      <c r="E173" s="18">
+      <c r="E173" s="31">
         <f t="shared" si="2"/>
         <v>91.953999999999994</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="30">
         <v>91428</v>
       </c>
@@ -30286,12 +30807,15 @@
       <c r="D174" t="s">
         <v>134</v>
       </c>
-      <c r="E174" s="18">
+      <c r="E174" s="31">
         <f t="shared" si="2"/>
         <v>91.427999999999997</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="30">
         <v>90909</v>
       </c>
@@ -30304,12 +30828,15 @@
       <c r="D175" t="s">
         <v>134</v>
       </c>
-      <c r="E175" s="18">
+      <c r="E175" s="31">
         <f t="shared" si="2"/>
         <v>90.909000000000006</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="30">
         <v>90395</v>
       </c>
@@ -30322,12 +30849,15 @@
       <c r="D176" t="s">
         <v>134</v>
       </c>
-      <c r="E176" s="18">
+      <c r="E176" s="31">
         <f t="shared" si="2"/>
         <v>90.394999999999996</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="30">
         <v>89887</v>
       </c>
@@ -30340,12 +30870,15 @@
       <c r="D177" t="s">
         <v>134</v>
       </c>
-      <c r="E177" s="18">
+      <c r="E177" s="31">
         <f t="shared" si="2"/>
         <v>89.887</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="30">
         <v>89385</v>
       </c>
@@ -30358,12 +30891,15 @@
       <c r="D178" t="s">
         <v>134</v>
       </c>
-      <c r="E178" s="18">
+      <c r="E178" s="31">
         <f t="shared" si="2"/>
         <v>89.385000000000005</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="30">
         <v>88888</v>
       </c>
@@ -30376,12 +30912,15 @@
       <c r="D179" t="s">
         <v>134</v>
       </c>
-      <c r="E179" s="18">
+      <c r="E179" s="31">
         <f t="shared" si="2"/>
         <v>88.888000000000005</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="30">
         <v>88397</v>
       </c>
@@ -30394,12 +30933,15 @@
       <c r="D180" t="s">
         <v>134</v>
       </c>
-      <c r="E180" s="18">
+      <c r="E180" s="31">
         <f t="shared" si="2"/>
         <v>88.397000000000006</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="30">
         <v>87912</v>
       </c>
@@ -30412,12 +30954,15 @@
       <c r="D181" t="s">
         <v>134</v>
       </c>
-      <c r="E181" s="18">
+      <c r="E181" s="31">
         <f t="shared" si="2"/>
         <v>87.912000000000006</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="30">
         <v>87431</v>
       </c>
@@ -30430,12 +30975,15 @@
       <c r="D182" t="s">
         <v>134</v>
       </c>
-      <c r="E182" s="18">
+      <c r="E182" s="31">
         <f t="shared" si="2"/>
         <v>87.430999999999997</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="30">
         <v>86956</v>
       </c>
@@ -30448,12 +30996,15 @@
       <c r="D183" t="s">
         <v>134</v>
       </c>
-      <c r="E183" s="18">
+      <c r="E183" s="31">
         <f t="shared" si="2"/>
         <v>86.956000000000003</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
         <v>86486</v>
       </c>
@@ -30466,12 +31017,15 @@
       <c r="D184" t="s">
         <v>134</v>
       </c>
-      <c r="E184" s="18">
+      <c r="E184" s="31">
         <f t="shared" si="2"/>
         <v>86.486000000000004</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="30">
         <v>86021</v>
       </c>
@@ -30484,12 +31038,15 @@
       <c r="D185" t="s">
         <v>134</v>
       </c>
-      <c r="E185" s="18">
+      <c r="E185" s="31">
         <f t="shared" si="2"/>
         <v>86.021000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="30">
         <v>85561</v>
       </c>
@@ -30502,12 +31059,15 @@
       <c r="D186" t="s">
         <v>134</v>
       </c>
-      <c r="E186" s="18">
+      <c r="E186" s="31">
         <f t="shared" si="2"/>
         <v>85.561000000000007</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="30">
         <v>85106</v>
       </c>
@@ -30520,12 +31080,15 @@
       <c r="D187" t="s">
         <v>134</v>
       </c>
-      <c r="E187" s="18">
+      <c r="E187" s="31">
         <f t="shared" si="2"/>
         <v>85.105999999999995</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="30">
         <v>84656</v>
       </c>
@@ -30538,12 +31101,15 @@
       <c r="D188" t="s">
         <v>134</v>
       </c>
-      <c r="E188" s="18">
+      <c r="E188" s="31">
         <f t="shared" si="2"/>
         <v>84.656000000000006</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="30">
         <v>84210</v>
       </c>
@@ -30556,12 +31122,15 @@
       <c r="D189" t="s">
         <v>134</v>
       </c>
-      <c r="E189" s="18">
+      <c r="E189" s="31">
         <f t="shared" si="2"/>
         <v>84.21</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
         <v>83769</v>
       </c>
@@ -30574,12 +31143,15 @@
       <c r="D190" t="s">
         <v>134</v>
       </c>
-      <c r="E190" s="18">
+      <c r="E190" s="31">
         <f t="shared" si="2"/>
         <v>83.769000000000005</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="30">
         <v>83333</v>
       </c>
@@ -30592,12 +31164,15 @@
       <c r="D191" t="s">
         <v>134</v>
       </c>
-      <c r="E191" s="18">
+      <c r="E191" s="31">
         <f t="shared" si="2"/>
         <v>83.332999999999998</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="30">
         <v>82901</v>
       </c>
@@ -30610,12 +31185,15 @@
       <c r="D192" t="s">
         <v>134</v>
       </c>
-      <c r="E192" s="18">
+      <c r="E192" s="31">
         <f t="shared" si="2"/>
         <v>82.900999999999996</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="30">
         <v>82474</v>
       </c>
@@ -30628,12 +31206,15 @@
       <c r="D193" t="s">
         <v>134</v>
       </c>
-      <c r="E193" s="18">
+      <c r="E193" s="31">
         <f t="shared" si="2"/>
         <v>82.474000000000004</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="30">
         <v>82051</v>
       </c>
@@ -30646,12 +31227,15 @@
       <c r="D194" t="s">
         <v>134</v>
       </c>
-      <c r="E194" s="18">
+      <c r="E194" s="31">
         <f t="shared" ref="E194:E200" si="3">A194/1000</f>
         <v>82.051000000000002</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="30">
         <v>81632</v>
       </c>
@@ -30664,12 +31248,15 @@
       <c r="D195" t="s">
         <v>134</v>
       </c>
-      <c r="E195" s="18">
+      <c r="E195" s="31">
         <f t="shared" si="3"/>
         <v>81.632000000000005</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="30">
         <v>81218</v>
       </c>
@@ -30682,12 +31269,15 @@
       <c r="D196" t="s">
         <v>134</v>
       </c>
-      <c r="E196" s="18">
+      <c r="E196" s="31">
         <f t="shared" si="3"/>
         <v>81.218000000000004</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="30">
         <v>80808</v>
       </c>
@@ -30700,12 +31290,15 @@
       <c r="D197" t="s">
         <v>134</v>
       </c>
-      <c r="E197" s="18">
+      <c r="E197" s="31">
         <f t="shared" si="3"/>
         <v>80.808000000000007</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="30">
         <v>80402</v>
       </c>
@@ -30718,12 +31311,15 @@
       <c r="D198" t="s">
         <v>134</v>
       </c>
-      <c r="E198" s="18">
+      <c r="E198" s="31">
         <f t="shared" si="3"/>
         <v>80.402000000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="30">
         <v>80002</v>
       </c>
@@ -30736,12 +31332,15 @@
       <c r="D199" t="s">
         <v>134</v>
       </c>
-      <c r="E199" s="18">
+      <c r="E199" s="31">
         <f t="shared" si="3"/>
         <v>80.001999999999995</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
         <v>79600</v>
       </c>
@@ -30754,9 +31353,12 @@
       <c r="D200" t="s">
         <v>134</v>
       </c>
-      <c r="E200" s="18">
+      <c r="E200" s="31">
         <f t="shared" si="3"/>
         <v>79.599999999999994</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
